--- a/Logs/heyprimo_api_tracking.xlsx
+++ b/Logs/heyprimo_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="73">
   <si>
     <t>Timestamp</t>
   </si>
@@ -64,12 +64,87 @@
     <t>2025-07-25 17:21:21</t>
   </si>
   <si>
+    <t>2025-08-01 12:53:33</t>
+  </si>
+  <si>
+    <t>2025-08-01 12:54:35</t>
+  </si>
+  <si>
+    <t>2025-08-01 12:55:36</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:09:52</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:10:56</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:11:00</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:12:23</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:12:55</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:16:17</t>
+  </si>
+  <si>
+    <t>2025-08-01 13:16:54</t>
+  </si>
+  <si>
+    <t>2025-08-02 09:07:59</t>
+  </si>
+  <si>
+    <t>2025-08-02 09:08:34</t>
+  </si>
+  <si>
+    <t>2025-08-02 09:11:18</t>
+  </si>
+  <si>
+    <t>2025-08-02 09:11:51</t>
+  </si>
+  <si>
+    <t>2025-08-02 09:25:01</t>
+  </si>
+  <si>
+    <t>2025-08-02 09:25:33</t>
+  </si>
+  <si>
+    <t>2025-08-04 06:25:53</t>
+  </si>
+  <si>
+    <t>2025-08-04 06:53:24</t>
+  </si>
+  <si>
+    <t>2025-08-04 06:54:04</t>
+  </si>
+  <si>
+    <t>2025-08-04 06:54:34</t>
+  </si>
+  <si>
     <t>NEW YORK</t>
   </si>
   <si>
+    <t>CHARLESTON</t>
+  </si>
+  <si>
+    <t>OAKLAND</t>
+  </si>
+  <si>
+    <t>LOS ANGELES</t>
+  </si>
+  <si>
     <t>NJ</t>
   </si>
   <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
     <t>07201</t>
   </si>
   <si>
@@ -79,15 +154,51 @@
     <t>SOMERSET</t>
   </si>
   <si>
+    <t>HOPEWELL JUNCTION</t>
+  </si>
+  <si>
+    <t>CHARLOTTE</t>
+  </si>
+  <si>
+    <t>FORT WAYNE</t>
+  </si>
+  <si>
+    <t>OAKLEY</t>
+  </si>
+  <si>
+    <t>GREENCASTLE</t>
+  </si>
+  <si>
+    <t>FLORENCE</t>
+  </si>
+  <si>
+    <t>GREENWOOD</t>
+  </si>
+  <si>
     <t>MD</t>
   </si>
   <si>
-    <t>08873</t>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>46143</t>
   </si>
   <si>
     <t>Success</t>
   </si>
   <si>
+    <t>Failed</t>
+  </si>
+  <si>
     <t>Rate: 253.07, Carrier: Estes Express Lines</t>
   </si>
   <si>
@@ -95,6 +206,33 @@
   </si>
   <si>
     <t>Rate: 212.16, Carrier: ABF Density</t>
+  </si>
+  <si>
+    <t>No response or missing data/results</t>
+  </si>
+  <si>
+    <t>Rate: 543.33, Carrier: Estes Express Lines VL</t>
+  </si>
+  <si>
+    <t>Rate: 1357.34, Carrier: XPO Freight Vl.</t>
+  </si>
+  <si>
+    <t>Rate: 485.23, Carrier: Estes Express Lines VL</t>
+  </si>
+  <si>
+    <t>Rate: 1201.64, Carrier: XPO Freight Vl.</t>
+  </si>
+  <si>
+    <t>Rate: 309.92, Carrier: Estes Express Lines</t>
+  </si>
+  <si>
+    <t>Rate: 223.44, Carrier: Estes Express Lines VL</t>
+  </si>
+  <si>
+    <t>Rate: 331.02, Carrier: Estes Express Lines VL</t>
+  </si>
+  <si>
+    <t>Rate: 775.7, Carrier: Estes Express Lines VL</t>
   </si>
 </sst>
 </file>
@@ -452,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,19 +633,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>7201</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G2">
         <v>21901</v>
@@ -516,10 +654,10 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -527,19 +665,19 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>7201</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G3">
         <v>21901</v>
@@ -548,10 +686,10 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -559,19 +697,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>7201</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G4">
         <v>21901</v>
@@ -580,10 +718,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -591,19 +729,19 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>7201</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="G5">
         <v>8873</v>
@@ -612,10 +750,10 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -623,19 +761,19 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>7201</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="G6">
         <v>21901</v>
@@ -644,10 +782,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -655,31 +793,671 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>7201</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>8873</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>7201</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8">
+        <v>12533</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>29492</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9">
+        <v>28214</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>7201</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10">
+        <v>46809</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>7201</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11">
+        <v>12533</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12">
+        <v>29492</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12">
+        <v>28214</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>7201</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13">
+        <v>46809</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>94607</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14">
+        <v>94561</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="J7" t="s">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15">
+        <v>90220</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15">
+        <v>94561</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>94607</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16">
+        <v>94561</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17">
+        <v>90220</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17">
+        <v>94561</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
         <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18">
+        <v>94607</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18">
+        <v>94561</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19">
+        <v>90220</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19">
+        <v>94561</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20">
+        <v>94607</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20">
+        <v>94561</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21">
+        <v>90220</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21">
+        <v>94561</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22">
+        <v>94607</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22">
+        <v>94561</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23">
+        <v>90220</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23">
+        <v>94561</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24">
+        <v>7201</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24">
+        <v>17225</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>7201</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25">
+        <v>8873</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <v>7201</v>
+      </c>
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26">
+        <v>8518</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/heyprimo_api_tracking.xlsx
+++ b/Logs/heyprimo_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="106">
   <si>
     <t>Timestamp</t>
   </si>
@@ -124,6 +124,90 @@
     <t>2025-08-04 06:54:34</t>
   </si>
   <si>
+    <t>2025-08-05 13:38:30</t>
+  </si>
+  <si>
+    <t>2025-08-05 13:39:05</t>
+  </si>
+  <si>
+    <t>2025-08-05 13:45:35</t>
+  </si>
+  <si>
+    <t>2025-08-05 13:46:11</t>
+  </si>
+  <si>
+    <t>2025-08-05 13:48:48</t>
+  </si>
+  <si>
+    <t>2025-08-05 13:49:19</t>
+  </si>
+  <si>
+    <t>2025-08-05 13:53:25</t>
+  </si>
+  <si>
+    <t>2025-08-05 13:53:55</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:06:35</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:08:23</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:14:18</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:14:46</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:19:41</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:20:15</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:20:45</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:37:22</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:37:52</t>
+  </si>
+  <si>
+    <t>2025-08-05 14:38:24</t>
+  </si>
+  <si>
+    <t>2025-08-05 17:29:55</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:10:56</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:11:56</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:12:35</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:14:11</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:14:50</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:15:21</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:22:53</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:23:27</t>
+  </si>
+  <si>
+    <t>2025-08-05 18:24:01</t>
+  </si>
+  <si>
     <t>NEW YORK</t>
   </si>
   <si>
@@ -145,6 +229,9 @@
     <t>CA</t>
   </si>
   <si>
+    <t>NY</t>
+  </si>
+  <si>
     <t>07201</t>
   </si>
   <si>
@@ -175,12 +262,12 @@
     <t>GREENWOOD</t>
   </si>
   <si>
+    <t>PENDERGRASS</t>
+  </si>
+  <si>
     <t>MD</t>
   </si>
   <si>
-    <t>NY</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -190,7 +277,10 @@
     <t>PA</t>
   </si>
   <si>
-    <t>46143</t>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>21901</t>
   </si>
   <si>
     <t>Success</t>
@@ -233,6 +323,15 @@
   </si>
   <si>
     <t>Rate: 775.7, Carrier: Estes Express Lines VL</t>
+  </si>
+  <si>
+    <t>Rate: 308.31, Carrier: Estes Express Lines</t>
+  </si>
+  <si>
+    <t>Rate: 335.97, Carrier: ABF Density</t>
+  </si>
+  <si>
+    <t>Rate: 305.01, Carrier: Estes Express Lines</t>
   </si>
 </sst>
 </file>
@@ -590,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -633,19 +732,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D2">
         <v>7201</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="G2">
         <v>21901</v>
@@ -654,10 +753,10 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="J2" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -665,19 +764,19 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D3">
         <v>7201</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="G3">
         <v>21901</v>
@@ -686,10 +785,10 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -697,19 +796,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D4">
         <v>7201</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="G4">
         <v>21901</v>
@@ -718,10 +817,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -729,19 +828,19 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D5">
         <v>7201</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="G5">
         <v>8873</v>
@@ -750,10 +849,10 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -761,19 +860,19 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D6">
         <v>7201</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="G6">
         <v>21901</v>
@@ -782,10 +881,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -793,19 +892,19 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D7">
         <v>7201</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="G7">
         <v>8873</v>
@@ -814,10 +913,10 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -825,19 +924,19 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D8">
         <v>7201</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G8">
         <v>12533</v>
@@ -846,10 +945,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -857,19 +956,19 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D9">
         <v>29492</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="G9">
         <v>28214</v>
@@ -878,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -889,19 +988,19 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>7201</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="G10">
         <v>46809</v>
@@ -910,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -921,19 +1020,19 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D11">
         <v>7201</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G11">
         <v>12533</v>
@@ -942,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -953,19 +1052,19 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D12">
         <v>29492</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="G12">
         <v>28214</v>
@@ -974,10 +1073,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -985,19 +1084,19 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D13">
         <v>7201</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="G13">
         <v>46809</v>
@@ -1006,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1017,19 +1116,19 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D14">
         <v>94607</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="G14">
         <v>94561</v>
@@ -1038,10 +1137,10 @@
         <v>7</v>
       </c>
       <c r="I14" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1049,19 +1148,19 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D15">
         <v>90220</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="G15">
         <v>94561</v>
@@ -1070,10 +1169,10 @@
         <v>7</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1081,19 +1180,19 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D16">
         <v>94607</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>94561</v>
@@ -1102,10 +1201,10 @@
         <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="J16" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1113,19 +1212,19 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D17">
         <v>90220</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="G17">
         <v>94561</v>
@@ -1134,10 +1233,10 @@
         <v>7</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1145,19 +1244,19 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D18">
         <v>94607</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="G18">
         <v>94561</v>
@@ -1166,10 +1265,10 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1177,19 +1276,19 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D19">
         <v>90220</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="G19">
         <v>94561</v>
@@ -1198,10 +1297,10 @@
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1209,19 +1308,19 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D20">
         <v>94607</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="G20">
         <v>94561</v>
@@ -1230,10 +1329,10 @@
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1241,19 +1340,19 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D21">
         <v>90220</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="G21">
         <v>94561</v>
@@ -1262,10 +1361,10 @@
         <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1273,19 +1372,19 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D22">
         <v>94607</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="G22">
         <v>94561</v>
@@ -1294,10 +1393,10 @@
         <v>6</v>
       </c>
       <c r="I22" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1305,19 +1404,19 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D23">
         <v>90220</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="G23">
         <v>94561</v>
@@ -1326,10 +1425,10 @@
         <v>6</v>
       </c>
       <c r="I23" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1337,19 +1436,19 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D24">
         <v>7201</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="G24">
         <v>17225</v>
@@ -1358,10 +1457,10 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1369,19 +1468,19 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D25">
         <v>7201</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>8873</v>
@@ -1390,10 +1489,10 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="J25" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1401,19 +1500,19 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D26">
         <v>7201</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="G26">
         <v>8518</v>
@@ -1422,10 +1521,10 @@
         <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1433,31 +1532,927 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" t="s">
-        <v>43</v>
+        <v>68</v>
+      </c>
+      <c r="D27">
+        <v>7201</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" t="s">
-        <v>58</v>
+        <v>85</v>
+      </c>
+      <c r="G27">
+        <v>46143</v>
       </c>
       <c r="H27">
         <v>4</v>
       </c>
       <c r="I27" t="s">
+        <v>89</v>
+      </c>
+      <c r="J27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28">
+        <v>7201</v>
+      </c>
+      <c r="E28" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28">
+        <v>21901</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>89</v>
+      </c>
+      <c r="J28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29">
+        <v>7201</v>
+      </c>
+      <c r="E29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29">
+        <v>8873</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30">
+        <v>7201</v>
+      </c>
+      <c r="E30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30">
+        <v>21901</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>89</v>
+      </c>
+      <c r="J30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31">
+        <v>7201</v>
+      </c>
+      <c r="E31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31">
+        <v>8873</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32">
+        <v>7201</v>
+      </c>
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32">
+        <v>21901</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33">
+        <v>7201</v>
+      </c>
+      <c r="E33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33">
+        <v>8873</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34">
+        <v>29483</v>
+      </c>
+      <c r="E34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34">
+        <v>30567</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>89</v>
+      </c>
+      <c r="J34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35">
+        <v>7201</v>
+      </c>
+      <c r="E35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35">
+        <v>8873</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36">
+        <v>7201</v>
+      </c>
+      <c r="E36" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36">
+        <v>21901</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37">
+        <v>7201</v>
+      </c>
+      <c r="E37" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37">
+        <v>21901</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>89</v>
+      </c>
+      <c r="J37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38">
+        <v>29483</v>
+      </c>
+      <c r="E38" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38">
+        <v>30567</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>89</v>
+      </c>
+      <c r="J38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39">
+        <v>7201</v>
+      </c>
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G39">
+        <v>8873</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>89</v>
+      </c>
+      <c r="J39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40">
+        <v>29483</v>
+      </c>
+      <c r="E40" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40">
+        <v>30567</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>89</v>
+      </c>
+      <c r="J40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41">
+        <v>7201</v>
+      </c>
+      <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41">
+        <v>8873</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42">
+        <v>7201</v>
+      </c>
+      <c r="E42" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" t="s">
+        <v>83</v>
+      </c>
+      <c r="G42">
+        <v>21901</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>89</v>
+      </c>
+      <c r="J42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43">
+        <v>29483</v>
+      </c>
+      <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43">
+        <v>30567</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44">
+        <v>7201</v>
+      </c>
+      <c r="E44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44">
+        <v>8873</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>89</v>
+      </c>
+      <c r="J44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45">
+        <v>7201</v>
+      </c>
+      <c r="E45" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" t="s">
+        <v>83</v>
+      </c>
+      <c r="G45">
+        <v>21901</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>89</v>
+      </c>
+      <c r="J45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46">
+        <v>7201</v>
+      </c>
+      <c r="E46" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46">
+        <v>21901</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>89</v>
+      </c>
+      <c r="J46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47">
+        <v>7201</v>
+      </c>
+      <c r="E47" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47">
+        <v>21901</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47" t="s">
+        <v>89</v>
+      </c>
+      <c r="J47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48">
+        <v>7201</v>
+      </c>
+      <c r="E48" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48">
+        <v>21901</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48" t="s">
+        <v>89</v>
+      </c>
+      <c r="J48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" t="s">
+        <v>71</v>
+      </c>
+      <c r="D49">
+        <v>7201</v>
+      </c>
+      <c r="E49" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" t="s">
+        <v>83</v>
+      </c>
+      <c r="G49">
+        <v>21901</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49" t="s">
+        <v>89</v>
+      </c>
+      <c r="J49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50">
+        <v>29483</v>
+      </c>
+      <c r="E50" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" t="s">
+        <v>87</v>
+      </c>
+      <c r="G50">
+        <v>30567</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>89</v>
+      </c>
+      <c r="J50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
         <v>59</v>
       </c>
-      <c r="J27" t="s">
+      <c r="B51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51">
+        <v>7201</v>
+      </c>
+      <c r="E51" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" t="s">
+        <v>68</v>
+      </c>
+      <c r="G51">
+        <v>8873</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>89</v>
+      </c>
+      <c r="J51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52">
+        <v>7201</v>
+      </c>
+      <c r="E52" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" t="s">
+        <v>83</v>
+      </c>
+      <c r="G52">
+        <v>21901</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>89</v>
+      </c>
+      <c r="J52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53">
+        <v>29483</v>
+      </c>
+      <c r="E53" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53">
+        <v>30567</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>89</v>
+      </c>
+      <c r="J53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54">
+        <v>7201</v>
+      </c>
+      <c r="E54" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" t="s">
+        <v>68</v>
+      </c>
+      <c r="G54">
+        <v>8873</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>89</v>
+      </c>
+      <c r="J54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" t="s">
         <v>72</v>
+      </c>
+      <c r="E55" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55" t="s">
+        <v>83</v>
+      </c>
+      <c r="G55" t="s">
+        <v>88</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>89</v>
+      </c>
+      <c r="J55" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/heyprimo_api_tracking.xlsx
+++ b/Logs/heyprimo_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="44">
   <si>
     <t>Timestamp</t>
   </si>
@@ -58,19 +58,55 @@
     <t>2025-08-06 16:49:25</t>
   </si>
   <si>
+    <t>2025-08-06 11:24:35</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:24:58</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:25:25</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:27:29</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:27:52</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:28:23</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:30:43</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:31:07</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:31:32</t>
+  </si>
+  <si>
+    <t>2025-08-06 11:42:51</t>
+  </si>
+  <si>
     <t>NEW YORK</t>
   </si>
   <si>
     <t>CHARLESTON</t>
   </si>
   <si>
+    <t>LOS ANGELES</t>
+  </si>
+  <si>
     <t>NY</t>
   </si>
   <si>
     <t>SC</t>
   </si>
   <si>
-    <t>07201</t>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>90220</t>
   </si>
   <si>
     <t>NORTH EAST</t>
@@ -82,6 +118,9 @@
     <t>SOMERSET</t>
   </si>
   <si>
+    <t>OAKLEY</t>
+  </si>
+  <si>
     <t>MD</t>
   </si>
   <si>
@@ -91,7 +130,7 @@
     <t>NJ</t>
   </si>
   <si>
-    <t>21901</t>
+    <t>94561</t>
   </si>
   <si>
     <t>Success</t>
@@ -104,6 +143,9 @@
   </si>
   <si>
     <t>Rate: 335.88, Carrier: ABF Density</t>
+  </si>
+  <si>
+    <t>Rate: 726.98, Carrier: ABF Density VL</t>
   </si>
 </sst>
 </file>
@@ -461,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,19 +546,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>7201</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>21901</v>
@@ -525,10 +567,10 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -536,19 +578,19 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>29483</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>30567</v>
@@ -557,10 +599,10 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -568,19 +610,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>7201</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>8873</v>
@@ -589,10 +631,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -600,31 +642,351 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>7201</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>21901</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>29483</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <v>30567</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>7201</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7">
+        <v>8873</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>7201</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <v>21901</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>29483</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9">
+        <v>30567</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>7201</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10">
+        <v>8873</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>7201</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11">
+        <v>21901</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>29483</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <v>30567</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>7201</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13">
+        <v>8873</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>7201</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14">
+        <v>21901</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="J5" t="s">
-        <v>27</v>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/heyprimo_api_tracking.xlsx
+++ b/Logs/heyprimo_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="47">
   <si>
     <t>Timestamp</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t>2025-08-06 11:42:51</t>
+  </si>
+  <si>
+    <t>2025-08-06 18:37:34</t>
+  </si>
+  <si>
+    <t>2025-08-06 18:38:29</t>
+  </si>
+  <si>
+    <t>2025-08-06 18:59:26</t>
   </si>
   <si>
     <t>NEW YORK</t>
@@ -503,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,19 +555,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>7201</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>21901</v>
@@ -567,10 +576,10 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -578,19 +587,19 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>29483</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>30567</v>
@@ -599,10 +608,10 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -610,19 +619,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>7201</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>8873</v>
@@ -631,10 +640,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -642,19 +651,19 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>7201</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>21901</v>
@@ -663,10 +672,10 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -674,19 +683,19 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>29483</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G6">
         <v>30567</v>
@@ -695,10 +704,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -706,19 +715,19 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>7201</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G7">
         <v>8873</v>
@@ -727,10 +736,10 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -738,19 +747,19 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>7201</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>21901</v>
@@ -759,10 +768,10 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -770,19 +779,19 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>29483</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G9">
         <v>30567</v>
@@ -791,10 +800,10 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -802,19 +811,19 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>7201</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G10">
         <v>8873</v>
@@ -823,10 +832,10 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -834,19 +843,19 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11">
         <v>7201</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G11">
         <v>21901</v>
@@ -855,10 +864,10 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -866,19 +875,19 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>29483</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G12">
         <v>30567</v>
@@ -887,10 +896,10 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -898,19 +907,19 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>7201</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G13">
         <v>8873</v>
@@ -919,10 +928,10 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -930,19 +939,19 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>7201</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G14">
         <v>21901</v>
@@ -951,10 +960,10 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -962,31 +971,127 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>90220</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="G15">
+        <v>94561</v>
       </c>
       <c r="H15">
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>90220</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16">
+        <v>94561</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>90220</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17">
+        <v>94561</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/heyprimo_api_tracking.xlsx
+++ b/Logs/heyprimo_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="56">
   <si>
     <t>Timestamp</t>
   </si>
@@ -97,6 +97,33 @@
     <t>2025-08-06 18:59:26</t>
   </si>
   <si>
+    <t>2025-08-07 07:48:00</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:48:30</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:48:59</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:50:45</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:51:17</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:51:46</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:53:27</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:53:56</t>
+  </si>
+  <si>
+    <t>2025-08-07 07:54:24</t>
+  </si>
+  <si>
     <t>NEW YORK</t>
   </si>
   <si>
@@ -115,7 +142,7 @@
     <t>CA</t>
   </si>
   <si>
-    <t>90220</t>
+    <t>07201</t>
   </si>
   <si>
     <t>NORTH EAST</t>
@@ -139,7 +166,7 @@
     <t>NJ</t>
   </si>
   <si>
-    <t>94561</t>
+    <t>21901</t>
   </si>
   <si>
     <t>Success</t>
@@ -512,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,19 +582,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>7201</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G2">
         <v>21901</v>
@@ -576,10 +603,10 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -587,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>29483</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G3">
         <v>30567</v>
@@ -608,10 +635,10 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -619,19 +646,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>7201</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G4">
         <v>8873</v>
@@ -640,10 +667,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -651,19 +678,19 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>7201</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G5">
         <v>21901</v>
@@ -672,10 +699,10 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -683,19 +710,19 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>29483</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G6">
         <v>30567</v>
@@ -704,10 +731,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -715,19 +742,19 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>7201</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G7">
         <v>8873</v>
@@ -736,10 +763,10 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -747,19 +774,19 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>7201</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G8">
         <v>21901</v>
@@ -768,10 +795,10 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -779,19 +806,19 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>29483</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G9">
         <v>30567</v>
@@ -800,10 +827,10 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -811,19 +838,19 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>7201</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G10">
         <v>8873</v>
@@ -832,10 +859,10 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -843,19 +870,19 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D11">
         <v>7201</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G11">
         <v>21901</v>
@@ -864,10 +891,10 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -875,19 +902,19 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D12">
         <v>29483</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G12">
         <v>30567</v>
@@ -896,10 +923,10 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -907,19 +934,19 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>7201</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>8873</v>
@@ -928,10 +955,10 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -939,19 +966,19 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D14">
         <v>7201</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G14">
         <v>21901</v>
@@ -960,10 +987,10 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -971,19 +998,19 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D15">
         <v>90220</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G15">
         <v>94561</v>
@@ -992,10 +1019,10 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1003,19 +1030,19 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D16">
         <v>90220</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G16">
         <v>94561</v>
@@ -1024,10 +1051,10 @@
         <v>3</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1035,19 +1062,19 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D17">
         <v>90220</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G17">
         <v>94561</v>
@@ -1056,10 +1083,10 @@
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1067,31 +1094,319 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
+        <v>41</v>
+      </c>
+      <c r="D18">
+        <v>90220</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" t="s">
         <v>41</v>
+      </c>
+      <c r="G18">
+        <v>94561</v>
       </c>
       <c r="H18">
         <v>3</v>
       </c>
       <c r="I18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19">
+        <v>29483</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19">
+        <v>30567</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20">
+        <v>7201</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20">
+        <v>8873</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21">
+        <v>7201</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21">
+        <v>21901</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>29483</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22">
+        <v>30567</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23">
+        <v>7201</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23">
+        <v>8873</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24">
+        <v>7201</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24">
+        <v>21901</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>29483</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25">
+        <v>30567</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26">
+        <v>7201</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26">
+        <v>8873</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
         <v>42</v>
       </c>
-      <c r="J18" t="s">
-        <v>46</v>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/heyprimo_api_tracking.xlsx
+++ b/Logs/heyprimo_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
   <si>
     <t>Timestamp</t>
   </si>
@@ -55,12 +55,57 @@
     <t>2025-08-10 14:22:52</t>
   </si>
   <si>
+    <t>2025-08-11 13:10:25</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:11:06</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:11:43</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:17:36</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:18:06</t>
+  </si>
+  <si>
+    <t>2025-08-11 13:18:49</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:50:38</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:52:14</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:52:54</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:53:31</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:54:07</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:54:45</t>
+  </si>
+  <si>
+    <t>2025-08-11 14:55:15</t>
+  </si>
+  <si>
     <t>NEW YORK</t>
   </si>
   <si>
+    <t>LOS ANGELES</t>
+  </si>
+  <si>
     <t>NY</t>
   </si>
   <si>
+    <t>CA</t>
+  </si>
+  <si>
     <t>07201</t>
   </si>
   <si>
@@ -92,6 +137,9 @@
   </si>
   <si>
     <t>Rate: 5405.52, Carrier: Estes Express Lines VL</t>
+  </si>
+  <si>
+    <t>Rate: 961.3, Carrier: Estes Express Lines VL</t>
   </si>
 </sst>
 </file>
@@ -449,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,19 +540,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>7201</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>75241</v>
@@ -513,10 +561,10 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -524,19 +572,19 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>7201</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>85395</v>
@@ -545,10 +593,10 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -556,31 +604,447 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>7201</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="G4">
+        <v>85043</v>
       </c>
       <c r="H4">
         <v>11</v>
       </c>
       <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>7201</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5">
+        <v>75241</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>90220</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>85395</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>7201</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <v>85043</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>7201</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8">
+        <v>75241</v>
+      </c>
+      <c r="H8">
+        <v>9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>90220</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9">
+        <v>85395</v>
+      </c>
+      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>7201</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10">
+        <v>85043</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>7201</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11">
+        <v>75241</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>7201</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12">
+        <v>75241</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>90220</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <v>85395</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="J4" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>7201</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14">
+        <v>85043</v>
+      </c>
+      <c r="H14">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>7201</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15">
+        <v>75241</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>90220</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16">
+        <v>85395</v>
+      </c>
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
         <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17">
+        <v>11</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/heyprimo_api_tracking.xlsx
+++ b/Logs/heyprimo_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="97">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -61,6 +61,24 @@
     <t>CMM0246LCL0052</t>
   </si>
   <si>
+    <t>CMM0246LCL0043</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0053</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0054</t>
+  </si>
+  <si>
+    <t>CMM0829LCL0007</t>
+  </si>
+  <si>
+    <t>CMM0829LCL0008</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0062</t>
+  </si>
+  <si>
     <t>2025-08-14 15:19:49</t>
   </si>
   <si>
@@ -91,6 +109,57 @@
     <t>2025-08-14 15:39:51</t>
   </si>
   <si>
+    <t>2025-08-14 10:25:09</t>
+  </si>
+  <si>
+    <t>2025-08-14 10:27:05</t>
+  </si>
+  <si>
+    <t>2025-08-14 10:27:28</t>
+  </si>
+  <si>
+    <t>2025-08-14 10:27:57</t>
+  </si>
+  <si>
+    <t>2025-08-15 06:18:29</t>
+  </si>
+  <si>
+    <t>2025-08-15 06:20:47</t>
+  </si>
+  <si>
+    <t>2025-08-15 06:21:30</t>
+  </si>
+  <si>
+    <t>2025-08-15 10:12:07</t>
+  </si>
+  <si>
+    <t>2025-08-16 04:29:15</t>
+  </si>
+  <si>
+    <t>2025-08-16 04:37:56</t>
+  </si>
+  <si>
+    <t>2025-08-16 04:38:07</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:05:30</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:06:08</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:06:17</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:26:21</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:26:38</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:26:48</t>
+  </si>
+  <si>
     <t>CHARLESTON</t>
   </si>
   <si>
@@ -106,6 +175,9 @@
     <t>NEW YORK</t>
   </si>
   <si>
+    <t>CHICAGO</t>
+  </si>
+  <si>
     <t>SC</t>
   </si>
   <si>
@@ -118,6 +190,9 @@
     <t>TX</t>
   </si>
   <si>
+    <t>IL</t>
+  </si>
+  <si>
     <t>07201</t>
   </si>
   <si>
@@ -151,6 +226,24 @@
     <t>HARRISBURG</t>
   </si>
   <si>
+    <t>Hazleton</t>
+  </si>
+  <si>
+    <t>COWPENS</t>
+  </si>
+  <si>
+    <t>MERRILLVILLE</t>
+  </si>
+  <si>
+    <t>LANSING</t>
+  </si>
+  <si>
+    <t>JOLIET</t>
+  </si>
+  <si>
+    <t>FORT WAYNE</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
@@ -169,7 +262,10 @@
     <t>PA</t>
   </si>
   <si>
-    <t>17112</t>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>46809</t>
   </si>
   <si>
     <t>Success</t>
@@ -200,6 +296,12 @@
   </si>
   <si>
     <t>Empty rates list</t>
+  </si>
+  <si>
+    <t>Rate: 278.53, Carrier: Estes Express Lines</t>
+  </si>
+  <si>
+    <t>No response or missing data/results</t>
   </si>
   <si>
     <t>API</t>
@@ -560,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,22 +711,22 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E2">
         <v>29483</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H2">
         <v>28303</v>
@@ -633,13 +735,13 @@
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="L2" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -647,22 +749,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E3">
         <v>7201</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="H3">
         <v>46140</v>
@@ -671,13 +773,13 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -685,22 +787,22 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E4">
         <v>90220</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="H4">
         <v>75241</v>
@@ -709,13 +811,13 @@
         <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -723,22 +825,22 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>90220</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H5">
         <v>85395</v>
@@ -747,13 +849,13 @@
         <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -761,22 +863,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>90220</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H6">
         <v>85043</v>
@@ -785,13 +887,13 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -799,22 +901,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>29483</v>
       </c>
       <c r="F7" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="H7">
         <v>30567</v>
@@ -823,13 +925,13 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -837,22 +939,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E8">
         <v>7201</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="H8">
         <v>8873</v>
@@ -861,13 +963,13 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -875,22 +977,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>77020</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="H9">
         <v>75007</v>
@@ -899,10 +1001,10 @@
         <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -910,22 +1012,22 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="E10">
         <v>7201</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="H10">
         <v>18105</v>
@@ -934,10 +1036,10 @@
         <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -945,34 +1047,632 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
+        <v>55</v>
+      </c>
+      <c r="E11">
+        <v>7201</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
+        <v>81</v>
+      </c>
+      <c r="H11">
+        <v>17112</v>
       </c>
       <c r="I11">
         <v>100</v>
       </c>
       <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12">
+        <v>7201</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12">
+        <v>18202</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13">
+        <v>77020</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13">
+        <v>75007</v>
+      </c>
+      <c r="I13">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14">
+        <v>7201</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14">
+        <v>18105</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15">
+        <v>7201</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15">
+        <v>17112</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="J15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16">
+        <v>29483</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16">
+        <v>29330</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17">
+        <v>29483</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17">
+        <v>29330</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18">
+        <v>29483</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18">
+        <v>29330</v>
+      </c>
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19">
+        <v>7201</v>
+      </c>
+      <c r="F19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19">
+        <v>46410</v>
+      </c>
+      <c r="I19">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20">
+        <v>29483</v>
+      </c>
+      <c r="F20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20">
+        <v>29330</v>
+      </c>
+      <c r="I20">
+        <v>19</v>
+      </c>
+      <c r="J20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21">
+        <v>7201</v>
+      </c>
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21">
+        <v>46410</v>
+      </c>
+      <c r="I21">
+        <v>19</v>
+      </c>
+      <c r="J21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22">
+        <v>7201</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22">
+        <v>46410</v>
+      </c>
+      <c r="I22">
+        <v>19</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23">
+        <v>7201</v>
+      </c>
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23">
+        <v>48917</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
         <v>53</v>
       </c>
-      <c r="K11" t="s">
-        <v>61</v>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24">
+        <v>60433</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25">
+        <v>7201</v>
+      </c>
+      <c r="F25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25">
+        <v>46809</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26">
+        <v>7201</v>
+      </c>
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" t="s">
+        <v>82</v>
+      </c>
+      <c r="H26">
+        <v>48917</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H27">
+        <v>60433</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/heyprimo_api_tracking.xlsx
+++ b/Logs/heyprimo_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="110">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -79,6 +79,9 @@
     <t>CMM0800LCL0062</t>
   </si>
   <si>
+    <t>CMM0800LCL0069</t>
+  </si>
+  <si>
     <t>2025-08-14 15:19:49</t>
   </si>
   <si>
@@ -160,6 +163,30 @@
     <t>2025-08-18 06:26:48</t>
   </si>
   <si>
+    <t>2025-08-18 06:51:41</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:55:47</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:56:16</t>
+  </si>
+  <si>
+    <t>2025-08-18 06:56:29</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:02:50</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:03:10</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:03:24</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:03:51</t>
+  </si>
+  <si>
     <t>CHARLESTON</t>
   </si>
   <si>
@@ -193,7 +220,7 @@
     <t>IL</t>
   </si>
   <si>
-    <t>07201</t>
+    <t>00000</t>
   </si>
   <si>
     <t>FAYETTEVILLE</t>
@@ -244,6 +271,12 @@
     <t>FORT WAYNE</t>
   </si>
   <si>
+    <t>Lansing</t>
+  </si>
+  <si>
+    <t>Fort Wayne</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
@@ -265,7 +298,7 @@
     <t>MI</t>
   </si>
   <si>
-    <t>46809</t>
+    <t>60433</t>
   </si>
   <si>
     <t>Success</t>
@@ -302,6 +335,12 @@
   </si>
   <si>
     <t>No response or missing data/results</t>
+  </si>
+  <si>
+    <t>Rate: 736.96, Carrier: Estes Express Lines VL</t>
+  </si>
+  <si>
+    <t>Rate: 1428.77, Carrier: ABF Freight System VL</t>
   </si>
   <si>
     <t>API</t>
@@ -662,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,22 +750,22 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E2">
         <v>29483</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H2">
         <v>28303</v>
@@ -735,13 +774,13 @@
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="L2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -749,22 +788,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E3">
         <v>7201</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H3">
         <v>46140</v>
@@ -773,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="L3" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -787,22 +826,22 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E4">
         <v>90220</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H4">
         <v>75241</v>
@@ -811,13 +850,13 @@
         <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -825,22 +864,22 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E5">
         <v>90220</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H5">
         <v>85395</v>
@@ -849,13 +888,13 @@
         <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -863,22 +902,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E6">
         <v>90220</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H6">
         <v>85043</v>
@@ -887,13 +926,13 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="L6" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -901,22 +940,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E7">
         <v>29483</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H7">
         <v>30567</v>
@@ -925,13 +964,13 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -939,22 +978,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E8">
         <v>7201</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H8">
         <v>8873</v>
@@ -963,13 +1002,13 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -977,22 +1016,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E9">
         <v>77020</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H9">
         <v>75007</v>
@@ -1001,10 +1040,10 @@
         <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1012,22 +1051,22 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E10">
         <v>7201</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H10">
         <v>18105</v>
@@ -1036,10 +1075,10 @@
         <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1047,22 +1086,22 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E11">
         <v>7201</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H11">
         <v>17112</v>
@@ -1071,10 +1110,10 @@
         <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K11" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1082,22 +1121,22 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E12">
         <v>7201</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H12">
         <v>18202</v>
@@ -1106,13 +1145,13 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="K12" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="L12" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1120,22 +1159,22 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E13">
         <v>77020</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H13">
         <v>75007</v>
@@ -1144,10 +1183,10 @@
         <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K13" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1155,22 +1194,22 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E14">
         <v>7201</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H14">
         <v>18105</v>
@@ -1179,10 +1218,10 @@
         <v>100</v>
       </c>
       <c r="J14" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K14" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1190,22 +1229,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E15">
         <v>7201</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H15">
         <v>17112</v>
@@ -1214,10 +1253,10 @@
         <v>100</v>
       </c>
       <c r="J15" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K15" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1225,22 +1264,22 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E16">
         <v>29483</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H16">
         <v>29330</v>
@@ -1249,33 +1288,33 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E17">
         <v>29483</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H17">
         <v>29330</v>
@@ -1284,33 +1323,33 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E18">
         <v>29483</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H18">
         <v>29330</v>
@@ -1319,33 +1358,33 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E19">
         <v>7201</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H19">
         <v>46410</v>
@@ -1354,33 +1393,33 @@
         <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E20">
         <v>29483</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H20">
         <v>29330</v>
@@ -1389,33 +1428,33 @@
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E21">
         <v>7201</v>
       </c>
       <c r="F21" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H21">
         <v>46410</v>
@@ -1424,33 +1463,33 @@
         <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E22">
         <v>7201</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H22">
         <v>46410</v>
@@ -1459,33 +1498,33 @@
         <v>19</v>
       </c>
       <c r="J22" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E23">
         <v>7201</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H23">
         <v>48917</v>
@@ -1494,33 +1533,33 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H24">
         <v>60433</v>
@@ -1529,33 +1568,33 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E25">
         <v>7201</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H25">
         <v>46809</v>
@@ -1564,33 +1603,33 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E26">
         <v>7201</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H26">
         <v>48917</v>
@@ -1599,33 +1638,33 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H27">
         <v>60433</v>
@@ -1634,45 +1673,337 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="K27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="E28">
+        <v>7201</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="H28">
+        <v>46809</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
+        <v>96</v>
+      </c>
+      <c r="K28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29">
+        <v>60433</v>
+      </c>
+      <c r="I29">
+        <v>9</v>
+      </c>
+      <c r="J29" t="s">
+        <v>96</v>
+      </c>
+      <c r="K29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30">
+        <v>7201</v>
+      </c>
+      <c r="F30" t="s">
         <v>85</v>
       </c>
-      <c r="K28" t="s">
+      <c r="G30" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30">
+        <v>48917</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30" t="s">
         <v>95</v>
+      </c>
+      <c r="K30" t="s">
+        <v>107</v>
+      </c>
+      <c r="L30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31">
+        <v>60433</v>
+      </c>
+      <c r="I31">
+        <v>9</v>
+      </c>
+      <c r="J31" t="s">
+        <v>96</v>
+      </c>
+      <c r="K31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32">
+        <v>7201</v>
+      </c>
+      <c r="F32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32">
+        <v>46809</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32" t="s">
+        <v>95</v>
+      </c>
+      <c r="K32" t="s">
+        <v>108</v>
+      </c>
+      <c r="L32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33">
+        <v>7201</v>
+      </c>
+      <c r="F33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33">
+        <v>48917</v>
+      </c>
+      <c r="I33">
+        <v>4</v>
+      </c>
+      <c r="J33" t="s">
+        <v>95</v>
+      </c>
+      <c r="K33" t="s">
+        <v>107</v>
+      </c>
+      <c r="L33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34">
+        <v>60433</v>
+      </c>
+      <c r="I34">
+        <v>9</v>
+      </c>
+      <c r="J34" t="s">
+        <v>96</v>
+      </c>
+      <c r="K34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35">
+        <v>7201</v>
+      </c>
+      <c r="F35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35">
+        <v>46809</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+      <c r="J35" t="s">
+        <v>95</v>
+      </c>
+      <c r="K35" t="s">
+        <v>108</v>
+      </c>
+      <c r="L35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36">
+        <v>9</v>
+      </c>
+      <c r="J36" t="s">
+        <v>96</v>
+      </c>
+      <c r="K36" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/heyprimo_api_tracking.xlsx
+++ b/Logs/heyprimo_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="139">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -82,6 +82,24 @@
     <t>CMM0800LCL0069</t>
   </si>
   <si>
+    <t>CMM0800LCL0064</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0063</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0005</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0055</t>
+  </si>
+  <si>
+    <t>CMM0827LCL0038</t>
+  </si>
+  <si>
+    <t>CMM0827LCL0039</t>
+  </si>
+  <si>
     <t>2025-08-14 15:19:49</t>
   </si>
   <si>
@@ -187,6 +205,48 @@
     <t>2025-08-18 07:03:51</t>
   </si>
   <si>
+    <t>2025-08-18 07:48:34</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:48:57</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:52:23</t>
+  </si>
+  <si>
+    <t>2025-08-18 07:53:52</t>
+  </si>
+  <si>
+    <t>2025-08-18 13:24:28</t>
+  </si>
+  <si>
+    <t>2025-08-18 13:25:13</t>
+  </si>
+  <si>
+    <t>2025-08-19 05:46:35</t>
+  </si>
+  <si>
+    <t>2025-08-19 05:48:41</t>
+  </si>
+  <si>
+    <t>2025-08-19 07:49:54</t>
+  </si>
+  <si>
+    <t>2025-08-19 09:15:51</t>
+  </si>
+  <si>
+    <t>2025-08-19 10:36:42</t>
+  </si>
+  <si>
+    <t>2025-08-19 10:44:27</t>
+  </si>
+  <si>
+    <t>2025-08-19 10:48:51</t>
+  </si>
+  <si>
+    <t>2025-08-19 12:08:47</t>
+  </si>
+  <si>
     <t>CHARLESTON</t>
   </si>
   <si>
@@ -220,7 +280,7 @@
     <t>IL</t>
   </si>
   <si>
-    <t>00000</t>
+    <t>29483</t>
   </si>
   <si>
     <t>FAYETTEVILLE</t>
@@ -277,6 +337,15 @@
     <t>Fort Wayne</t>
   </si>
   <si>
+    <t>HENDERSON</t>
+  </si>
+  <si>
+    <t>NEW STANTON</t>
+  </si>
+  <si>
+    <t>New Stanton</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
@@ -298,7 +367,10 @@
     <t>MI</t>
   </si>
   <si>
-    <t>60433</t>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>29330</t>
   </si>
   <si>
     <t>Success</t>
@@ -341,6 +413,21 @@
   </si>
   <si>
     <t>Rate: 1428.77, Carrier: ABF Freight System VL</t>
+  </si>
+  <si>
+    <t>Rate: 1463.85, Carrier: Estes Express Lines VL</t>
+  </si>
+  <si>
+    <t>Rate: 240.77, Carrier: ABF Freight System</t>
+  </si>
+  <si>
+    <t>Rate: 678.07, Carrier: ABF Density VL</t>
+  </si>
+  <si>
+    <t>Rate: 453.38, Carrier: Estes Express Lines VL</t>
+  </si>
+  <si>
+    <t>Rate: 595.25, Carrier: ABF Density VL</t>
   </si>
   <si>
     <t>API</t>
@@ -701,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -750,22 +837,22 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E2">
         <v>29483</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="H2">
         <v>28303</v>
@@ -774,13 +861,13 @@
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="K2" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="L2" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -788,22 +875,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E3">
         <v>7201</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="H3">
         <v>46140</v>
@@ -812,13 +899,13 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="K3" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="L3" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -826,22 +913,22 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E4">
         <v>90220</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="H4">
         <v>75241</v>
@@ -850,13 +937,13 @@
         <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="L4" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -864,22 +951,22 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E5">
         <v>90220</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="H5">
         <v>85395</v>
@@ -888,13 +975,13 @@
         <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="K5" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="L5" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -902,22 +989,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E6">
         <v>90220</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="H6">
         <v>85043</v>
@@ -926,13 +1013,13 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="K6" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="L6" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -940,22 +1027,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E7">
         <v>29483</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="H7">
         <v>30567</v>
@@ -964,13 +1051,13 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="K7" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="L7" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -978,22 +1065,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E8">
         <v>7201</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="H8">
         <v>8873</v>
@@ -1002,13 +1089,13 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="L8" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1016,22 +1103,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="E9">
         <v>77020</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="H9">
         <v>75007</v>
@@ -1040,10 +1127,10 @@
         <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1051,22 +1138,22 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E10">
         <v>7201</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="H10">
         <v>18105</v>
@@ -1075,10 +1162,10 @@
         <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1086,22 +1173,22 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E11">
         <v>7201</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="H11">
         <v>17112</v>
@@ -1110,10 +1197,10 @@
         <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1121,22 +1208,22 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E12">
         <v>7201</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="H12">
         <v>18202</v>
@@ -1145,13 +1232,13 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1159,22 +1246,22 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="E13">
         <v>77020</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="H13">
         <v>75007</v>
@@ -1183,10 +1270,10 @@
         <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1194,22 +1281,22 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E14">
         <v>7201</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="H14">
         <v>18105</v>
@@ -1218,10 +1305,10 @@
         <v>100</v>
       </c>
       <c r="J14" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="K14" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1229,22 +1316,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E15">
         <v>7201</v>
       </c>
       <c r="F15" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="H15">
         <v>17112</v>
@@ -1253,10 +1340,10 @@
         <v>100</v>
       </c>
       <c r="J15" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="K15" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1264,22 +1351,22 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E16">
         <v>29483</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="H16">
         <v>29330</v>
@@ -1288,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="K16" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1299,22 +1386,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E17">
         <v>29483</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="H17">
         <v>29330</v>
@@ -1323,10 +1410,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="K17" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1334,22 +1421,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E18">
         <v>29483</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="H18">
         <v>29330</v>
@@ -1358,10 +1445,10 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="K18" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1369,22 +1456,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E19">
         <v>7201</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="H19">
         <v>46410</v>
@@ -1393,10 +1480,10 @@
         <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="K19" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1404,22 +1491,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E20">
         <v>29483</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="H20">
         <v>29330</v>
@@ -1428,10 +1515,10 @@
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="K20" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1439,22 +1526,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E21">
         <v>7201</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="H21">
         <v>46410</v>
@@ -1463,10 +1550,10 @@
         <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="K21" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1474,22 +1561,22 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E22">
         <v>7201</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="G22" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="H22">
         <v>46410</v>
@@ -1498,10 +1585,10 @@
         <v>19</v>
       </c>
       <c r="J22" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="K22" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1509,22 +1596,22 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E23">
         <v>7201</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="G23" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="H23">
         <v>48917</v>
@@ -1533,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="K23" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1544,22 +1631,22 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="G24" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="H24">
         <v>60433</v>
@@ -1568,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="K24" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1579,22 +1666,22 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E25">
         <v>7201</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="G25" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="H25">
         <v>46809</v>
@@ -1603,10 +1690,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="K25" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1614,22 +1701,22 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E26">
         <v>7201</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="G26" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="H26">
         <v>48917</v>
@@ -1638,10 +1725,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="K26" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1649,22 +1736,22 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="G27" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="H27">
         <v>60433</v>
@@ -1673,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="K27" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1684,22 +1771,22 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E28">
         <v>7201</v>
       </c>
       <c r="F28" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="G28" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="H28">
         <v>46809</v>
@@ -1708,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="K28" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1719,22 +1806,22 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="G29" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="H29">
         <v>60433</v>
@@ -1743,10 +1830,10 @@
         <v>9</v>
       </c>
       <c r="J29" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="K29" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1754,22 +1841,22 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E30">
         <v>7201</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="G30" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="H30">
         <v>48917</v>
@@ -1778,13 +1865,13 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="K30" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="L30" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1792,22 +1879,22 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="G31" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="H31">
         <v>60433</v>
@@ -1816,10 +1903,10 @@
         <v>9</v>
       </c>
       <c r="J31" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="K31" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1827,22 +1914,22 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E32">
         <v>7201</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G32" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="H32">
         <v>46809</v>
@@ -1851,13 +1938,13 @@
         <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="K32" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1865,22 +1952,22 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E33">
         <v>7201</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="G33" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="H33">
         <v>48917</v>
@@ -1889,13 +1976,13 @@
         <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="K33" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="L33" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1903,22 +1990,22 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="G34" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="H34">
         <v>60433</v>
@@ -1927,10 +2014,10 @@
         <v>9</v>
       </c>
       <c r="J34" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="K34" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1938,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E35">
         <v>7201</v>
       </c>
       <c r="F35" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G35" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="H35">
         <v>46809</v>
@@ -1962,13 +2049,13 @@
         <v>10</v>
       </c>
       <c r="J35" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="K35" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="L35" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1976,34 +2063,551 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" t="s">
-        <v>68</v>
+        <v>87</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="G36" t="s">
-        <v>67</v>
-      </c>
-      <c r="H36" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="H36">
+        <v>60433</v>
       </c>
       <c r="I36">
         <v>9</v>
       </c>
       <c r="J36" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="K36" t="s">
-        <v>104</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37">
+        <v>90220</v>
+      </c>
+      <c r="F37" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" t="s">
+        <v>117</v>
+      </c>
+      <c r="H37">
+        <v>89044</v>
+      </c>
+      <c r="I37">
+        <v>10</v>
+      </c>
+      <c r="J37" t="s">
+        <v>119</v>
+      </c>
+      <c r="K37" t="s">
+        <v>133</v>
+      </c>
+      <c r="L37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38">
+        <v>90220</v>
+      </c>
+      <c r="F38" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38">
+        <v>85395</v>
+      </c>
+      <c r="I38">
+        <v>9</v>
+      </c>
+      <c r="J38" t="s">
+        <v>119</v>
+      </c>
+      <c r="K38" t="s">
+        <v>124</v>
+      </c>
+      <c r="L38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>103</v>
+      </c>
+      <c r="G39" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39">
+        <v>60433</v>
+      </c>
+      <c r="I39">
+        <v>9</v>
+      </c>
+      <c r="J39" t="s">
+        <v>120</v>
+      </c>
+      <c r="K39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40">
+        <v>60433</v>
+      </c>
+      <c r="I40">
+        <v>9</v>
+      </c>
+      <c r="J40" t="s">
+        <v>120</v>
+      </c>
+      <c r="K40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41">
+        <v>7201</v>
+      </c>
+      <c r="F41" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" t="s">
+        <v>115</v>
+      </c>
+      <c r="H41">
+        <v>15672</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>120</v>
+      </c>
+      <c r="K41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E42">
+        <v>7201</v>
+      </c>
+      <c r="F42" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42">
+        <v>15672</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>120</v>
+      </c>
+      <c r="K42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43">
+        <v>7201</v>
+      </c>
+      <c r="F43" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" t="s">
+        <v>115</v>
+      </c>
+      <c r="H43">
+        <v>15672</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>120</v>
+      </c>
+      <c r="K43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44">
+        <v>7201</v>
+      </c>
+      <c r="F44" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44">
+        <v>15672</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>119</v>
+      </c>
+      <c r="K44" t="s">
+        <v>134</v>
+      </c>
+      <c r="L44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45">
+        <v>7201</v>
+      </c>
+      <c r="F45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G45" t="s">
+        <v>115</v>
+      </c>
+      <c r="H45">
+        <v>15672</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45" t="s">
+        <v>119</v>
+      </c>
+      <c r="K45" t="s">
+        <v>134</v>
+      </c>
+      <c r="L45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46">
+        <v>29483</v>
+      </c>
+      <c r="F46" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46">
+        <v>29330</v>
+      </c>
+      <c r="I46">
+        <v>7</v>
+      </c>
+      <c r="J46" t="s">
+        <v>119</v>
+      </c>
+      <c r="K46" t="s">
+        <v>135</v>
+      </c>
+      <c r="L46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47">
+        <v>29483</v>
+      </c>
+      <c r="F47" t="s">
+        <v>100</v>
+      </c>
+      <c r="G47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H47">
+        <v>29330</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47" t="s">
+        <v>119</v>
+      </c>
+      <c r="K47" t="s">
+        <v>136</v>
+      </c>
+      <c r="L47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48">
+        <v>29483</v>
+      </c>
+      <c r="F48" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H48">
+        <v>29330</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48" t="s">
+        <v>119</v>
+      </c>
+      <c r="K48" t="s">
+        <v>137</v>
+      </c>
+      <c r="L48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49">
+        <v>29483</v>
+      </c>
+      <c r="F49" t="s">
+        <v>100</v>
+      </c>
+      <c r="G49" t="s">
+        <v>83</v>
+      </c>
+      <c r="H49">
+        <v>29330</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49" t="s">
+        <v>119</v>
+      </c>
+      <c r="K49" t="s">
+        <v>136</v>
+      </c>
+      <c r="L49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" t="s">
+        <v>100</v>
+      </c>
+      <c r="G50" t="s">
+        <v>83</v>
+      </c>
+      <c r="H50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50" t="s">
+        <v>119</v>
+      </c>
+      <c r="K50" t="s">
+        <v>136</v>
+      </c>
+      <c r="L50" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/heyprimo_api_tracking.xlsx
+++ b/Logs/heyprimo_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="195">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -100,6 +100,36 @@
     <t>CMM0827LCL0039</t>
   </si>
   <si>
+    <t>CMM0014LCL0005</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0006</t>
+  </si>
+  <si>
+    <t>CMM0804LCL0062</t>
+  </si>
+  <si>
+    <t>CMM0804LCL0063</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0056</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0057</t>
+  </si>
+  <si>
+    <t>CEN0479LCL0072</t>
+  </si>
+  <si>
+    <t>CEN0479LCL0073</t>
+  </si>
+  <si>
+    <t>CMM0077LCL0002</t>
+  </si>
+  <si>
+    <t>CMM0657LCL0117</t>
+  </si>
+  <si>
     <t>2025-08-14 15:19:49</t>
   </si>
   <si>
@@ -247,6 +277,84 @@
     <t>2025-08-19 12:08:47</t>
   </si>
   <si>
+    <t>2025-08-20 07:27:11</t>
+  </si>
+  <si>
+    <t>2025-08-21 13:03:16</t>
+  </si>
+  <si>
+    <t>2025-08-21 13:05:51</t>
+  </si>
+  <si>
+    <t>2025-08-22 09:55:32</t>
+  </si>
+  <si>
+    <t>2025-08-22 12:52:12</t>
+  </si>
+  <si>
+    <t>2025-08-22 12:52:41</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:29:09</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:30:04</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:32:30</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:33:02</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:34:17</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:34:54</t>
+  </si>
+  <si>
+    <t>2025-08-23 06:35:32</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:31:16</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:32:33</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:33:28</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:37:18</t>
+  </si>
+  <si>
+    <t>2025-08-23 07:37:46</t>
+  </si>
+  <si>
+    <t>2025-08-23 09:34:00</t>
+  </si>
+  <si>
+    <t>2025-08-23 09:36:14</t>
+  </si>
+  <si>
+    <t>2025-08-23 09:47:48</t>
+  </si>
+  <si>
+    <t>2025-08-25 05:51:59</t>
+  </si>
+  <si>
+    <t>2025-08-25 06:09:53</t>
+  </si>
+  <si>
+    <t>2025-08-25 07:50:08</t>
+  </si>
+  <si>
+    <t>2025-08-25 10:22:00</t>
+  </si>
+  <si>
+    <t>2025-08-26 05:41:34</t>
+  </si>
+  <si>
     <t>CHARLESTON</t>
   </si>
   <si>
@@ -346,6 +454,27 @@
     <t>New Stanton</t>
   </si>
   <si>
+    <t>FREDERICKSBURG</t>
+  </si>
+  <si>
+    <t>DULUTH</t>
+  </si>
+  <si>
+    <t>MIRA LOMA</t>
+  </si>
+  <si>
+    <t>HAGERSTOWN</t>
+  </si>
+  <si>
+    <t>OLIVE BRANCH</t>
+  </si>
+  <si>
+    <t>OLYPHANT</t>
+  </si>
+  <si>
+    <t>PINEVILLE</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
@@ -370,7 +499,16 @@
     <t>NV</t>
   </si>
   <si>
-    <t>29330</t>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>30096</t>
   </si>
   <si>
     <t>Success</t>
@@ -428,6 +566,36 @@
   </si>
   <si>
     <t>Rate: 595.25, Carrier: ABF Density VL</t>
+  </si>
+  <si>
+    <t>Rate: 444.65, Carrier: ABF Density VL</t>
+  </si>
+  <si>
+    <t>Rate: 816.06, Carrier: ABF Density VL</t>
+  </si>
+  <si>
+    <t>Rate: 458.27, Carrier: Estes Express Lines VL</t>
+  </si>
+  <si>
+    <t>Rate: 463.08, Carrier: Estes Express Lines VL</t>
+  </si>
+  <si>
+    <t>Rate: 469.74, Carrier: Estes Express Lines VL</t>
+  </si>
+  <si>
+    <t>Rate: 968.12, Carrier: ABF Density VL</t>
+  </si>
+  <si>
+    <t>Rate: 985.44, Carrier: Estes Express Lines VL</t>
+  </si>
+  <si>
+    <t>Rate: 625.19, Carrier: Estes Express Lines VL</t>
+  </si>
+  <si>
+    <t>Rate: 1175.25, Carrier: Estes Express Lines VL</t>
+  </si>
+  <si>
+    <t>Rate: 561.31, Carrier: ABF Density VL</t>
   </si>
   <si>
     <t>API</t>
@@ -788,7 +956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -837,22 +1005,22 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="E2">
         <v>29483</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="H2">
         <v>28303</v>
@@ -861,13 +1029,13 @@
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="K2" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
       <c r="L2" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -875,22 +1043,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E3">
         <v>7201</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="G3" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="H3">
         <v>46140</v>
@@ -899,13 +1067,13 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="K3" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="L3" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -913,22 +1081,22 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="E4">
         <v>90220</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="H4">
         <v>75241</v>
@@ -937,13 +1105,13 @@
         <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="K4" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="L4" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -951,22 +1119,22 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="E5">
         <v>90220</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="G5" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="H5">
         <v>85395</v>
@@ -975,13 +1143,13 @@
         <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="K5" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="L5" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -989,22 +1157,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="E6">
         <v>90220</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="G6" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="H6">
         <v>85043</v>
@@ -1013,13 +1181,13 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="K6" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="L6" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1027,22 +1195,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="E7">
         <v>29483</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="H7">
         <v>30567</v>
@@ -1051,13 +1219,13 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="K7" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="L7" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1065,22 +1233,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E8">
         <v>7201</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="G8" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="H8">
         <v>8873</v>
@@ -1089,13 +1257,13 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="K8" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="L8" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1103,22 +1271,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="E9">
         <v>77020</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="H9">
         <v>75007</v>
@@ -1127,10 +1295,10 @@
         <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K9" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1138,22 +1306,22 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E10">
         <v>7201</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="H10">
         <v>18105</v>
@@ -1162,10 +1330,10 @@
         <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K10" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1173,22 +1341,22 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E11">
         <v>7201</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="H11">
         <v>17112</v>
@@ -1197,10 +1365,10 @@
         <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1208,22 +1376,22 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E12">
         <v>7201</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="H12">
         <v>18202</v>
@@ -1232,13 +1400,13 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="L12" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1246,22 +1414,22 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="E13">
         <v>77020</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="H13">
         <v>75007</v>
@@ -1270,10 +1438,10 @@
         <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1281,22 +1449,22 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E14">
         <v>7201</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="H14">
         <v>18105</v>
@@ -1305,10 +1473,10 @@
         <v>100</v>
       </c>
       <c r="J14" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1316,22 +1484,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E15">
         <v>7201</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="H15">
         <v>17112</v>
@@ -1340,10 +1508,10 @@
         <v>100</v>
       </c>
       <c r="J15" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1351,22 +1519,22 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="E16">
         <v>29483</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="H16">
         <v>29330</v>
@@ -1375,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K16" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1386,22 +1554,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="E17">
         <v>29483</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="G17" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="H17">
         <v>29330</v>
@@ -1410,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1421,22 +1589,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="E18">
         <v>29483</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="G18" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="H18">
         <v>29330</v>
@@ -1445,10 +1613,10 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K18" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1456,22 +1624,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E19">
         <v>7201</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="G19" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="H19">
         <v>46410</v>
@@ -1480,10 +1648,10 @@
         <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1491,22 +1659,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="E20">
         <v>29483</v>
       </c>
       <c r="F20" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="H20">
         <v>29330</v>
@@ -1515,10 +1683,10 @@
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K20" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1526,22 +1694,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E21">
         <v>7201</v>
       </c>
       <c r="F21" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="H21">
         <v>46410</v>
@@ -1550,10 +1718,10 @@
         <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K21" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1561,22 +1729,22 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E22">
         <v>7201</v>
       </c>
       <c r="F22" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="G22" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="H22">
         <v>46410</v>
@@ -1585,10 +1753,10 @@
         <v>19</v>
       </c>
       <c r="J22" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K22" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1596,22 +1764,22 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E23">
         <v>7201</v>
       </c>
       <c r="F23" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="G23" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="H23">
         <v>48917</v>
@@ -1620,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K23" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1631,22 +1799,22 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="H24">
         <v>60433</v>
@@ -1655,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K24" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1666,22 +1834,22 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E25">
         <v>7201</v>
       </c>
       <c r="F25" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="G25" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="H25">
         <v>46809</v>
@@ -1690,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K25" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1701,22 +1869,22 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E26">
         <v>7201</v>
       </c>
       <c r="F26" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="G26" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="H26">
         <v>48917</v>
@@ -1725,10 +1893,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K26" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1736,22 +1904,22 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="G27" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="H27">
         <v>60433</v>
@@ -1760,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K27" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1771,22 +1939,22 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E28">
         <v>7201</v>
       </c>
       <c r="F28" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="G28" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="H28">
         <v>46809</v>
@@ -1795,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K28" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1806,22 +1974,22 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="G29" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="H29">
         <v>60433</v>
@@ -1830,10 +1998,10 @@
         <v>9</v>
       </c>
       <c r="J29" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K29" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1841,22 +2009,22 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E30">
         <v>7201</v>
       </c>
       <c r="F30" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="G30" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="H30">
         <v>48917</v>
@@ -1865,13 +2033,13 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="K30" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="L30" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1879,22 +2047,22 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="G31" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="H31">
         <v>60433</v>
@@ -1903,10 +2071,10 @@
         <v>9</v>
       </c>
       <c r="J31" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K31" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1914,22 +2082,22 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E32">
         <v>7201</v>
       </c>
       <c r="F32" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="G32" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="H32">
         <v>46809</v>
@@ -1938,13 +2106,13 @@
         <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="K32" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="L32" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1952,22 +2120,22 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E33">
         <v>7201</v>
       </c>
       <c r="F33" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="G33" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="H33">
         <v>48917</v>
@@ -1976,13 +2144,13 @@
         <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="K33" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="L33" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1990,22 +2158,22 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="G34" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="H34">
         <v>60433</v>
@@ -2014,10 +2182,10 @@
         <v>9</v>
       </c>
       <c r="J34" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K34" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2025,22 +2193,22 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E35">
         <v>7201</v>
       </c>
       <c r="F35" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="G35" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="H35">
         <v>46809</v>
@@ -2049,13 +2217,13 @@
         <v>10</v>
       </c>
       <c r="J35" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="K35" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="L35" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2063,22 +2231,22 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="G36" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="H36">
         <v>60433</v>
@@ -2087,10 +2255,10 @@
         <v>9</v>
       </c>
       <c r="J36" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K36" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2098,22 +2266,22 @@
         <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="E37">
         <v>90220</v>
       </c>
       <c r="F37" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="G37" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="H37">
         <v>89044</v>
@@ -2122,13 +2290,13 @@
         <v>10</v>
       </c>
       <c r="J37" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="K37" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="L37" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2136,22 +2304,22 @@
         <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="E38">
         <v>90220</v>
       </c>
       <c r="F38" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="G38" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="H38">
         <v>85395</v>
@@ -2160,13 +2328,13 @@
         <v>9</v>
       </c>
       <c r="J38" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="K38" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="L38" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2174,22 +2342,22 @@
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="G39" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="H39">
         <v>60433</v>
@@ -2198,10 +2366,10 @@
         <v>9</v>
       </c>
       <c r="J39" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K39" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2209,22 +2377,22 @@
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="G40" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="H40">
         <v>60433</v>
@@ -2233,10 +2401,10 @@
         <v>9</v>
       </c>
       <c r="J40" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K40" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2244,22 +2412,22 @@
         <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E41">
         <v>7201</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="G41" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="H41">
         <v>15672</v>
@@ -2268,10 +2436,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K41" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2279,22 +2447,22 @@
         <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E42">
         <v>7201</v>
       </c>
       <c r="F42" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="G42" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="H42">
         <v>15672</v>
@@ -2303,10 +2471,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K42" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2314,22 +2482,22 @@
         <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E43">
         <v>7201</v>
       </c>
       <c r="F43" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="G43" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="H43">
         <v>15672</v>
@@ -2338,10 +2506,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="K43" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2349,22 +2517,22 @@
         <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E44">
         <v>7201</v>
       </c>
       <c r="F44" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="G44" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="H44">
         <v>15672</v>
@@ -2373,13 +2541,13 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="K44" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="L44" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2387,22 +2555,22 @@
         <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="D45" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E45">
         <v>7201</v>
       </c>
       <c r="F45" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="G45" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="H45">
         <v>15672</v>
@@ -2411,13 +2579,13 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="K45" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
       <c r="L45" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2425,22 +2593,22 @@
         <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="E46">
         <v>29483</v>
       </c>
       <c r="F46" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="G46" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="H46">
         <v>29330</v>
@@ -2449,13 +2617,13 @@
         <v>7</v>
       </c>
       <c r="J46" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="K46" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="L46" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2463,22 +2631,22 @@
         <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D47" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="E47">
         <v>29483</v>
       </c>
       <c r="F47" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="G47" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="H47">
         <v>29330</v>
@@ -2487,13 +2655,13 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="K47" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="L47" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2501,22 +2669,22 @@
         <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="E48">
         <v>29483</v>
       </c>
       <c r="F48" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="G48" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="H48">
         <v>29330</v>
@@ -2525,13 +2693,13 @@
         <v>5</v>
       </c>
       <c r="J48" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="K48" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="L48" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2539,22 +2707,22 @@
         <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D49" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="E49">
         <v>29483</v>
       </c>
       <c r="F49" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="G49" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="H49">
         <v>29330</v>
@@ -2563,13 +2731,13 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="K49" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
       <c r="L49" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2577,37 +2745,1007 @@
         <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
-      </c>
-      <c r="E50" t="s">
-        <v>88</v>
+        <v>119</v>
+      </c>
+      <c r="E50">
+        <v>29483</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="G50" t="s">
-        <v>83</v>
-      </c>
-      <c r="H50" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="H50">
+        <v>29330</v>
       </c>
       <c r="I50">
         <v>3</v>
       </c>
       <c r="J50" t="s">
+        <v>165</v>
+      </c>
+      <c r="K50" t="s">
+        <v>182</v>
+      </c>
+      <c r="L50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51">
+        <v>7201</v>
+      </c>
+      <c r="F51" t="s">
+        <v>145</v>
+      </c>
+      <c r="G51" t="s">
+        <v>158</v>
+      </c>
+      <c r="H51">
+        <v>15672</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>165</v>
+      </c>
+      <c r="K51" t="s">
+        <v>180</v>
+      </c>
+      <c r="L51" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" t="s">
         <v>119</v>
       </c>
-      <c r="K50" t="s">
+      <c r="E52">
+        <v>29483</v>
+      </c>
+      <c r="F52" t="s">
         <v>136</v>
       </c>
-      <c r="L50" t="s">
-        <v>138</v>
+      <c r="G52" t="s">
+        <v>119</v>
+      </c>
+      <c r="H52">
+        <v>29330</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52" t="s">
+        <v>165</v>
+      </c>
+      <c r="K52" t="s">
+        <v>184</v>
+      </c>
+      <c r="L52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53">
+        <v>29483</v>
+      </c>
+      <c r="F53" t="s">
+        <v>136</v>
+      </c>
+      <c r="G53" t="s">
+        <v>119</v>
+      </c>
+      <c r="H53">
+        <v>29330</v>
+      </c>
+      <c r="I53">
+        <v>9</v>
+      </c>
+      <c r="J53" t="s">
+        <v>165</v>
+      </c>
+      <c r="K53" t="s">
+        <v>185</v>
+      </c>
+      <c r="L53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54">
+        <v>7201</v>
+      </c>
+      <c r="F54" t="s">
+        <v>144</v>
+      </c>
+      <c r="G54" t="s">
+        <v>158</v>
+      </c>
+      <c r="H54">
+        <v>15672</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>166</v>
+      </c>
+      <c r="K54" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" t="s">
+        <v>120</v>
+      </c>
+      <c r="E55">
+        <v>7201</v>
+      </c>
+      <c r="F55" t="s">
+        <v>135</v>
+      </c>
+      <c r="G55" t="s">
+        <v>158</v>
+      </c>
+      <c r="H55">
+        <v>18202</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55" t="s">
+        <v>165</v>
+      </c>
+      <c r="K55" t="s">
+        <v>175</v>
+      </c>
+      <c r="L55" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" t="s">
+        <v>120</v>
+      </c>
+      <c r="E56">
+        <v>7201</v>
+      </c>
+      <c r="F56" t="s">
+        <v>146</v>
+      </c>
+      <c r="G56" t="s">
+        <v>161</v>
+      </c>
+      <c r="H56">
+        <v>22406</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+      <c r="J56" t="s">
+        <v>165</v>
+      </c>
+      <c r="K56" t="s">
+        <v>186</v>
+      </c>
+      <c r="L56" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" t="s">
+        <v>121</v>
+      </c>
+      <c r="E57">
+        <v>90220</v>
+      </c>
+      <c r="F57" t="s">
+        <v>129</v>
+      </c>
+      <c r="G57" t="s">
+        <v>155</v>
+      </c>
+      <c r="H57">
+        <v>85043</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57" t="s">
+        <v>165</v>
+      </c>
+      <c r="K57" t="s">
+        <v>187</v>
+      </c>
+      <c r="L57" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58">
+        <v>90220</v>
+      </c>
+      <c r="F58" t="s">
+        <v>128</v>
+      </c>
+      <c r="G58" t="s">
+        <v>155</v>
+      </c>
+      <c r="H58">
+        <v>85395</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
+      <c r="J58" t="s">
+        <v>165</v>
+      </c>
+      <c r="K58" t="s">
+        <v>188</v>
+      </c>
+      <c r="L58" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59">
+        <v>7201</v>
+      </c>
+      <c r="F59" t="s">
+        <v>135</v>
+      </c>
+      <c r="G59" t="s">
+        <v>158</v>
+      </c>
+      <c r="H59">
+        <v>18202</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+      <c r="J59" t="s">
+        <v>165</v>
+      </c>
+      <c r="K59" t="s">
+        <v>175</v>
+      </c>
+      <c r="L59" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" t="s">
+        <v>120</v>
+      </c>
+      <c r="E60">
+        <v>7201</v>
+      </c>
+      <c r="F60" t="s">
+        <v>146</v>
+      </c>
+      <c r="G60" t="s">
+        <v>161</v>
+      </c>
+      <c r="H60">
+        <v>22406</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+      <c r="J60" t="s">
+        <v>165</v>
+      </c>
+      <c r="K60" t="s">
+        <v>186</v>
+      </c>
+      <c r="L60" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61">
+        <v>7201</v>
+      </c>
+      <c r="F61" t="s">
+        <v>135</v>
+      </c>
+      <c r="G61" t="s">
+        <v>158</v>
+      </c>
+      <c r="H61">
+        <v>18202</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61" t="s">
+        <v>165</v>
+      </c>
+      <c r="K61" t="s">
+        <v>175</v>
+      </c>
+      <c r="L61" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C62" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62">
+        <v>7201</v>
+      </c>
+      <c r="F62" t="s">
+        <v>146</v>
+      </c>
+      <c r="G62" t="s">
+        <v>161</v>
+      </c>
+      <c r="H62">
+        <v>22406</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62" t="s">
+        <v>165</v>
+      </c>
+      <c r="K62" t="s">
+        <v>186</v>
+      </c>
+      <c r="L62" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63">
+        <v>90220</v>
+      </c>
+      <c r="F63" t="s">
+        <v>127</v>
+      </c>
+      <c r="G63" t="s">
+        <v>122</v>
+      </c>
+      <c r="H63">
+        <v>75241</v>
+      </c>
+      <c r="I63">
+        <v>3</v>
+      </c>
+      <c r="J63" t="s">
+        <v>165</v>
+      </c>
+      <c r="K63" t="s">
+        <v>189</v>
+      </c>
+      <c r="L63" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64">
+        <v>90220</v>
+      </c>
+      <c r="F64" t="s">
+        <v>129</v>
+      </c>
+      <c r="G64" t="s">
+        <v>155</v>
+      </c>
+      <c r="H64">
+        <v>85043</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="J64" t="s">
+        <v>165</v>
+      </c>
+      <c r="K64" t="s">
+        <v>187</v>
+      </c>
+      <c r="L64" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" t="s">
+        <v>121</v>
+      </c>
+      <c r="E65">
+        <v>90220</v>
+      </c>
+      <c r="F65" t="s">
+        <v>128</v>
+      </c>
+      <c r="G65" t="s">
+        <v>155</v>
+      </c>
+      <c r="H65">
+        <v>85395</v>
+      </c>
+      <c r="I65">
+        <v>3</v>
+      </c>
+      <c r="J65" t="s">
+        <v>165</v>
+      </c>
+      <c r="K65" t="s">
+        <v>188</v>
+      </c>
+      <c r="L65" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" t="s">
+        <v>121</v>
+      </c>
+      <c r="E66">
+        <v>90220</v>
+      </c>
+      <c r="F66" t="s">
+        <v>127</v>
+      </c>
+      <c r="G66" t="s">
+        <v>122</v>
+      </c>
+      <c r="H66">
+        <v>75241</v>
+      </c>
+      <c r="I66">
+        <v>3</v>
+      </c>
+      <c r="J66" t="s">
+        <v>165</v>
+      </c>
+      <c r="K66" t="s">
+        <v>190</v>
+      </c>
+      <c r="L66" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" t="s">
+        <v>120</v>
+      </c>
+      <c r="E67">
+        <v>7201</v>
+      </c>
+      <c r="F67" t="s">
+        <v>135</v>
+      </c>
+      <c r="G67" t="s">
+        <v>158</v>
+      </c>
+      <c r="H67">
+        <v>18202</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67" t="s">
+        <v>165</v>
+      </c>
+      <c r="K67" t="s">
+        <v>175</v>
+      </c>
+      <c r="L67" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" t="s">
+        <v>120</v>
+      </c>
+      <c r="E68">
+        <v>7201</v>
+      </c>
+      <c r="F68" t="s">
+        <v>146</v>
+      </c>
+      <c r="G68" t="s">
+        <v>161</v>
+      </c>
+      <c r="H68">
+        <v>22406</v>
+      </c>
+      <c r="I68">
+        <v>3</v>
+      </c>
+      <c r="J68" t="s">
+        <v>165</v>
+      </c>
+      <c r="K68" t="s">
+        <v>186</v>
+      </c>
+      <c r="L68" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B69" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" t="s">
+        <v>113</v>
+      </c>
+      <c r="D69" t="s">
+        <v>119</v>
+      </c>
+      <c r="E69">
+        <v>29483</v>
+      </c>
+      <c r="F69" t="s">
+        <v>147</v>
+      </c>
+      <c r="G69" t="s">
+        <v>156</v>
+      </c>
+      <c r="H69">
+        <v>30096</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>166</v>
+      </c>
+      <c r="K69" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" t="s">
+        <v>119</v>
+      </c>
+      <c r="E70">
+        <v>29483</v>
+      </c>
+      <c r="F70" t="s">
+        <v>147</v>
+      </c>
+      <c r="G70" t="s">
+        <v>156</v>
+      </c>
+      <c r="H70">
+        <v>30096</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>166</v>
+      </c>
+      <c r="K70" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71">
+        <v>90220</v>
+      </c>
+      <c r="F71" t="s">
+        <v>148</v>
+      </c>
+      <c r="G71" t="s">
+        <v>121</v>
+      </c>
+      <c r="H71">
+        <v>91752</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71" t="s">
+        <v>166</v>
+      </c>
+      <c r="K71" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" t="s">
+        <v>120</v>
+      </c>
+      <c r="E72">
+        <v>7201</v>
+      </c>
+      <c r="F72" t="s">
+        <v>149</v>
+      </c>
+      <c r="G72" t="s">
+        <v>162</v>
+      </c>
+      <c r="H72">
+        <v>21740</v>
+      </c>
+      <c r="I72">
+        <v>5</v>
+      </c>
+      <c r="J72" t="s">
+        <v>165</v>
+      </c>
+      <c r="K72" t="s">
+        <v>191</v>
+      </c>
+      <c r="L72" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" t="s">
+        <v>113</v>
+      </c>
+      <c r="D73" t="s">
+        <v>119</v>
+      </c>
+      <c r="E73">
+        <v>29483</v>
+      </c>
+      <c r="F73" t="s">
+        <v>150</v>
+      </c>
+      <c r="G73" t="s">
+        <v>163</v>
+      </c>
+      <c r="H73">
+        <v>38654</v>
+      </c>
+      <c r="I73">
+        <v>6</v>
+      </c>
+      <c r="J73" t="s">
+        <v>165</v>
+      </c>
+      <c r="K73" t="s">
+        <v>192</v>
+      </c>
+      <c r="L73" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74" t="s">
+        <v>117</v>
+      </c>
+      <c r="D74" t="s">
+        <v>120</v>
+      </c>
+      <c r="E74">
+        <v>7201</v>
+      </c>
+      <c r="F74" t="s">
+        <v>151</v>
+      </c>
+      <c r="G74" t="s">
+        <v>158</v>
+      </c>
+      <c r="H74">
+        <v>18447</v>
+      </c>
+      <c r="I74">
+        <v>18</v>
+      </c>
+      <c r="J74" t="s">
+        <v>166</v>
+      </c>
+      <c r="K74" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" t="s">
+        <v>113</v>
+      </c>
+      <c r="D75" t="s">
+        <v>119</v>
+      </c>
+      <c r="E75">
+        <v>29483</v>
+      </c>
+      <c r="F75" t="s">
+        <v>152</v>
+      </c>
+      <c r="G75" t="s">
+        <v>153</v>
+      </c>
+      <c r="H75">
+        <v>28134</v>
+      </c>
+      <c r="I75">
+        <v>4</v>
+      </c>
+      <c r="J75" t="s">
+        <v>165</v>
+      </c>
+      <c r="K75" t="s">
+        <v>193</v>
+      </c>
+      <c r="L75" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" t="s">
+        <v>147</v>
+      </c>
+      <c r="G76" t="s">
+        <v>156</v>
+      </c>
+      <c r="H76" t="s">
+        <v>164</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76" t="s">
+        <v>166</v>
+      </c>
+      <c r="K76" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/heyprimo_api_tracking.xlsx
+++ b/Logs/heyprimo_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="201">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -130,6 +130,12 @@
     <t>CMM0657LCL0117</t>
   </si>
   <si>
+    <t>CMM0910LCL0002</t>
+  </si>
+  <si>
+    <t>CMM0911LCL0001</t>
+  </si>
+  <si>
     <t>2025-08-14 15:19:49</t>
   </si>
   <si>
@@ -355,6 +361,15 @@
     <t>2025-08-26 05:41:34</t>
   </si>
   <si>
+    <t>2025-08-26 06:01:31</t>
+  </si>
+  <si>
+    <t>2025-08-28 08:59:14</t>
+  </si>
+  <si>
+    <t>2025-08-28 09:53:39</t>
+  </si>
+  <si>
     <t>CHARLESTON</t>
   </si>
   <si>
@@ -388,7 +403,7 @@
     <t>IL</t>
   </si>
   <si>
-    <t>29483</t>
+    <t>07201</t>
   </si>
   <si>
     <t>FAYETTEVILLE</t>
@@ -508,7 +523,7 @@
     <t>MS</t>
   </si>
   <si>
-    <t>30096</t>
+    <t>15672</t>
   </si>
   <si>
     <t>Success</t>
@@ -596,6 +611,9 @@
   </si>
   <si>
     <t>Rate: 561.31, Carrier: ABF Density VL</t>
+  </si>
+  <si>
+    <t>Rate: 537.88, Carrier: ABF Freight System VL</t>
   </si>
   <si>
     <t>API</t>
@@ -956,7 +974,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1005,22 +1023,22 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E2">
         <v>29483</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H2">
         <v>28303</v>
@@ -1029,13 +1047,13 @@
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1043,22 +1061,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E3">
         <v>7201</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H3">
         <v>46140</v>
@@ -1067,13 +1085,13 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1081,22 +1099,22 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E4">
         <v>90220</v>
       </c>
       <c r="F4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" t="s">
         <v>127</v>
-      </c>
-      <c r="G4" t="s">
-        <v>122</v>
       </c>
       <c r="H4">
         <v>75241</v>
@@ -1105,13 +1123,13 @@
         <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1119,22 +1137,22 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E5">
         <v>90220</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H5">
         <v>85395</v>
@@ -1143,13 +1161,13 @@
         <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L5" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1157,22 +1175,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E6">
         <v>90220</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H6">
         <v>85043</v>
@@ -1181,13 +1199,13 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K6" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="L6" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1195,22 +1213,22 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E7">
         <v>29483</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H7">
         <v>30567</v>
@@ -1219,13 +1237,13 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="L7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1233,22 +1251,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E8">
         <v>7201</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H8">
         <v>8873</v>
@@ -1257,13 +1275,13 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L8" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1271,22 +1289,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E9">
         <v>77020</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H9">
         <v>75007</v>
@@ -1295,10 +1313,10 @@
         <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1306,22 +1324,22 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E10">
         <v>7201</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G10" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H10">
         <v>18105</v>
@@ -1330,10 +1348,10 @@
         <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K10" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1341,22 +1359,22 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E11">
         <v>7201</v>
       </c>
       <c r="F11" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H11">
         <v>17112</v>
@@ -1365,10 +1383,10 @@
         <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K11" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1376,22 +1394,22 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E12">
         <v>7201</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H12">
         <v>18202</v>
@@ -1400,13 +1418,13 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K12" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L12" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1414,22 +1432,22 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E13">
         <v>77020</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H13">
         <v>75007</v>
@@ -1438,10 +1456,10 @@
         <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K13" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1449,22 +1467,22 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E14">
         <v>7201</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H14">
         <v>18105</v>
@@ -1473,10 +1491,10 @@
         <v>100</v>
       </c>
       <c r="J14" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K14" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1484,22 +1502,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E15">
         <v>7201</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G15" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H15">
         <v>17112</v>
@@ -1508,10 +1526,10 @@
         <v>100</v>
       </c>
       <c r="J15" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K15" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1519,22 +1537,22 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E16">
         <v>29483</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H16">
         <v>29330</v>
@@ -1543,10 +1561,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1554,22 +1572,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E17">
         <v>29483</v>
       </c>
       <c r="F17" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G17" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H17">
         <v>29330</v>
@@ -1578,10 +1596,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1589,22 +1607,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E18">
         <v>29483</v>
       </c>
       <c r="F18" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H18">
         <v>29330</v>
@@ -1613,10 +1631,10 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1624,22 +1642,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E19">
         <v>7201</v>
       </c>
       <c r="F19" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G19" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H19">
         <v>46410</v>
@@ -1648,10 +1666,10 @@
         <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K19" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1659,22 +1677,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E20">
         <v>29483</v>
       </c>
       <c r="F20" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H20">
         <v>29330</v>
@@ -1683,10 +1701,10 @@
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K20" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1694,22 +1712,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E21">
         <v>7201</v>
       </c>
       <c r="F21" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G21" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H21">
         <v>46410</v>
@@ -1718,10 +1736,10 @@
         <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K21" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1729,22 +1747,22 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E22">
         <v>7201</v>
       </c>
       <c r="F22" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G22" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H22">
         <v>46410</v>
@@ -1753,10 +1771,10 @@
         <v>19</v>
       </c>
       <c r="J22" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K22" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1764,22 +1782,22 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E23">
         <v>7201</v>
       </c>
       <c r="F23" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G23" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H23">
         <v>48917</v>
@@ -1788,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K23" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1799,22 +1817,22 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G24" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H24">
         <v>60433</v>
@@ -1823,10 +1841,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K24" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1834,22 +1852,22 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E25">
         <v>7201</v>
       </c>
       <c r="F25" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G25" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H25">
         <v>46809</v>
@@ -1858,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K25" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1869,22 +1887,22 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E26">
         <v>7201</v>
       </c>
       <c r="F26" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G26" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H26">
         <v>48917</v>
@@ -1893,10 +1911,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K26" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1904,22 +1922,22 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G27" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H27">
         <v>60433</v>
@@ -1928,10 +1946,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K27" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1939,22 +1957,22 @@
         <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E28">
         <v>7201</v>
       </c>
       <c r="F28" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G28" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H28">
         <v>46809</v>
@@ -1963,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K28" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1974,22 +1992,22 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G29" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H29">
         <v>60433</v>
@@ -1998,10 +2016,10 @@
         <v>9</v>
       </c>
       <c r="J29" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K29" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2009,22 +2027,22 @@
         <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E30">
         <v>7201</v>
       </c>
       <c r="F30" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G30" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H30">
         <v>48917</v>
@@ -2033,13 +2051,13 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K30" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L30" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2047,22 +2065,22 @@
         <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G31" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H31">
         <v>60433</v>
@@ -2071,10 +2089,10 @@
         <v>9</v>
       </c>
       <c r="J31" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K31" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2082,22 +2100,22 @@
         <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E32">
         <v>7201</v>
       </c>
       <c r="F32" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G32" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H32">
         <v>46809</v>
@@ -2106,13 +2124,13 @@
         <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K32" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L32" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2120,22 +2138,22 @@
         <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E33">
         <v>7201</v>
       </c>
       <c r="F33" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G33" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H33">
         <v>48917</v>
@@ -2144,13 +2162,13 @@
         <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K33" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L33" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2158,22 +2176,22 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G34" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H34">
         <v>60433</v>
@@ -2182,10 +2200,10 @@
         <v>9</v>
       </c>
       <c r="J34" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K34" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2193,22 +2211,22 @@
         <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E35">
         <v>7201</v>
       </c>
       <c r="F35" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G35" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H35">
         <v>46809</v>
@@ -2217,13 +2235,13 @@
         <v>10</v>
       </c>
       <c r="J35" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K35" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L35" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2231,22 +2249,22 @@
         <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G36" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H36">
         <v>60433</v>
@@ -2255,10 +2273,10 @@
         <v>9</v>
       </c>
       <c r="J36" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K36" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2266,22 +2284,22 @@
         <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E37">
         <v>90220</v>
       </c>
       <c r="F37" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G37" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H37">
         <v>89044</v>
@@ -2290,13 +2308,13 @@
         <v>10</v>
       </c>
       <c r="J37" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K37" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="L37" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2304,22 +2322,22 @@
         <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E38">
         <v>90220</v>
       </c>
       <c r="F38" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G38" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H38">
         <v>85395</v>
@@ -2328,13 +2346,13 @@
         <v>9</v>
       </c>
       <c r="J38" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K38" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="L38" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2342,22 +2360,22 @@
         <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G39" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H39">
         <v>60433</v>
@@ -2366,10 +2384,10 @@
         <v>9</v>
       </c>
       <c r="J39" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K39" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2377,22 +2395,22 @@
         <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G40" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H40">
         <v>60433</v>
@@ -2401,10 +2419,10 @@
         <v>9</v>
       </c>
       <c r="J40" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K40" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2412,22 +2430,22 @@
         <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E41">
         <v>7201</v>
       </c>
       <c r="F41" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G41" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H41">
         <v>15672</v>
@@ -2436,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K41" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2447,22 +2465,22 @@
         <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E42">
         <v>7201</v>
       </c>
       <c r="F42" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G42" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H42">
         <v>15672</v>
@@ -2471,10 +2489,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K42" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2482,22 +2500,22 @@
         <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D43" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E43">
         <v>7201</v>
       </c>
       <c r="F43" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G43" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H43">
         <v>15672</v>
@@ -2506,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K43" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2517,22 +2535,22 @@
         <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E44">
         <v>7201</v>
       </c>
       <c r="F44" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G44" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H44">
         <v>15672</v>
@@ -2541,13 +2559,13 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K44" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L44" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2555,22 +2573,22 @@
         <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D45" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E45">
         <v>7201</v>
       </c>
       <c r="F45" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G45" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H45">
         <v>15672</v>
@@ -2579,13 +2597,13 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K45" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L45" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2593,22 +2611,22 @@
         <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D46" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E46">
         <v>29483</v>
       </c>
       <c r="F46" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G46" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H46">
         <v>29330</v>
@@ -2617,13 +2635,13 @@
         <v>7</v>
       </c>
       <c r="J46" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K46" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="L46" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2631,22 +2649,22 @@
         <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D47" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E47">
         <v>29483</v>
       </c>
       <c r="F47" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G47" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H47">
         <v>29330</v>
@@ -2655,13 +2673,13 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K47" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L47" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2669,22 +2687,22 @@
         <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E48">
         <v>29483</v>
       </c>
       <c r="F48" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G48" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H48">
         <v>29330</v>
@@ -2693,13 +2711,13 @@
         <v>5</v>
       </c>
       <c r="J48" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K48" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="L48" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2707,22 +2725,22 @@
         <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E49">
         <v>29483</v>
       </c>
       <c r="F49" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G49" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H49">
         <v>29330</v>
@@ -2731,13 +2749,13 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K49" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L49" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2745,22 +2763,22 @@
         <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E50">
         <v>29483</v>
       </c>
       <c r="F50" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G50" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H50">
         <v>29330</v>
@@ -2769,13 +2787,13 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K50" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L50" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2783,22 +2801,22 @@
         <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D51" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E51">
         <v>7201</v>
       </c>
       <c r="F51" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G51" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H51">
         <v>15672</v>
@@ -2807,13 +2825,13 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K51" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="L51" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2821,22 +2839,22 @@
         <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D52" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E52">
         <v>29483</v>
       </c>
       <c r="F52" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G52" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H52">
         <v>29330</v>
@@ -2845,13 +2863,13 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K52" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="L52" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2859,22 +2877,22 @@
         <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D53" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E53">
         <v>29483</v>
       </c>
       <c r="F53" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G53" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H53">
         <v>29330</v>
@@ -2883,13 +2901,13 @@
         <v>9</v>
       </c>
       <c r="J53" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K53" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="L53" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2897,22 +2915,22 @@
         <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D54" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E54">
         <v>7201</v>
       </c>
       <c r="F54" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G54" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H54">
         <v>15672</v>
@@ -2921,10 +2939,10 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K54" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2932,22 +2950,22 @@
         <v>30</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D55" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E55">
         <v>7201</v>
       </c>
       <c r="F55" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G55" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H55">
         <v>18202</v>
@@ -2956,13 +2974,13 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K55" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L55" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2970,22 +2988,22 @@
         <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D56" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E56">
         <v>7201</v>
       </c>
       <c r="F56" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G56" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H56">
         <v>22406</v>
@@ -2994,13 +3012,13 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K56" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L56" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3008,22 +3026,22 @@
         <v>31</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D57" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E57">
         <v>90220</v>
       </c>
       <c r="F57" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G57" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H57">
         <v>85043</v>
@@ -3032,13 +3050,13 @@
         <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K57" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L57" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3046,22 +3064,22 @@
         <v>31</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C58" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D58" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E58">
         <v>90220</v>
       </c>
       <c r="F58" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G58" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H58">
         <v>85395</v>
@@ -3070,13 +3088,13 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K58" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L58" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3084,22 +3102,22 @@
         <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D59" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E59">
         <v>7201</v>
       </c>
       <c r="F59" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G59" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H59">
         <v>18202</v>
@@ -3108,13 +3126,13 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K59" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L59" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3122,22 +3140,22 @@
         <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D60" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E60">
         <v>7201</v>
       </c>
       <c r="F60" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G60" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H60">
         <v>22406</v>
@@ -3146,13 +3164,13 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K60" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L60" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3160,22 +3178,22 @@
         <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D61" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E61">
         <v>7201</v>
       </c>
       <c r="F61" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G61" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H61">
         <v>18202</v>
@@ -3184,13 +3202,13 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K61" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L61" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3198,22 +3216,22 @@
         <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D62" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E62">
         <v>7201</v>
       </c>
       <c r="F62" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G62" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H62">
         <v>22406</v>
@@ -3222,13 +3240,13 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K62" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L62" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3236,22 +3254,22 @@
         <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D63" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E63">
         <v>90220</v>
       </c>
       <c r="F63" t="s">
+        <v>132</v>
+      </c>
+      <c r="G63" t="s">
         <v>127</v>
-      </c>
-      <c r="G63" t="s">
-        <v>122</v>
       </c>
       <c r="H63">
         <v>75241</v>
@@ -3260,13 +3278,13 @@
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K63" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="L63" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3274,22 +3292,22 @@
         <v>31</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D64" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E64">
         <v>90220</v>
       </c>
       <c r="F64" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G64" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H64">
         <v>85043</v>
@@ -3298,13 +3316,13 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K64" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L64" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3312,22 +3330,22 @@
         <v>31</v>
       </c>
       <c r="B65" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D65" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E65">
         <v>90220</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G65" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H65">
         <v>85395</v>
@@ -3336,13 +3354,13 @@
         <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K65" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L65" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3350,22 +3368,22 @@
         <v>31</v>
       </c>
       <c r="B66" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D66" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E66">
         <v>90220</v>
       </c>
       <c r="F66" t="s">
+        <v>132</v>
+      </c>
+      <c r="G66" t="s">
         <v>127</v>
-      </c>
-      <c r="G66" t="s">
-        <v>122</v>
       </c>
       <c r="H66">
         <v>75241</v>
@@ -3374,13 +3392,13 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K66" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="L66" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3388,22 +3406,22 @@
         <v>30</v>
       </c>
       <c r="B67" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C67" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D67" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E67">
         <v>7201</v>
       </c>
       <c r="F67" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G67" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H67">
         <v>18202</v>
@@ -3412,13 +3430,13 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K67" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L67" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3426,22 +3444,22 @@
         <v>30</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C68" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D68" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E68">
         <v>7201</v>
       </c>
       <c r="F68" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G68" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H68">
         <v>22406</v>
@@ -3450,13 +3468,13 @@
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K68" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="L68" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3464,22 +3482,22 @@
         <v>32</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C69" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D69" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E69">
         <v>29483</v>
       </c>
       <c r="F69" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G69" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H69">
         <v>30096</v>
@@ -3488,10 +3506,10 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K69" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3499,22 +3517,22 @@
         <v>32</v>
       </c>
       <c r="B70" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C70" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D70" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E70">
         <v>29483</v>
       </c>
       <c r="F70" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G70" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H70">
         <v>30096</v>
@@ -3523,10 +3541,10 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K70" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3534,22 +3552,22 @@
         <v>33</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C71" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D71" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E71">
         <v>90220</v>
       </c>
       <c r="F71" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G71" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H71">
         <v>91752</v>
@@ -3558,10 +3576,10 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K71" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3569,22 +3587,22 @@
         <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C72" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D72" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E72">
         <v>7201</v>
       </c>
       <c r="F72" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G72" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H72">
         <v>21740</v>
@@ -3593,13 +3611,13 @@
         <v>5</v>
       </c>
       <c r="J72" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K72" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L72" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3607,22 +3625,22 @@
         <v>35</v>
       </c>
       <c r="B73" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C73" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D73" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E73">
         <v>29483</v>
       </c>
       <c r="F73" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G73" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H73">
         <v>38654</v>
@@ -3631,13 +3649,13 @@
         <v>6</v>
       </c>
       <c r="J73" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K73" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L73" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3645,22 +3663,22 @@
         <v>36</v>
       </c>
       <c r="B74" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C74" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D74" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E74">
         <v>7201</v>
       </c>
       <c r="F74" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G74" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H74">
         <v>18447</v>
@@ -3669,10 +3687,10 @@
         <v>18</v>
       </c>
       <c r="J74" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K74" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3680,22 +3698,22 @@
         <v>37</v>
       </c>
       <c r="B75" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C75" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D75" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E75">
         <v>29483</v>
       </c>
       <c r="F75" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G75" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H75">
         <v>28134</v>
@@ -3704,13 +3722,13 @@
         <v>4</v>
       </c>
       <c r="J75" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K75" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L75" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3718,34 +3736,145 @@
         <v>32</v>
       </c>
       <c r="B76" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C76" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D76" t="s">
-        <v>119</v>
-      </c>
-      <c r="E76" t="s">
         <v>124</v>
       </c>
+      <c r="E76">
+        <v>29483</v>
+      </c>
       <c r="F76" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G76" t="s">
-        <v>156</v>
-      </c>
-      <c r="H76" t="s">
-        <v>164</v>
+        <v>161</v>
+      </c>
+      <c r="H76">
+        <v>30096</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K76" t="s">
-        <v>176</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" t="s">
+        <v>115</v>
+      </c>
+      <c r="C77" t="s">
+        <v>118</v>
+      </c>
+      <c r="D77" t="s">
+        <v>124</v>
+      </c>
+      <c r="E77">
+        <v>29483</v>
+      </c>
+      <c r="F77" t="s">
+        <v>152</v>
+      </c>
+      <c r="G77" t="s">
+        <v>161</v>
+      </c>
+      <c r="H77">
+        <v>30096</v>
+      </c>
+      <c r="I77">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>171</v>
+      </c>
+      <c r="K77" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" t="s">
+        <v>119</v>
+      </c>
+      <c r="D78" t="s">
+        <v>125</v>
+      </c>
+      <c r="E78">
+        <v>7201</v>
+      </c>
+      <c r="F78" t="s">
+        <v>150</v>
+      </c>
+      <c r="G78" t="s">
+        <v>163</v>
+      </c>
+      <c r="H78">
+        <v>15672</v>
+      </c>
+      <c r="I78">
+        <v>3</v>
+      </c>
+      <c r="J78" t="s">
+        <v>170</v>
+      </c>
+      <c r="K78" t="s">
+        <v>199</v>
+      </c>
+      <c r="L78" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" t="s">
+        <v>119</v>
+      </c>
+      <c r="D79" t="s">
+        <v>125</v>
+      </c>
+      <c r="E79" t="s">
+        <v>129</v>
+      </c>
+      <c r="F79" t="s">
+        <v>150</v>
+      </c>
+      <c r="G79" t="s">
+        <v>163</v>
+      </c>
+      <c r="H79" t="s">
+        <v>169</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79" t="s">
+        <v>170</v>
+      </c>
+      <c r="K79" t="s">
+        <v>185</v>
+      </c>
+      <c r="L79" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/heyprimo_api_tracking.xlsx
+++ b/Logs/heyprimo_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="235">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -52,6 +52,15 @@
     <t>Source</t>
   </si>
   <si>
+    <t>Unique ID</t>
+  </si>
+  <si>
+    <t>FBA Code</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -136,6 +145,15 @@
     <t>CMM0911LCL0001</t>
   </si>
   <si>
+    <t>CMM0914LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0916LCL0002</t>
+  </si>
+  <si>
+    <t>CMM0878LCL0003</t>
+  </si>
+  <si>
     <t>2025-08-14 15:19:49</t>
   </si>
   <si>
@@ -370,6 +388,24 @@
     <t>2025-08-28 09:53:39</t>
   </si>
   <si>
+    <t>2025-08-28 12:07:15</t>
+  </si>
+  <si>
+    <t>2025-08-29 11:18:33</t>
+  </si>
+  <si>
+    <t>2025-08-30 11:01:52</t>
+  </si>
+  <si>
+    <t>2025-09-01 08:14:47</t>
+  </si>
+  <si>
+    <t>2025-09-02 07:11:09</t>
+  </si>
+  <si>
+    <t>2025-09-02 07:16:49</t>
+  </si>
+  <si>
     <t>CHARLESTON</t>
   </si>
   <si>
@@ -490,6 +526,9 @@
     <t>PINEVILLE</t>
   </si>
   <si>
+    <t>MIDDLETOWN</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
@@ -523,7 +562,7 @@
     <t>MS</t>
   </si>
   <si>
-    <t>15672</t>
+    <t>18447</t>
   </si>
   <si>
     <t>Success</t>
@@ -616,13 +655,79 @@
     <t>Rate: 537.88, Carrier: ABF Freight System VL</t>
   </si>
   <si>
+    <t>Rate: 312.25, Carrier: Estes Express Lines</t>
+  </si>
+  <si>
+    <t>Rate: 444.62, Carrier: ABF Density VL</t>
+  </si>
+  <si>
+    <t>Rate: 618.68, Carrier: ABF Freight System VL</t>
+  </si>
+  <si>
+    <t>Rate: 1173.88, Carrier: Estes Express Lines VL</t>
+  </si>
+  <si>
     <t>API</t>
+  </si>
+  <si>
+    <t>STATIC DATA</t>
+  </si>
+  <si>
+    <t>CMM0246LCL0056_20250828120709</t>
+  </si>
+  <si>
+    <t>CMM0914LCL0001_20250829111820</t>
+  </si>
+  <si>
+    <t>CMM0916LCL0002_20250830110140</t>
+  </si>
+  <si>
+    <t>CMM0878LCL0003_20250901081446</t>
+  </si>
+  <si>
+    <t>CEN0479LCL0073_20250902071052</t>
+  </si>
+  <si>
+    <t>CMM0077LCL0002_20250902071644</t>
+  </si>
+  <si>
+    <t>ATL9</t>
+  </si>
+  <si>
+    <t>HIA1</t>
+  </si>
+  <si>
+    <t>IUSR</t>
+  </si>
+  <si>
+    <t>LBE1</t>
+  </si>
+  <si>
+    <t>MEM6</t>
+  </si>
+  <si>
+    <t>WBW2</t>
+  </si>
+  <si>
+    <t>28-08-2025</t>
+  </si>
+  <si>
+    <t>29-08-2025</t>
+  </si>
+  <si>
+    <t>30-08-2025</t>
+  </si>
+  <si>
+    <t>02-09-2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -675,11 +780,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -974,13 +1080,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1017,28 +1123,37 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E2">
         <v>29483</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G2" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H2">
         <v>28303</v>
@@ -1047,36 +1162,36 @@
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K2" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="L2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E3">
         <v>7201</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="H3">
         <v>46140</v>
@@ -1085,36 +1200,36 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K3" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="L3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E4">
         <v>90220</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G4" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="H4">
         <v>75241</v>
@@ -1123,36 +1238,36 @@
         <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K4" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="L4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E5">
         <v>90220</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G5" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="H5">
         <v>85395</v>
@@ -1161,36 +1276,36 @@
         <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="L5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E6">
         <v>90220</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G6" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="H6">
         <v>85043</v>
@@ -1199,36 +1314,36 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K6" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="L6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E7">
         <v>29483</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="G7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="H7">
         <v>30567</v>
@@ -1237,36 +1352,36 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="L7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E8">
         <v>7201</v>
       </c>
       <c r="F8" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="G8" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="H8">
         <v>8873</v>
@@ -1275,36 +1390,36 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K8" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="L8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E9">
         <v>77020</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G9" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="H9">
         <v>75007</v>
@@ -1313,33 +1428,33 @@
         <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E10">
         <v>7201</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="G10" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="H10">
         <v>18105</v>
@@ -1348,33 +1463,33 @@
         <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E11">
         <v>7201</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="G11" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="H11">
         <v>17112</v>
@@ -1383,33 +1498,33 @@
         <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E12">
         <v>7201</v>
       </c>
       <c r="F12" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G12" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="H12">
         <v>18202</v>
@@ -1418,36 +1533,36 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K12" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="E13">
         <v>77020</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="H13">
         <v>75007</v>
@@ -1456,33 +1571,33 @@
         <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E14">
         <v>7201</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="H14">
         <v>18105</v>
@@ -1491,33 +1606,33 @@
         <v>100</v>
       </c>
       <c r="J14" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E15">
         <v>7201</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="G15" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="H15">
         <v>17112</v>
@@ -1526,33 +1641,33 @@
         <v>100</v>
       </c>
       <c r="J15" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E16">
         <v>29483</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H16">
         <v>29330</v>
@@ -1561,33 +1676,33 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K16" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E17">
         <v>29483</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H17">
         <v>29330</v>
@@ -1596,33 +1711,33 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D18" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E18">
         <v>29483</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G18" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H18">
         <v>29330</v>
@@ -1631,33 +1746,33 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E19">
         <v>7201</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G19" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="H19">
         <v>46410</v>
@@ -1666,33 +1781,33 @@
         <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K19" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E20">
         <v>29483</v>
       </c>
       <c r="F20" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H20">
         <v>29330</v>
@@ -1701,33 +1816,33 @@
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K20" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E21">
         <v>7201</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G21" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="H21">
         <v>46410</v>
@@ -1736,33 +1851,33 @@
         <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K21" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E22">
         <v>7201</v>
       </c>
       <c r="F22" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G22" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="H22">
         <v>46410</v>
@@ -1771,33 +1886,33 @@
         <v>19</v>
       </c>
       <c r="J22" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K22" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E23">
         <v>7201</v>
       </c>
       <c r="F23" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G23" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="H23">
         <v>48917</v>
@@ -1806,33 +1921,33 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K23" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="H24">
         <v>60433</v>
@@ -1841,33 +1956,33 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K24" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E25">
         <v>7201</v>
       </c>
       <c r="F25" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G25" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="H25">
         <v>46809</v>
@@ -1876,33 +1991,33 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K25" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E26">
         <v>7201</v>
       </c>
       <c r="F26" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G26" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="H26">
         <v>48917</v>
@@ -1911,33 +2026,33 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K26" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G27" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="H27">
         <v>60433</v>
@@ -1946,33 +2061,33 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K27" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E28">
         <v>7201</v>
       </c>
       <c r="F28" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G28" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="H28">
         <v>46809</v>
@@ -1981,33 +2096,33 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K28" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G29" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="H29">
         <v>60433</v>
@@ -2016,33 +2131,33 @@
         <v>9</v>
       </c>
       <c r="J29" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K29" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E30">
         <v>7201</v>
       </c>
       <c r="F30" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="G30" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="H30">
         <v>48917</v>
@@ -2051,36 +2166,36 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K30" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="L30" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G31" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="H31">
         <v>60433</v>
@@ -2089,33 +2204,33 @@
         <v>9</v>
       </c>
       <c r="J31" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K31" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E32">
         <v>7201</v>
       </c>
       <c r="F32" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="G32" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="H32">
         <v>46809</v>
@@ -2124,36 +2239,36 @@
         <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K32" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="L32" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E33">
         <v>7201</v>
       </c>
       <c r="F33" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="G33" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="H33">
         <v>48917</v>
@@ -2162,36 +2277,36 @@
         <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K33" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="L33" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G34" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="H34">
         <v>60433</v>
@@ -2200,33 +2315,33 @@
         <v>9</v>
       </c>
       <c r="J34" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K34" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E35">
         <v>7201</v>
       </c>
       <c r="F35" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="G35" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="H35">
         <v>46809</v>
@@ -2235,36 +2350,36 @@
         <v>10</v>
       </c>
       <c r="J35" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K35" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="L35" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D36" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G36" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="H36">
         <v>60433</v>
@@ -2273,33 +2388,33 @@
         <v>9</v>
       </c>
       <c r="J36" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K36" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E37">
         <v>90220</v>
       </c>
       <c r="F37" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="G37" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="H37">
         <v>89044</v>
@@ -2308,36 +2423,36 @@
         <v>10</v>
       </c>
       <c r="J37" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K37" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="L37" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E38">
         <v>90220</v>
       </c>
       <c r="F38" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G38" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="H38">
         <v>85395</v>
@@ -2346,36 +2461,36 @@
         <v>9</v>
       </c>
       <c r="J38" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K38" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="L38" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G39" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="H39">
         <v>60433</v>
@@ -2384,33 +2499,33 @@
         <v>9</v>
       </c>
       <c r="J39" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K39" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D40" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G40" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="H40">
         <v>60433</v>
@@ -2419,33 +2534,33 @@
         <v>9</v>
       </c>
       <c r="J40" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K40" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E41">
         <v>7201</v>
       </c>
       <c r="F41" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G41" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="H41">
         <v>15672</v>
@@ -2454,33 +2569,33 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K41" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E42">
         <v>7201</v>
       </c>
       <c r="F42" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G42" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="H42">
         <v>15672</v>
@@ -2489,33 +2604,33 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K42" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E43">
         <v>7201</v>
       </c>
       <c r="F43" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G43" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="H43">
         <v>15672</v>
@@ -2524,33 +2639,33 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K43" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E44">
         <v>7201</v>
       </c>
       <c r="F44" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="G44" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="H44">
         <v>15672</v>
@@ -2559,36 +2674,36 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K44" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="L44" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D45" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E45">
         <v>7201</v>
       </c>
       <c r="F45" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="G45" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="H45">
         <v>15672</v>
@@ -2597,36 +2712,36 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K45" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="L45" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E46">
         <v>29483</v>
       </c>
       <c r="F46" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G46" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H46">
         <v>29330</v>
@@ -2635,36 +2750,36 @@
         <v>7</v>
       </c>
       <c r="J46" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K46" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="L46" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E47">
         <v>29483</v>
       </c>
       <c r="F47" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G47" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H47">
         <v>29330</v>
@@ -2673,36 +2788,36 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K47" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="L47" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D48" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E48">
         <v>29483</v>
       </c>
       <c r="F48" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G48" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H48">
         <v>29330</v>
@@ -2711,36 +2826,36 @@
         <v>5</v>
       </c>
       <c r="J48" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K48" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="L48" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D49" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E49">
         <v>29483</v>
       </c>
       <c r="F49" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G49" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H49">
         <v>29330</v>
@@ -2749,36 +2864,36 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K49" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="L49" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D50" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E50">
         <v>29483</v>
       </c>
       <c r="F50" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G50" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H50">
         <v>29330</v>
@@ -2787,36 +2902,36 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K50" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="L50" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D51" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E51">
         <v>7201</v>
       </c>
       <c r="F51" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="G51" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="H51">
         <v>15672</v>
@@ -2825,36 +2940,36 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K51" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="L51" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D52" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E52">
         <v>29483</v>
       </c>
       <c r="F52" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G52" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H52">
         <v>29330</v>
@@ -2863,36 +2978,36 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K52" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="L52" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D53" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E53">
         <v>29483</v>
       </c>
       <c r="F53" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G53" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H53">
         <v>29330</v>
@@ -2901,36 +3016,36 @@
         <v>9</v>
       </c>
       <c r="J53" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K53" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="L53" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D54" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E54">
         <v>7201</v>
       </c>
       <c r="F54" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="G54" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="H54">
         <v>15672</v>
@@ -2939,33 +3054,33 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K54" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D55" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E55">
         <v>7201</v>
       </c>
       <c r="F55" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G55" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="H55">
         <v>18202</v>
@@ -2974,36 +3089,36 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K55" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L55" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D56" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E56">
         <v>7201</v>
       </c>
       <c r="F56" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="G56" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="H56">
         <v>22406</v>
@@ -3012,36 +3127,36 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K56" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="L56" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C57" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D57" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E57">
         <v>90220</v>
       </c>
       <c r="F57" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G57" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="H57">
         <v>85043</v>
@@ -3050,36 +3165,36 @@
         <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K57" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="L57" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D58" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E58">
         <v>90220</v>
       </c>
       <c r="F58" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G58" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="H58">
         <v>85395</v>
@@ -3088,36 +3203,36 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K58" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="L58" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D59" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E59">
         <v>7201</v>
       </c>
       <c r="F59" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G59" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="H59">
         <v>18202</v>
@@ -3126,36 +3241,36 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K59" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L59" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D60" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E60">
         <v>7201</v>
       </c>
       <c r="F60" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="G60" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="H60">
         <v>22406</v>
@@ -3164,36 +3279,36 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K60" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="L60" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D61" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E61">
         <v>7201</v>
       </c>
       <c r="F61" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G61" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="H61">
         <v>18202</v>
@@ -3202,36 +3317,36 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K61" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L61" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D62" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E62">
         <v>7201</v>
       </c>
       <c r="F62" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="G62" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="H62">
         <v>22406</v>
@@ -3240,36 +3355,36 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K62" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="L62" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C63" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D63" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E63">
         <v>90220</v>
       </c>
       <c r="F63" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G63" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="H63">
         <v>75241</v>
@@ -3278,36 +3393,36 @@
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K63" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="L63" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C64" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D64" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E64">
         <v>90220</v>
       </c>
       <c r="F64" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G64" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="H64">
         <v>85043</v>
@@ -3316,36 +3431,36 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K64" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="L64" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C65" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D65" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E65">
         <v>90220</v>
       </c>
       <c r="F65" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G65" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="H65">
         <v>85395</v>
@@ -3354,36 +3469,36 @@
         <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K65" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="L65" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D66" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E66">
         <v>90220</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="G66" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="H66">
         <v>75241</v>
@@ -3392,36 +3507,36 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K66" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="L66" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C67" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D67" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E67">
         <v>7201</v>
       </c>
       <c r="F67" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="G67" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="H67">
         <v>18202</v>
@@ -3430,36 +3545,36 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K67" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L67" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C68" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D68" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E68">
         <v>7201</v>
       </c>
       <c r="F68" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="G68" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="H68">
         <v>22406</v>
@@ -3468,36 +3583,36 @@
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K68" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="L68" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C69" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D69" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E69">
         <v>29483</v>
       </c>
       <c r="F69" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="G69" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="H69">
         <v>30096</v>
@@ -3506,33 +3621,33 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K69" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B70" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C70" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D70" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E70">
         <v>29483</v>
       </c>
       <c r="F70" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="G70" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="H70">
         <v>30096</v>
@@ -3541,33 +3656,33 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K70" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B71" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C71" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D71" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E71">
         <v>90220</v>
       </c>
       <c r="F71" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="G71" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="H71">
         <v>91752</v>
@@ -3576,33 +3691,33 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K71" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B72" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C72" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D72" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E72">
         <v>7201</v>
       </c>
       <c r="F72" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="G72" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="H72">
         <v>21740</v>
@@ -3611,36 +3726,36 @@
         <v>5</v>
       </c>
       <c r="J72" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K72" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="L72" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B73" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C73" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D73" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E73">
         <v>29483</v>
       </c>
       <c r="F73" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="G73" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="H73">
         <v>38654</v>
@@ -3649,36 +3764,36 @@
         <v>6</v>
       </c>
       <c r="J73" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K73" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="L73" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C74" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D74" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E74">
         <v>7201</v>
       </c>
       <c r="F74" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="G74" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="H74">
         <v>18447</v>
@@ -3687,33 +3802,33 @@
         <v>18</v>
       </c>
       <c r="J74" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K74" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C75" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D75" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E75">
         <v>29483</v>
       </c>
       <c r="F75" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="G75" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H75">
         <v>28134</v>
@@ -3722,36 +3837,36 @@
         <v>4</v>
       </c>
       <c r="J75" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K75" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="L75" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C76" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D76" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E76">
         <v>29483</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="G76" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="H76">
         <v>30096</v>
@@ -3760,33 +3875,33 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K76" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C77" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D77" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E77">
         <v>29483</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="G77" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="H77">
         <v>30096</v>
@@ -3795,33 +3910,33 @@
         <v>16</v>
       </c>
       <c r="J77" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="K77" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B78" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C78" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D78" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E78">
         <v>7201</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="G78" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="H78">
         <v>15672</v>
@@ -3830,51 +3945,327 @@
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K78" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="L78" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C79" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D79" t="s">
-        <v>125</v>
-      </c>
-      <c r="E79" t="s">
-        <v>129</v>
+        <v>137</v>
+      </c>
+      <c r="E79">
+        <v>7201</v>
       </c>
       <c r="F79" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="G79" t="s">
-        <v>163</v>
-      </c>
-      <c r="H79" t="s">
-        <v>169</v>
+        <v>176</v>
+      </c>
+      <c r="H79">
+        <v>15672</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79" t="s">
+        <v>183</v>
+      </c>
+      <c r="K79" t="s">
+        <v>198</v>
+      </c>
+      <c r="L79" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80" t="s">
+        <v>124</v>
+      </c>
+      <c r="C80" t="s">
+        <v>130</v>
+      </c>
+      <c r="D80" t="s">
+        <v>136</v>
+      </c>
+      <c r="E80">
+        <v>29483</v>
+      </c>
+      <c r="F80" t="s">
+        <v>164</v>
+      </c>
+      <c r="G80" t="s">
+        <v>174</v>
+      </c>
+      <c r="H80">
+        <v>30096</v>
+      </c>
+      <c r="I80">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>184</v>
+      </c>
+      <c r="K80" t="s">
+        <v>192</v>
+      </c>
+      <c r="M80" t="s">
+        <v>219</v>
+      </c>
+      <c r="N80" t="s">
+        <v>225</v>
+      </c>
+      <c r="O80" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" t="s">
+        <v>125</v>
+      </c>
+      <c r="C81" t="s">
+        <v>134</v>
+      </c>
+      <c r="D81" t="s">
+        <v>137</v>
+      </c>
+      <c r="E81">
+        <v>7201</v>
+      </c>
+      <c r="F81" t="s">
         <v>170</v>
       </c>
-      <c r="K79" t="s">
-        <v>185</v>
-      </c>
-      <c r="L79" t="s">
-        <v>200</v>
+      <c r="G81" t="s">
+        <v>176</v>
+      </c>
+      <c r="H81">
+        <v>17057</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>183</v>
+      </c>
+      <c r="K81" t="s">
+        <v>213</v>
+      </c>
+      <c r="L81" t="s">
+        <v>217</v>
+      </c>
+      <c r="M81" t="s">
+        <v>220</v>
+      </c>
+      <c r="N81" t="s">
+        <v>226</v>
+      </c>
+      <c r="O81" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82" t="s">
+        <v>130</v>
+      </c>
+      <c r="D82" t="s">
+        <v>136</v>
+      </c>
+      <c r="E82">
+        <v>29483</v>
+      </c>
+      <c r="F82" t="s">
+        <v>153</v>
+      </c>
+      <c r="G82" t="s">
+        <v>136</v>
+      </c>
+      <c r="H82">
+        <v>29330</v>
+      </c>
+      <c r="I82">
+        <v>3</v>
+      </c>
+      <c r="J82" t="s">
+        <v>183</v>
+      </c>
+      <c r="K82" t="s">
+        <v>214</v>
+      </c>
+      <c r="L82" t="s">
+        <v>217</v>
+      </c>
+      <c r="M82" t="s">
+        <v>221</v>
+      </c>
+      <c r="N82" t="s">
+        <v>227</v>
+      </c>
+      <c r="O82" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" t="s">
+        <v>127</v>
+      </c>
+      <c r="C83" t="s">
+        <v>131</v>
+      </c>
+      <c r="D83" t="s">
+        <v>137</v>
+      </c>
+      <c r="E83">
+        <v>7201</v>
+      </c>
+      <c r="F83" t="s">
+        <v>162</v>
+      </c>
+      <c r="G83" t="s">
+        <v>176</v>
+      </c>
+      <c r="H83">
+        <v>15672</v>
+      </c>
+      <c r="I83">
+        <v>4</v>
+      </c>
+      <c r="J83" t="s">
+        <v>183</v>
+      </c>
+      <c r="K83" t="s">
+        <v>215</v>
+      </c>
+      <c r="L83" t="s">
+        <v>218</v>
+      </c>
+      <c r="M83" t="s">
+        <v>222</v>
+      </c>
+      <c r="N83" t="s">
+        <v>228</v>
+      </c>
+      <c r="O83" s="2">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" t="s">
+        <v>130</v>
+      </c>
+      <c r="D84" t="s">
+        <v>136</v>
+      </c>
+      <c r="E84">
+        <v>29483</v>
+      </c>
+      <c r="F84" t="s">
+        <v>167</v>
+      </c>
+      <c r="G84" t="s">
+        <v>181</v>
+      </c>
+      <c r="H84">
+        <v>38654</v>
+      </c>
+      <c r="I84">
+        <v>6</v>
+      </c>
+      <c r="J84" t="s">
+        <v>183</v>
+      </c>
+      <c r="K84" t="s">
+        <v>216</v>
+      </c>
+      <c r="L84" t="s">
+        <v>217</v>
+      </c>
+      <c r="M84" t="s">
+        <v>223</v>
+      </c>
+      <c r="N84" t="s">
+        <v>229</v>
+      </c>
+      <c r="O84" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" t="s">
+        <v>129</v>
+      </c>
+      <c r="C85" t="s">
+        <v>134</v>
+      </c>
+      <c r="D85" t="s">
+        <v>137</v>
+      </c>
+      <c r="E85" t="s">
+        <v>141</v>
+      </c>
+      <c r="F85" t="s">
+        <v>168</v>
+      </c>
+      <c r="G85" t="s">
+        <v>176</v>
+      </c>
+      <c r="H85" t="s">
+        <v>182</v>
+      </c>
+      <c r="I85">
+        <v>18</v>
+      </c>
+      <c r="J85" t="s">
+        <v>184</v>
+      </c>
+      <c r="K85" t="s">
+        <v>192</v>
+      </c>
+      <c r="M85" t="s">
+        <v>224</v>
+      </c>
+      <c r="N85" t="s">
+        <v>230</v>
+      </c>
+      <c r="O85" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/heyprimo_api_tracking.xlsx
+++ b/Logs/heyprimo_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="322">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -154,6 +154,45 @@
     <t>CMM0878LCL0003</t>
   </si>
   <si>
+    <t>CMM0800LCL0076</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0077</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0078</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0009</t>
+  </si>
+  <si>
+    <t>CMM0741LCL0014</t>
+  </si>
+  <si>
+    <t>CMM0741LCL0015</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0012</t>
+  </si>
+  <si>
+    <t>CMM0014LCL0006</t>
+  </si>
+  <si>
+    <t>CMM0923LCL0001</t>
+  </si>
+  <si>
+    <t>CMM0657LCL0128</t>
+  </si>
+  <si>
+    <t>CMM0014LCL0007</t>
+  </si>
+  <si>
+    <t>CMM0914LCL0002</t>
+  </si>
+  <si>
+    <t>CMM0868LCL0007</t>
+  </si>
+  <si>
     <t>2025-08-14 15:19:49</t>
   </si>
   <si>
@@ -406,6 +445,75 @@
     <t>2025-09-02 07:16:49</t>
   </si>
   <si>
+    <t>2025-09-03 08:36:20</t>
+  </si>
+  <si>
+    <t>2025-09-03 08:37:00</t>
+  </si>
+  <si>
+    <t>2025-09-03 10:51:22</t>
+  </si>
+  <si>
+    <t>2025-09-03 10:52:01</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:09:11</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:09:34</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:09:54</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:14:38</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:15:00</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:15:20</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:17:31</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:17:58</t>
+  </si>
+  <si>
+    <t>2025-09-03 11:42:33</t>
+  </si>
+  <si>
+    <t>2025-09-04 12:55:25</t>
+  </si>
+  <si>
+    <t>2025-09-04 13:38:03</t>
+  </si>
+  <si>
+    <t>2025-09-04 15:39:24</t>
+  </si>
+  <si>
+    <t>2025-09-05 09:06:02</t>
+  </si>
+  <si>
+    <t>2025-09-05 11:38:48</t>
+  </si>
+  <si>
+    <t>2025-09-06 13:35:37</t>
+  </si>
+  <si>
+    <t>2025-09-09 17:08:41</t>
+  </si>
+  <si>
+    <t>2025-09-11 11:07:39</t>
+  </si>
+  <si>
+    <t>2025-09-12 16:01:26</t>
+  </si>
+  <si>
+    <t>2025-09-18 02:53:08</t>
+  </si>
+  <si>
     <t>CHARLESTON</t>
   </si>
   <si>
@@ -529,6 +637,18 @@
     <t>MIDDLETOWN</t>
   </si>
   <si>
+    <t>STOCKTON</t>
+  </si>
+  <si>
+    <t>MEMPHIS</t>
+  </si>
+  <si>
+    <t>BREINIGSVILLE</t>
+  </si>
+  <si>
+    <t>Florence</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
@@ -562,7 +682,10 @@
     <t>MS</t>
   </si>
   <si>
-    <t>18447</t>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>15672</t>
   </si>
   <si>
     <t>Success</t>
@@ -667,6 +790,48 @@
     <t>Rate: 1173.88, Carrier: Estes Express Lines VL</t>
   </si>
   <si>
+    <t>Rate: 309.61, Carrier: Estes Express Lines</t>
+  </si>
+  <si>
+    <t>Rate: 235.0, Carrier: Estes Express Lines</t>
+  </si>
+  <si>
+    <t>Rate: 1210.1, Carrier: Estes Express Lines VL</t>
+  </si>
+  <si>
+    <t>Rate: 855.2, Carrier: Estes Express Lines VL</t>
+  </si>
+  <si>
+    <t>Rate: 796.12, Carrier: Estes Express Lines VL</t>
+  </si>
+  <si>
+    <t>Rate: 820.15, Carrier: Estes Express Lines VL</t>
+  </si>
+  <si>
+    <t>Rate: 633.41, Carrier: Estes Express Lines VL</t>
+  </si>
+  <si>
+    <t>Rate: 313.22, Carrier: Estes Express Lines</t>
+  </si>
+  <si>
+    <t>Rate: 322.62, Carrier: Estes Express Lines VL</t>
+  </si>
+  <si>
+    <t>Rate: 533.95, Carrier: ABF Freight System VL</t>
+  </si>
+  <si>
+    <t>Rate: 323.56, Carrier: Estes Express Lines VL</t>
+  </si>
+  <si>
+    <t>Rate: 226.67, Carrier: ABF Density</t>
+  </si>
+  <si>
+    <t>Rate: 228.17, Carrier: ABF Density</t>
+  </si>
+  <si>
+    <t>Rate: 389.8, Carrier: ABF Freight System</t>
+  </si>
+  <si>
     <t>API</t>
   </si>
   <si>
@@ -691,6 +856,54 @@
     <t>CMM0077LCL0002_20250902071644</t>
   </si>
   <si>
+    <t>CMM0246LCL0039_20250903083608</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0076_20250903105110</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0077_20250903110900</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0077_20250903111427</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0077_20250903111730</t>
+  </si>
+  <si>
+    <t>CMM0800LCL0078_20250903114223</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0009_20250904125511</t>
+  </si>
+  <si>
+    <t>CMM0741LCL0014_20250904133750</t>
+  </si>
+  <si>
+    <t>CMM0741LCL0015_20250904153923</t>
+  </si>
+  <si>
+    <t>CMM0637LCL0012_20250905090547</t>
+  </si>
+  <si>
+    <t>CMM0014LCL0006_20250905113833</t>
+  </si>
+  <si>
+    <t>CMM0923LCL0001_20250906133522</t>
+  </si>
+  <si>
+    <t>CMM0657LCL0128_20250909170828</t>
+  </si>
+  <si>
+    <t>CMM0014LCL0007_20250911110739</t>
+  </si>
+  <si>
+    <t>CMM0914LCL0002_20250912160116</t>
+  </si>
+  <si>
+    <t>CMM0868LCL0007_20250918025308</t>
+  </si>
+  <si>
     <t>ATL9</t>
   </si>
   <si>
@@ -709,6 +922,36 @@
     <t>WBW2</t>
   </si>
   <si>
+    <t>AGS2</t>
+  </si>
+  <si>
+    <t>TEB9</t>
+  </si>
+  <si>
+    <t>FTW1</t>
+  </si>
+  <si>
+    <t>SMF3</t>
+  </si>
+  <si>
+    <t>MEM1</t>
+  </si>
+  <si>
+    <t>FWA4</t>
+  </si>
+  <si>
+    <t>LAN2</t>
+  </si>
+  <si>
+    <t>HEA2</t>
+  </si>
+  <si>
+    <t>RDU4</t>
+  </si>
+  <si>
+    <t>ABE8</t>
+  </si>
+  <si>
     <t>28-08-2025</t>
   </si>
   <si>
@@ -719,6 +962,24 @@
   </si>
   <si>
     <t>02-09-2025</t>
+  </si>
+  <si>
+    <t>03-09-2025</t>
+  </si>
+  <si>
+    <t>04-09-2025</t>
+  </si>
+  <si>
+    <t>05-09-2025</t>
+  </si>
+  <si>
+    <t>06-09-2025</t>
+  </si>
+  <si>
+    <t>09-09-2025</t>
+  </si>
+  <si>
+    <t>12-09-2025</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1138,22 +1399,22 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E2">
         <v>29483</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="G2" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="H2">
         <v>28303</v>
@@ -1162,13 +1423,13 @@
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K2" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="L2" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1176,22 +1437,22 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E3">
         <v>7201</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="G3" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="H3">
         <v>46140</v>
@@ -1200,13 +1461,13 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K3" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="L3" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1214,22 +1475,22 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="E4">
         <v>90220</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="G4" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="H4">
         <v>75241</v>
@@ -1238,13 +1499,13 @@
         <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K4" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="L4" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1252,22 +1513,22 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="E5">
         <v>90220</v>
       </c>
       <c r="F5" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="G5" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="H5">
         <v>85395</v>
@@ -1276,13 +1537,13 @@
         <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K5" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="L5" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1290,22 +1551,22 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="E6">
         <v>90220</v>
       </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="G6" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="H6">
         <v>85043</v>
@@ -1314,13 +1575,13 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K6" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="L6" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1328,22 +1589,22 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E7">
         <v>29483</v>
       </c>
       <c r="F7" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="G7" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="H7">
         <v>30567</v>
@@ -1352,13 +1613,13 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K7" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="L7" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1366,22 +1627,22 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E8">
         <v>7201</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="G8" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="H8">
         <v>8873</v>
@@ -1390,13 +1651,13 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K8" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="L8" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1404,22 +1665,22 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="D9" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="E9">
         <v>77020</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="G9" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="H9">
         <v>75007</v>
@@ -1428,10 +1689,10 @@
         <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K9" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1439,22 +1700,22 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E10">
         <v>7201</v>
       </c>
       <c r="F10" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="G10" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="H10">
         <v>18105</v>
@@ -1463,10 +1724,10 @@
         <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K10" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1474,22 +1735,22 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E11">
         <v>7201</v>
       </c>
       <c r="F11" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="G11" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="H11">
         <v>17112</v>
@@ -1498,10 +1759,10 @@
         <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K11" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1509,22 +1770,22 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E12">
         <v>7201</v>
       </c>
       <c r="F12" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="G12" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="H12">
         <v>18202</v>
@@ -1533,13 +1794,13 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K12" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="L12" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1547,22 +1808,22 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="E13">
         <v>77020</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="G13" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="H13">
         <v>75007</v>
@@ -1571,10 +1832,10 @@
         <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K13" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1582,22 +1843,22 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E14">
         <v>7201</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="G14" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="H14">
         <v>18105</v>
@@ -1606,10 +1867,10 @@
         <v>100</v>
       </c>
       <c r="J14" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K14" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1617,22 +1878,22 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E15">
         <v>7201</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="G15" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="H15">
         <v>17112</v>
@@ -1641,10 +1902,10 @@
         <v>100</v>
       </c>
       <c r="J15" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K15" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1652,22 +1913,22 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D16" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E16">
         <v>29483</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="G16" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="H16">
         <v>29330</v>
@@ -1676,10 +1937,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K16" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1687,22 +1948,22 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D17" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E17">
         <v>29483</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="G17" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="H17">
         <v>29330</v>
@@ -1711,10 +1972,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K17" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1722,22 +1983,22 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E18">
         <v>29483</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="G18" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="H18">
         <v>29330</v>
@@ -1746,10 +2007,10 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K18" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1757,22 +2018,22 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E19">
         <v>7201</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="G19" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="H19">
         <v>46410</v>
@@ -1781,10 +2042,10 @@
         <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K19" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1792,22 +2053,22 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E20">
         <v>29483</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="G20" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="H20">
         <v>29330</v>
@@ -1816,10 +2077,10 @@
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K20" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1827,22 +2088,22 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E21">
         <v>7201</v>
       </c>
       <c r="F21" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="G21" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="H21">
         <v>46410</v>
@@ -1851,10 +2112,10 @@
         <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K21" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1862,22 +2123,22 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E22">
         <v>7201</v>
       </c>
       <c r="F22" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="G22" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="H22">
         <v>46410</v>
@@ -1886,10 +2147,10 @@
         <v>19</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K22" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1897,22 +2158,22 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E23">
         <v>7201</v>
       </c>
       <c r="F23" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="G23" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="H23">
         <v>48917</v>
@@ -1921,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1932,22 +2193,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="G24" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="H24">
         <v>60433</v>
@@ -1956,10 +2217,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K24" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1967,22 +2228,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E25">
         <v>7201</v>
       </c>
       <c r="F25" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="G25" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="H25">
         <v>46809</v>
@@ -1991,10 +2252,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K25" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2002,22 +2263,22 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E26">
         <v>7201</v>
       </c>
       <c r="F26" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="G26" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="H26">
         <v>48917</v>
@@ -2026,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K26" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2037,22 +2298,22 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="G27" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="H27">
         <v>60433</v>
@@ -2061,10 +2322,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K27" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2072,22 +2333,22 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E28">
         <v>7201</v>
       </c>
       <c r="F28" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="G28" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="H28">
         <v>46809</v>
@@ -2096,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K28" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2107,22 +2368,22 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="G29" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="H29">
         <v>60433</v>
@@ -2131,10 +2392,10 @@
         <v>9</v>
       </c>
       <c r="J29" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K29" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2142,22 +2403,22 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E30">
         <v>7201</v>
       </c>
       <c r="F30" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="G30" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="H30">
         <v>48917</v>
@@ -2166,13 +2427,13 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K30" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="L30" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2180,22 +2441,22 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="G31" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="H31">
         <v>60433</v>
@@ -2204,10 +2465,10 @@
         <v>9</v>
       </c>
       <c r="J31" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K31" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2215,22 +2476,22 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="D32" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E32">
         <v>7201</v>
       </c>
       <c r="F32" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="G32" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="H32">
         <v>46809</v>
@@ -2239,13 +2500,13 @@
         <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K32" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="L32" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2253,22 +2514,22 @@
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="D33" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E33">
         <v>7201</v>
       </c>
       <c r="F33" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="G33" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="H33">
         <v>48917</v>
@@ -2277,13 +2538,13 @@
         <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K33" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="L33" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2291,22 +2552,22 @@
         <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="G34" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="H34">
         <v>60433</v>
@@ -2315,10 +2576,10 @@
         <v>9</v>
       </c>
       <c r="J34" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K34" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2326,22 +2587,22 @@
         <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="D35" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E35">
         <v>7201</v>
       </c>
       <c r="F35" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="G35" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="H35">
         <v>46809</v>
@@ -2350,13 +2611,13 @@
         <v>10</v>
       </c>
       <c r="J35" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K35" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="L35" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2364,22 +2625,22 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="D36" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="G36" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="H36">
         <v>60433</v>
@@ -2388,10 +2649,10 @@
         <v>9</v>
       </c>
       <c r="J36" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K36" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2399,22 +2660,22 @@
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="E37">
         <v>90220</v>
       </c>
       <c r="F37" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="G37" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H37">
         <v>89044</v>
@@ -2423,13 +2684,13 @@
         <v>10</v>
       </c>
       <c r="J37" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K37" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="L37" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2437,22 +2698,22 @@
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="D38" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="E38">
         <v>90220</v>
       </c>
       <c r="F38" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="G38" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="H38">
         <v>85395</v>
@@ -2461,13 +2722,13 @@
         <v>9</v>
       </c>
       <c r="J38" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K38" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="L38" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2475,22 +2736,22 @@
         <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="D39" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="G39" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="H39">
         <v>60433</v>
@@ -2499,10 +2760,10 @@
         <v>9</v>
       </c>
       <c r="J39" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K39" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2510,22 +2771,22 @@
         <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="G40" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="H40">
         <v>60433</v>
@@ -2534,10 +2795,10 @@
         <v>9</v>
       </c>
       <c r="J40" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K40" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2545,22 +2806,22 @@
         <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D41" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E41">
         <v>7201</v>
       </c>
       <c r="F41" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="G41" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="H41">
         <v>15672</v>
@@ -2569,10 +2830,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K41" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2580,22 +2841,22 @@
         <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D42" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E42">
         <v>7201</v>
       </c>
       <c r="F42" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="G42" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="H42">
         <v>15672</v>
@@ -2604,10 +2865,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K42" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2615,22 +2876,22 @@
         <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E43">
         <v>7201</v>
       </c>
       <c r="F43" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="G43" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="H43">
         <v>15672</v>
@@ -2639,10 +2900,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K43" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2650,22 +2911,22 @@
         <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E44">
         <v>7201</v>
       </c>
       <c r="F44" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="G44" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="H44">
         <v>15672</v>
@@ -2674,13 +2935,13 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K44" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="L44" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2688,22 +2949,22 @@
         <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C45" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E45">
         <v>7201</v>
       </c>
       <c r="F45" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="G45" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="H45">
         <v>15672</v>
@@ -2712,13 +2973,13 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K45" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="L45" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2726,22 +2987,22 @@
         <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E46">
         <v>29483</v>
       </c>
       <c r="F46" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="G46" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="H46">
         <v>29330</v>
@@ -2750,13 +3011,13 @@
         <v>7</v>
       </c>
       <c r="J46" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K46" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="L46" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2764,22 +3025,22 @@
         <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E47">
         <v>29483</v>
       </c>
       <c r="F47" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="G47" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="H47">
         <v>29330</v>
@@ -2788,13 +3049,13 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K47" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="L47" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2802,22 +3063,22 @@
         <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E48">
         <v>29483</v>
       </c>
       <c r="F48" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="G48" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="H48">
         <v>29330</v>
@@ -2826,13 +3087,13 @@
         <v>5</v>
       </c>
       <c r="J48" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K48" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="L48" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2840,22 +3101,22 @@
         <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D49" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E49">
         <v>29483</v>
       </c>
       <c r="F49" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="G49" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="H49">
         <v>29330</v>
@@ -2864,13 +3125,13 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K49" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="L49" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2878,22 +3139,22 @@
         <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E50">
         <v>29483</v>
       </c>
       <c r="F50" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="G50" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="H50">
         <v>29330</v>
@@ -2902,13 +3163,13 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K50" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="L50" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2916,22 +3177,22 @@
         <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E51">
         <v>7201</v>
       </c>
       <c r="F51" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="G51" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="H51">
         <v>15672</v>
@@ -2940,13 +3201,13 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K51" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="L51" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2954,22 +3215,22 @@
         <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D52" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E52">
         <v>29483</v>
       </c>
       <c r="F52" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="G52" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="H52">
         <v>29330</v>
@@ -2978,13 +3239,13 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K52" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="L52" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2992,22 +3253,22 @@
         <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D53" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E53">
         <v>29483</v>
       </c>
       <c r="F53" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="G53" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="H53">
         <v>29330</v>
@@ -3016,13 +3277,13 @@
         <v>9</v>
       </c>
       <c r="J53" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K53" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="L53" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3030,22 +3291,22 @@
         <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C54" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D54" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E54">
         <v>7201</v>
       </c>
       <c r="F54" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="G54" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="H54">
         <v>15672</v>
@@ -3054,10 +3315,10 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K54" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3065,22 +3326,22 @@
         <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="D55" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E55">
         <v>7201</v>
       </c>
       <c r="F55" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="G55" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="H55">
         <v>18202</v>
@@ -3089,13 +3350,13 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K55" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="L55" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3103,22 +3364,22 @@
         <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C56" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D56" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E56">
         <v>7201</v>
       </c>
       <c r="F56" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="G56" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="H56">
         <v>22406</v>
@@ -3127,13 +3388,13 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K56" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="L56" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3141,22 +3402,22 @@
         <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="D57" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="E57">
         <v>90220</v>
       </c>
       <c r="F57" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="G57" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="H57">
         <v>85043</v>
@@ -3165,13 +3426,13 @@
         <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K57" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="L57" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3179,22 +3440,22 @@
         <v>34</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C58" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="D58" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="E58">
         <v>90220</v>
       </c>
       <c r="F58" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="G58" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="H58">
         <v>85395</v>
@@ -3203,13 +3464,13 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K58" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="L58" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3217,22 +3478,22 @@
         <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="D59" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E59">
         <v>7201</v>
       </c>
       <c r="F59" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="G59" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="H59">
         <v>18202</v>
@@ -3241,13 +3502,13 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K59" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="L59" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3255,22 +3516,22 @@
         <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C60" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D60" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E60">
         <v>7201</v>
       </c>
       <c r="F60" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="G60" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="H60">
         <v>22406</v>
@@ -3279,13 +3540,13 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K60" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="L60" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3293,22 +3554,22 @@
         <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="D61" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E61">
         <v>7201</v>
       </c>
       <c r="F61" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="G61" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="H61">
         <v>18202</v>
@@ -3317,13 +3578,13 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K61" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="L61" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3331,22 +3592,22 @@
         <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D62" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E62">
         <v>7201</v>
       </c>
       <c r="F62" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="G62" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="H62">
         <v>22406</v>
@@ -3355,13 +3616,13 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K62" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="L62" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3369,22 +3630,22 @@
         <v>33</v>
       </c>
       <c r="B63" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C63" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="D63" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="E63">
         <v>90220</v>
       </c>
       <c r="F63" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="G63" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="H63">
         <v>75241</v>
@@ -3393,13 +3654,13 @@
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K63" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="L63" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3407,22 +3668,22 @@
         <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C64" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="D64" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="E64">
         <v>90220</v>
       </c>
       <c r="F64" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="G64" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="H64">
         <v>85043</v>
@@ -3431,13 +3692,13 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K64" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="L64" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3445,22 +3706,22 @@
         <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="D65" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="E65">
         <v>90220</v>
       </c>
       <c r="F65" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="G65" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="H65">
         <v>85395</v>
@@ -3469,13 +3730,13 @@
         <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K65" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="L65" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3483,22 +3744,22 @@
         <v>34</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C66" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="D66" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="E66">
         <v>90220</v>
       </c>
       <c r="F66" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="G66" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="H66">
         <v>75241</v>
@@ -3507,13 +3768,13 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K66" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="L66" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3521,22 +3782,22 @@
         <v>33</v>
       </c>
       <c r="B67" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="D67" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E67">
         <v>7201</v>
       </c>
       <c r="F67" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="G67" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="H67">
         <v>18202</v>
@@ -3545,13 +3806,13 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K67" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="L67" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -3559,22 +3820,22 @@
         <v>33</v>
       </c>
       <c r="B68" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C68" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D68" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E68">
         <v>7201</v>
       </c>
       <c r="F68" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="G68" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="H68">
         <v>22406</v>
@@ -3583,13 +3844,13 @@
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K68" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="L68" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -3597,22 +3858,22 @@
         <v>35</v>
       </c>
       <c r="B69" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C69" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D69" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E69">
         <v>29483</v>
       </c>
       <c r="F69" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="G69" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="H69">
         <v>30096</v>
@@ -3621,10 +3882,10 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K69" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -3632,22 +3893,22 @@
         <v>35</v>
       </c>
       <c r="B70" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C70" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D70" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E70">
         <v>29483</v>
       </c>
       <c r="F70" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="G70" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="H70">
         <v>30096</v>
@@ -3656,10 +3917,10 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K70" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -3667,22 +3928,22 @@
         <v>36</v>
       </c>
       <c r="B71" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="D71" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="E71">
         <v>90220</v>
       </c>
       <c r="F71" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="G71" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="H71">
         <v>91752</v>
@@ -3691,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K71" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -3702,22 +3963,22 @@
         <v>37</v>
       </c>
       <c r="B72" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C72" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D72" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E72">
         <v>7201</v>
       </c>
       <c r="F72" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="G72" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="H72">
         <v>21740</v>
@@ -3726,13 +3987,13 @@
         <v>5</v>
       </c>
       <c r="J72" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K72" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="L72" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -3740,22 +4001,22 @@
         <v>38</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C73" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D73" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E73">
         <v>29483</v>
       </c>
       <c r="F73" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="G73" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="H73">
         <v>38654</v>
@@ -3764,13 +4025,13 @@
         <v>6</v>
       </c>
       <c r="J73" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K73" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="L73" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -3778,22 +4039,22 @@
         <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C74" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D74" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E74">
         <v>7201</v>
       </c>
       <c r="F74" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="G74" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="H74">
         <v>18447</v>
@@ -3802,10 +4063,10 @@
         <v>18</v>
       </c>
       <c r="J74" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K74" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -3813,22 +4074,22 @@
         <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C75" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D75" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E75">
         <v>29483</v>
       </c>
       <c r="F75" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="G75" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="H75">
         <v>28134</v>
@@ -3837,13 +4098,13 @@
         <v>4</v>
       </c>
       <c r="J75" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K75" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="L75" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -3851,22 +4112,22 @@
         <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C76" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D76" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E76">
         <v>29483</v>
       </c>
       <c r="F76" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="G76" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="H76">
         <v>30096</v>
@@ -3875,10 +4136,10 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K76" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -3886,22 +4147,22 @@
         <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C77" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D77" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E77">
         <v>29483</v>
       </c>
       <c r="F77" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="G77" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="H77">
         <v>30096</v>
@@ -3910,10 +4171,10 @@
         <v>16</v>
       </c>
       <c r="J77" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K77" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -3921,22 +4182,22 @@
         <v>41</v>
       </c>
       <c r="B78" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C78" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="D78" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E78">
         <v>7201</v>
       </c>
       <c r="F78" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="G78" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="H78">
         <v>15672</v>
@@ -3945,13 +4206,13 @@
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K78" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="L78" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -3959,22 +4220,22 @@
         <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C79" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="D79" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E79">
         <v>7201</v>
       </c>
       <c r="F79" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="G79" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="H79">
         <v>15672</v>
@@ -3983,13 +4244,13 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K79" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="L79" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -3997,22 +4258,22 @@
         <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C80" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D80" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E80">
         <v>29483</v>
       </c>
       <c r="F80" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="G80" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="H80">
         <v>30096</v>
@@ -4021,19 +4282,19 @@
         <v>16</v>
       </c>
       <c r="J80" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
       <c r="K80" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="M80" t="s">
-        <v>219</v>
+        <v>274</v>
       </c>
       <c r="N80" t="s">
-        <v>225</v>
+        <v>296</v>
       </c>
       <c r="O80" t="s">
-        <v>231</v>
+        <v>312</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4041,22 +4302,22 @@
         <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C81" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D81" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E81">
         <v>7201</v>
       </c>
       <c r="F81" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="G81" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="H81">
         <v>17057</v>
@@ -4065,22 +4326,22 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K81" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="L81" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
       <c r="M81" t="s">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="N81" t="s">
-        <v>226</v>
+        <v>297</v>
       </c>
       <c r="O81" t="s">
-        <v>232</v>
+        <v>313</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4088,22 +4349,22 @@
         <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C82" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D82" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E82">
         <v>29483</v>
       </c>
       <c r="F82" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="G82" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="H82">
         <v>29330</v>
@@ -4112,22 +4373,22 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K82" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="L82" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
       <c r="M82" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="N82" t="s">
-        <v>227</v>
+        <v>298</v>
       </c>
       <c r="O82" t="s">
-        <v>233</v>
+        <v>314</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4135,22 +4396,22 @@
         <v>45</v>
       </c>
       <c r="B83" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C83" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="D83" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="E83">
         <v>7201</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="G83" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="H83">
         <v>15672</v>
@@ -4159,19 +4420,19 @@
         <v>4</v>
       </c>
       <c r="J83" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K83" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="L83" t="s">
-        <v>218</v>
+        <v>273</v>
       </c>
       <c r="M83" t="s">
-        <v>222</v>
+        <v>277</v>
       </c>
       <c r="N83" t="s">
-        <v>228</v>
+        <v>299</v>
       </c>
       <c r="O83" s="2">
         <v>45897</v>
@@ -4182,22 +4443,22 @@
         <v>38</v>
       </c>
       <c r="B84" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C84" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="D84" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E84">
         <v>29483</v>
       </c>
       <c r="F84" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="G84" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="H84">
         <v>38654</v>
@@ -4206,22 +4467,22 @@
         <v>6</v>
       </c>
       <c r="J84" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="K84" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="L84" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
       <c r="M84" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="N84" t="s">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="O84" t="s">
-        <v>234</v>
+        <v>315</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4229,43 +4490,1124 @@
         <v>39</v>
       </c>
       <c r="B85" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C85" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="D85" t="s">
-        <v>137</v>
-      </c>
-      <c r="E85" t="s">
-        <v>141</v>
+        <v>173</v>
+      </c>
+      <c r="E85">
+        <v>7201</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="G85" t="s">
-        <v>176</v>
-      </c>
-      <c r="H85" t="s">
-        <v>182</v>
+        <v>216</v>
+      </c>
+      <c r="H85">
+        <v>18447</v>
       </c>
       <c r="I85">
         <v>18</v>
       </c>
       <c r="J85" t="s">
+        <v>225</v>
+      </c>
+      <c r="K85" t="s">
+        <v>233</v>
+      </c>
+      <c r="M85" t="s">
+        <v>279</v>
+      </c>
+      <c r="N85" t="s">
+        <v>301</v>
+      </c>
+      <c r="O85" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>143</v>
+      </c>
+      <c r="C86" t="s">
+        <v>166</v>
+      </c>
+      <c r="D86" t="s">
+        <v>172</v>
+      </c>
+      <c r="E86">
+        <v>29483</v>
+      </c>
+      <c r="F86" t="s">
+        <v>183</v>
+      </c>
+      <c r="G86" t="s">
+        <v>214</v>
+      </c>
+      <c r="H86">
+        <v>30567</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" t="s">
+        <v>224</v>
+      </c>
+      <c r="K86" t="s">
+        <v>258</v>
+      </c>
+      <c r="L86" t="s">
+        <v>272</v>
+      </c>
+      <c r="M86" t="s">
+        <v>280</v>
+      </c>
+      <c r="N86" t="s">
+        <v>302</v>
+      </c>
+      <c r="O86" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87" t="s">
+        <v>167</v>
+      </c>
+      <c r="D87" t="s">
+        <v>173</v>
+      </c>
+      <c r="E87">
+        <v>7201</v>
+      </c>
+      <c r="F87" t="s">
         <v>184</v>
       </c>
-      <c r="K85" t="s">
-        <v>192</v>
-      </c>
-      <c r="M85" t="s">
-        <v>224</v>
-      </c>
-      <c r="N85" t="s">
-        <v>230</v>
-      </c>
-      <c r="O85" t="s">
-        <v>234</v>
+      <c r="G87" t="s">
+        <v>215</v>
+      </c>
+      <c r="H87">
+        <v>8873</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" t="s">
+        <v>224</v>
+      </c>
+      <c r="K87" t="s">
+        <v>259</v>
+      </c>
+      <c r="L87" t="s">
+        <v>273</v>
+      </c>
+      <c r="M87" t="s">
+        <v>280</v>
+      </c>
+      <c r="N87" t="s">
+        <v>303</v>
+      </c>
+      <c r="O87" s="2">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" t="s">
+        <v>168</v>
+      </c>
+      <c r="D88" t="s">
+        <v>174</v>
+      </c>
+      <c r="E88">
+        <v>90220</v>
+      </c>
+      <c r="F88" t="s">
+        <v>180</v>
+      </c>
+      <c r="G88" t="s">
+        <v>175</v>
+      </c>
+      <c r="H88">
+        <v>75241</v>
+      </c>
+      <c r="I88">
+        <v>4</v>
+      </c>
+      <c r="J88" t="s">
+        <v>224</v>
+      </c>
+      <c r="K88" t="s">
+        <v>260</v>
+      </c>
+      <c r="L88" t="s">
+        <v>272</v>
+      </c>
+      <c r="M88" t="s">
+        <v>281</v>
+      </c>
+      <c r="N88" t="s">
+        <v>304</v>
+      </c>
+      <c r="O88" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89" t="s">
+        <v>146</v>
+      </c>
+      <c r="C89" t="s">
+        <v>168</v>
+      </c>
+      <c r="D89" t="s">
+        <v>174</v>
+      </c>
+      <c r="E89">
+        <v>90220</v>
+      </c>
+      <c r="F89" t="s">
+        <v>207</v>
+      </c>
+      <c r="G89" t="s">
+        <v>174</v>
+      </c>
+      <c r="H89">
+        <v>95206</v>
+      </c>
+      <c r="I89">
+        <v>5</v>
+      </c>
+      <c r="J89" t="s">
+        <v>224</v>
+      </c>
+      <c r="K89" t="s">
+        <v>261</v>
+      </c>
+      <c r="L89" t="s">
+        <v>272</v>
+      </c>
+      <c r="M89" t="s">
+        <v>281</v>
+      </c>
+      <c r="N89" t="s">
+        <v>305</v>
+      </c>
+      <c r="O89" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" t="s">
+        <v>147</v>
+      </c>
+      <c r="C90" t="s">
+        <v>166</v>
+      </c>
+      <c r="D90" t="s">
+        <v>172</v>
+      </c>
+      <c r="E90">
+        <v>29483</v>
+      </c>
+      <c r="F90" t="s">
+        <v>208</v>
+      </c>
+      <c r="G90" t="s">
+        <v>222</v>
+      </c>
+      <c r="H90">
+        <v>38118</v>
+      </c>
+      <c r="I90">
+        <v>4</v>
+      </c>
+      <c r="J90" t="s">
+        <v>224</v>
+      </c>
+      <c r="K90" t="s">
+        <v>262</v>
+      </c>
+      <c r="L90" t="s">
+        <v>272</v>
+      </c>
+      <c r="M90" t="s">
+        <v>282</v>
+      </c>
+      <c r="N90" t="s">
+        <v>306</v>
+      </c>
+      <c r="O90" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91" t="s">
+        <v>167</v>
+      </c>
+      <c r="D91" t="s">
+        <v>173</v>
+      </c>
+      <c r="E91">
+        <v>7201</v>
+      </c>
+      <c r="F91" t="s">
+        <v>195</v>
+      </c>
+      <c r="G91" t="s">
+        <v>212</v>
+      </c>
+      <c r="H91">
+        <v>46809</v>
+      </c>
+      <c r="I91">
+        <v>5</v>
+      </c>
+      <c r="J91" t="s">
+        <v>224</v>
+      </c>
+      <c r="K91" t="s">
+        <v>263</v>
+      </c>
+      <c r="L91" t="s">
+        <v>273</v>
+      </c>
+      <c r="M91" t="s">
+        <v>282</v>
+      </c>
+      <c r="N91" t="s">
+        <v>307</v>
+      </c>
+      <c r="O91" s="2">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" t="s">
+        <v>47</v>
+      </c>
+      <c r="B92" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" t="s">
+        <v>167</v>
+      </c>
+      <c r="D92" t="s">
+        <v>173</v>
+      </c>
+      <c r="E92">
+        <v>7201</v>
+      </c>
+      <c r="F92" t="s">
+        <v>194</v>
+      </c>
+      <c r="G92" t="s">
+        <v>217</v>
+      </c>
+      <c r="H92">
+        <v>48917</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+      <c r="J92" t="s">
+        <v>224</v>
+      </c>
+      <c r="K92" t="s">
+        <v>264</v>
+      </c>
+      <c r="L92" t="s">
+        <v>273</v>
+      </c>
+      <c r="M92" t="s">
+        <v>282</v>
+      </c>
+      <c r="N92" t="s">
+        <v>308</v>
+      </c>
+      <c r="O92" s="2">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" t="s">
+        <v>47</v>
+      </c>
+      <c r="B93" t="s">
+        <v>150</v>
+      </c>
+      <c r="C93" t="s">
+        <v>166</v>
+      </c>
+      <c r="D93" t="s">
+        <v>172</v>
+      </c>
+      <c r="E93">
+        <v>29483</v>
+      </c>
+      <c r="F93" t="s">
+        <v>208</v>
+      </c>
+      <c r="G93" t="s">
+        <v>222</v>
+      </c>
+      <c r="H93">
+        <v>38118</v>
+      </c>
+      <c r="I93">
+        <v>4</v>
+      </c>
+      <c r="J93" t="s">
+        <v>224</v>
+      </c>
+      <c r="K93" t="s">
+        <v>262</v>
+      </c>
+      <c r="L93" t="s">
+        <v>272</v>
+      </c>
+      <c r="M93" t="s">
+        <v>283</v>
+      </c>
+      <c r="N93" t="s">
+        <v>306</v>
+      </c>
+      <c r="O93" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" t="s">
+        <v>47</v>
+      </c>
+      <c r="B94" t="s">
+        <v>151</v>
+      </c>
+      <c r="C94" t="s">
+        <v>167</v>
+      </c>
+      <c r="D94" t="s">
+        <v>173</v>
+      </c>
+      <c r="E94">
+        <v>7201</v>
+      </c>
+      <c r="F94" t="s">
+        <v>195</v>
+      </c>
+      <c r="G94" t="s">
+        <v>212</v>
+      </c>
+      <c r="H94">
+        <v>46809</v>
+      </c>
+      <c r="I94">
+        <v>5</v>
+      </c>
+      <c r="J94" t="s">
+        <v>224</v>
+      </c>
+      <c r="K94" t="s">
+        <v>263</v>
+      </c>
+      <c r="L94" t="s">
+        <v>273</v>
+      </c>
+      <c r="M94" t="s">
+        <v>283</v>
+      </c>
+      <c r="N94" t="s">
+        <v>307</v>
+      </c>
+      <c r="O94" s="2">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" t="s">
+        <v>47</v>
+      </c>
+      <c r="B95" t="s">
+        <v>152</v>
+      </c>
+      <c r="C95" t="s">
+        <v>167</v>
+      </c>
+      <c r="D95" t="s">
+        <v>173</v>
+      </c>
+      <c r="E95">
+        <v>7201</v>
+      </c>
+      <c r="F95" t="s">
+        <v>194</v>
+      </c>
+      <c r="G95" t="s">
+        <v>217</v>
+      </c>
+      <c r="H95">
+        <v>48917</v>
+      </c>
+      <c r="I95">
+        <v>3</v>
+      </c>
+      <c r="J95" t="s">
+        <v>224</v>
+      </c>
+      <c r="K95" t="s">
+        <v>264</v>
+      </c>
+      <c r="L95" t="s">
+        <v>273</v>
+      </c>
+      <c r="M95" t="s">
+        <v>283</v>
+      </c>
+      <c r="N95" t="s">
+        <v>308</v>
+      </c>
+      <c r="O95" s="2">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" t="s">
+        <v>47</v>
+      </c>
+      <c r="B96" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96" t="s">
+        <v>167</v>
+      </c>
+      <c r="D96" t="s">
+        <v>173</v>
+      </c>
+      <c r="E96">
+        <v>7201</v>
+      </c>
+      <c r="F96" t="s">
+        <v>195</v>
+      </c>
+      <c r="G96" t="s">
+        <v>212</v>
+      </c>
+      <c r="H96">
+        <v>46809</v>
+      </c>
+      <c r="I96">
+        <v>5</v>
+      </c>
+      <c r="J96" t="s">
+        <v>224</v>
+      </c>
+      <c r="K96" t="s">
+        <v>263</v>
+      </c>
+      <c r="L96" t="s">
+        <v>273</v>
+      </c>
+      <c r="M96" t="s">
+        <v>284</v>
+      </c>
+      <c r="N96" t="s">
+        <v>307</v>
+      </c>
+      <c r="O96" s="2">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" t="s">
+        <v>47</v>
+      </c>
+      <c r="B97" t="s">
+        <v>154</v>
+      </c>
+      <c r="C97" t="s">
+        <v>167</v>
+      </c>
+      <c r="D97" t="s">
+        <v>173</v>
+      </c>
+      <c r="E97">
+        <v>7201</v>
+      </c>
+      <c r="F97" t="s">
+        <v>194</v>
+      </c>
+      <c r="G97" t="s">
+        <v>217</v>
+      </c>
+      <c r="H97">
+        <v>48917</v>
+      </c>
+      <c r="I97">
+        <v>3</v>
+      </c>
+      <c r="J97" t="s">
+        <v>224</v>
+      </c>
+      <c r="K97" t="s">
+        <v>264</v>
+      </c>
+      <c r="L97" t="s">
+        <v>273</v>
+      </c>
+      <c r="M97" t="s">
+        <v>284</v>
+      </c>
+      <c r="N97" t="s">
+        <v>308</v>
+      </c>
+      <c r="O97" s="2">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98" t="s">
+        <v>155</v>
+      </c>
+      <c r="C98" t="s">
+        <v>166</v>
+      </c>
+      <c r="D98" t="s">
+        <v>172</v>
+      </c>
+      <c r="E98">
+        <v>29483</v>
+      </c>
+      <c r="F98" t="s">
+        <v>208</v>
+      </c>
+      <c r="G98" t="s">
+        <v>222</v>
+      </c>
+      <c r="H98">
+        <v>38118</v>
+      </c>
+      <c r="I98">
+        <v>4</v>
+      </c>
+      <c r="J98" t="s">
+        <v>224</v>
+      </c>
+      <c r="K98" t="s">
+        <v>262</v>
+      </c>
+      <c r="L98" t="s">
+        <v>272</v>
+      </c>
+      <c r="M98" t="s">
+        <v>285</v>
+      </c>
+      <c r="N98" t="s">
+        <v>306</v>
+      </c>
+      <c r="O98" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" t="s">
+        <v>49</v>
+      </c>
+      <c r="B99" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" t="s">
+        <v>170</v>
+      </c>
+      <c r="D99" t="s">
+        <v>173</v>
+      </c>
+      <c r="E99">
+        <v>7201</v>
+      </c>
+      <c r="F99" t="s">
+        <v>209</v>
+      </c>
+      <c r="G99" t="s">
+        <v>216</v>
+      </c>
+      <c r="H99">
+        <v>18031</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>224</v>
+      </c>
+      <c r="K99" t="s">
+        <v>265</v>
+      </c>
+      <c r="L99" t="s">
+        <v>272</v>
+      </c>
+      <c r="M99" t="s">
+        <v>286</v>
+      </c>
+      <c r="N99" t="s">
+        <v>309</v>
+      </c>
+      <c r="O99" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" t="s">
+        <v>50</v>
+      </c>
+      <c r="B100" t="s">
+        <v>157</v>
+      </c>
+      <c r="C100" t="s">
+        <v>170</v>
+      </c>
+      <c r="D100" t="s">
+        <v>173</v>
+      </c>
+      <c r="E100">
+        <v>7201</v>
+      </c>
+      <c r="F100" t="s">
+        <v>204</v>
+      </c>
+      <c r="G100" t="s">
+        <v>216</v>
+      </c>
+      <c r="H100">
+        <v>18447</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100" t="s">
+        <v>224</v>
+      </c>
+      <c r="K100" t="s">
+        <v>266</v>
+      </c>
+      <c r="L100" t="s">
+        <v>272</v>
+      </c>
+      <c r="M100" t="s">
+        <v>287</v>
+      </c>
+      <c r="N100" t="s">
+        <v>301</v>
+      </c>
+      <c r="O100" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" t="s">
+        <v>51</v>
+      </c>
+      <c r="B101" t="s">
+        <v>158</v>
+      </c>
+      <c r="C101" t="s">
+        <v>167</v>
+      </c>
+      <c r="D101" t="s">
+        <v>173</v>
+      </c>
+      <c r="E101">
+        <v>7201</v>
+      </c>
+      <c r="F101" t="s">
+        <v>198</v>
+      </c>
+      <c r="G101" t="s">
+        <v>216</v>
+      </c>
+      <c r="H101">
+        <v>15672</v>
+      </c>
+      <c r="I101">
+        <v>3</v>
+      </c>
+      <c r="J101" t="s">
+        <v>224</v>
+      </c>
+      <c r="K101" t="s">
+        <v>267</v>
+      </c>
+      <c r="L101" t="s">
+        <v>273</v>
+      </c>
+      <c r="M101" t="s">
+        <v>288</v>
+      </c>
+      <c r="N101" t="s">
+        <v>299</v>
+      </c>
+      <c r="O101" s="2">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" t="s">
+        <v>52</v>
+      </c>
+      <c r="B102" t="s">
+        <v>159</v>
+      </c>
+      <c r="C102" t="s">
+        <v>170</v>
+      </c>
+      <c r="D102" t="s">
+        <v>173</v>
+      </c>
+      <c r="E102">
+        <v>7201</v>
+      </c>
+      <c r="F102" t="s">
+        <v>209</v>
+      </c>
+      <c r="G102" t="s">
+        <v>216</v>
+      </c>
+      <c r="H102">
+        <v>18031</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>224</v>
+      </c>
+      <c r="K102" t="s">
+        <v>265</v>
+      </c>
+      <c r="L102" t="s">
+        <v>272</v>
+      </c>
+      <c r="M102" t="s">
+        <v>289</v>
+      </c>
+      <c r="N102" t="s">
+        <v>309</v>
+      </c>
+      <c r="O102" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" t="s">
+        <v>53</v>
+      </c>
+      <c r="B103" t="s">
+        <v>160</v>
+      </c>
+      <c r="C103" t="s">
+        <v>170</v>
+      </c>
+      <c r="D103" t="s">
+        <v>173</v>
+      </c>
+      <c r="E103">
+        <v>7201</v>
+      </c>
+      <c r="F103" t="s">
+        <v>209</v>
+      </c>
+      <c r="G103" t="s">
+        <v>216</v>
+      </c>
+      <c r="H103">
+        <v>18031</v>
+      </c>
+      <c r="I103">
+        <v>3</v>
+      </c>
+      <c r="J103" t="s">
+        <v>224</v>
+      </c>
+      <c r="K103" t="s">
+        <v>268</v>
+      </c>
+      <c r="L103" t="s">
+        <v>272</v>
+      </c>
+      <c r="M103" t="s">
+        <v>290</v>
+      </c>
+      <c r="N103" t="s">
+        <v>309</v>
+      </c>
+      <c r="O103" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" t="s">
+        <v>54</v>
+      </c>
+      <c r="B104" t="s">
+        <v>161</v>
+      </c>
+      <c r="C104" t="s">
+        <v>166</v>
+      </c>
+      <c r="D104" t="s">
+        <v>172</v>
+      </c>
+      <c r="E104">
+        <v>29483</v>
+      </c>
+      <c r="F104" t="s">
+        <v>178</v>
+      </c>
+      <c r="G104" t="s">
+        <v>211</v>
+      </c>
+      <c r="H104">
+        <v>28303</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104" t="s">
+        <v>224</v>
+      </c>
+      <c r="K104" t="s">
+        <v>269</v>
+      </c>
+      <c r="L104" t="s">
+        <v>272</v>
+      </c>
+      <c r="M104" t="s">
+        <v>291</v>
+      </c>
+      <c r="N104" t="s">
+        <v>310</v>
+      </c>
+      <c r="O104" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" t="s">
+        <v>55</v>
+      </c>
+      <c r="B105" t="s">
+        <v>162</v>
+      </c>
+      <c r="C105" t="s">
+        <v>170</v>
+      </c>
+      <c r="D105" t="s">
+        <v>173</v>
+      </c>
+      <c r="E105">
+        <v>7201</v>
+      </c>
+      <c r="F105" t="s">
+        <v>209</v>
+      </c>
+      <c r="G105" t="s">
+        <v>216</v>
+      </c>
+      <c r="H105">
+        <v>18031</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105" t="s">
+        <v>224</v>
+      </c>
+      <c r="K105" t="s">
+        <v>265</v>
+      </c>
+      <c r="L105" t="s">
+        <v>272</v>
+      </c>
+      <c r="M105" t="s">
+        <v>292</v>
+      </c>
+      <c r="N105" t="s">
+        <v>309</v>
+      </c>
+      <c r="O105" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" t="s">
+        <v>56</v>
+      </c>
+      <c r="B106" t="s">
+        <v>163</v>
+      </c>
+      <c r="C106" t="s">
+        <v>167</v>
+      </c>
+      <c r="D106" t="s">
+        <v>173</v>
+      </c>
+      <c r="E106">
+        <v>7201</v>
+      </c>
+      <c r="F106" t="s">
+        <v>210</v>
+      </c>
+      <c r="G106" t="s">
+        <v>215</v>
+      </c>
+      <c r="H106">
+        <v>8518</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="s">
+        <v>224</v>
+      </c>
+      <c r="K106" t="s">
+        <v>259</v>
+      </c>
+      <c r="L106" t="s">
+        <v>273</v>
+      </c>
+      <c r="M106" t="s">
+        <v>293</v>
+      </c>
+      <c r="N106" t="s">
+        <v>311</v>
+      </c>
+      <c r="O106" s="2">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" t="s">
+        <v>57</v>
+      </c>
+      <c r="B107" t="s">
+        <v>164</v>
+      </c>
+      <c r="C107" t="s">
+        <v>166</v>
+      </c>
+      <c r="D107" t="s">
+        <v>172</v>
+      </c>
+      <c r="E107">
+        <v>29483</v>
+      </c>
+      <c r="F107" t="s">
+        <v>178</v>
+      </c>
+      <c r="G107" t="s">
+        <v>211</v>
+      </c>
+      <c r="H107">
+        <v>28303</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>224</v>
+      </c>
+      <c r="K107" t="s">
+        <v>270</v>
+      </c>
+      <c r="L107" t="s">
+        <v>272</v>
+      </c>
+      <c r="M107" t="s">
+        <v>294</v>
+      </c>
+      <c r="N107" t="s">
+        <v>310</v>
+      </c>
+      <c r="O107" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" t="s">
+        <v>58</v>
+      </c>
+      <c r="B108" t="s">
+        <v>165</v>
+      </c>
+      <c r="C108" t="s">
+        <v>167</v>
+      </c>
+      <c r="D108" t="s">
+        <v>173</v>
+      </c>
+      <c r="E108" t="s">
+        <v>177</v>
+      </c>
+      <c r="F108" t="s">
+        <v>198</v>
+      </c>
+      <c r="G108" t="s">
+        <v>216</v>
+      </c>
+      <c r="H108" t="s">
+        <v>223</v>
+      </c>
+      <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108" t="s">
+        <v>224</v>
+      </c>
+      <c r="K108" t="s">
+        <v>271</v>
+      </c>
+      <c r="L108" t="s">
+        <v>273</v>
+      </c>
+      <c r="M108" t="s">
+        <v>295</v>
+      </c>
+      <c r="N108" t="s">
+        <v>299</v>
+      </c>
+      <c r="O108" s="2">
+        <v>45897</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/heyprimo_api_tracking.xlsx
+++ b/Logs/heyprimo_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="347">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -193,6 +193,12 @@
     <t>CMM0868LCL0007</t>
   </si>
   <si>
+    <t>CMM0637LCL0016</t>
+  </si>
+  <si>
+    <t>CMM0937LCL0001</t>
+  </si>
+  <si>
     <t>2025-08-14 15:19:49</t>
   </si>
   <si>
@@ -514,6 +520,27 @@
     <t>2025-09-18 02:53:08</t>
   </si>
   <si>
+    <t>2025-09-18 11:10:39</t>
+  </si>
+  <si>
+    <t>2025-09-18 11:28:17</t>
+  </si>
+  <si>
+    <t>2025-09-18 11:30:18</t>
+  </si>
+  <si>
+    <t>2025-09-18 20:00:05</t>
+  </si>
+  <si>
+    <t>2025-09-18 20:00:32</t>
+  </si>
+  <si>
+    <t>2025-09-18 20:03:24</t>
+  </si>
+  <si>
+    <t>2025-09-18 20:03:41</t>
+  </si>
+  <si>
     <t>CHARLESTON</t>
   </si>
   <si>
@@ -532,6 +559,9 @@
     <t>CHICAGO</t>
   </si>
   <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
     <t>SC</t>
   </si>
   <si>
@@ -547,7 +577,7 @@
     <t>IL</t>
   </si>
   <si>
-    <t>07201</t>
+    <t>90220</t>
   </si>
   <si>
     <t>FAYETTEVILLE</t>
@@ -649,6 +679,12 @@
     <t>Florence</t>
   </si>
   <si>
+    <t>DUPONT</t>
+  </si>
+  <si>
+    <t>Aurora</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
@@ -685,7 +721,13 @@
     <t>TN</t>
   </si>
   <si>
-    <t>15672</t>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>80018</t>
   </si>
   <si>
     <t>Success</t>
@@ -832,6 +874,15 @@
     <t>Rate: 389.8, Carrier: ABF Freight System</t>
   </si>
   <si>
+    <t>Rate: 306.61, Carrier: ABF Density</t>
+  </si>
+  <si>
+    <t>Rate: 593.37, Carrier: ABF Density</t>
+  </si>
+  <si>
+    <t>Rate: 594.06, Carrier: Estes Express Lines</t>
+  </si>
+  <si>
     <t>API</t>
   </si>
   <si>
@@ -904,6 +955,21 @@
     <t>CMM0868LCL0007_20250918025308</t>
   </si>
   <si>
+    <t>CMM0637LCL0016_20250918111028</t>
+  </si>
+  <si>
+    <t>CMM0868LCL0007_20250918112817</t>
+  </si>
+  <si>
+    <t>CMM0657LCL0128_20250918113005</t>
+  </si>
+  <si>
+    <t>CMM0937LCL0001_20250918195948</t>
+  </si>
+  <si>
+    <t>CMM0937LCL0001_20250918200259</t>
+  </si>
+  <si>
     <t>ATL9</t>
   </si>
   <si>
@@ -952,6 +1018,12 @@
     <t>ABE8</t>
   </si>
   <si>
+    <t>BFI3</t>
+  </si>
+  <si>
+    <t>DEN8</t>
+  </si>
+  <si>
     <t>28-08-2025</t>
   </si>
   <si>
@@ -980,6 +1052,9 @@
   </si>
   <si>
     <t>12-09-2025</t>
+  </si>
+  <si>
+    <t>18-09-2025</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O108"/>
+  <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1399,22 +1474,22 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E2">
         <v>29483</v>
       </c>
       <c r="F2" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G2" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="H2">
         <v>28303</v>
@@ -1423,13 +1498,13 @@
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K2" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="L2" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1437,22 +1512,22 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E3">
         <v>7201</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="H3">
         <v>46140</v>
@@ -1461,13 +1536,13 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K3" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="L3" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1475,22 +1550,22 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E4">
         <v>90220</v>
       </c>
       <c r="F4" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G4" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H4">
         <v>75241</v>
@@ -1499,13 +1574,13 @@
         <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K4" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="L4" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1513,22 +1588,22 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E5">
         <v>90220</v>
       </c>
       <c r="F5" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G5" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="H5">
         <v>85395</v>
@@ -1537,13 +1612,13 @@
         <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K5" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="L5" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1551,22 +1626,22 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E6">
         <v>90220</v>
       </c>
       <c r="F6" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G6" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="H6">
         <v>85043</v>
@@ -1575,13 +1650,13 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K6" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="L6" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1589,22 +1664,22 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E7">
         <v>29483</v>
       </c>
       <c r="F7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="G7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="H7">
         <v>30567</v>
@@ -1613,13 +1688,13 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K7" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="L7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1627,22 +1702,22 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D8" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E8">
         <v>7201</v>
       </c>
       <c r="F8" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G8" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="H8">
         <v>8873</v>
@@ -1651,13 +1726,13 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K8" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="L8" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1665,22 +1740,22 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E9">
         <v>77020</v>
       </c>
       <c r="F9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9" t="s">
         <v>185</v>
-      </c>
-      <c r="G9" t="s">
-        <v>175</v>
       </c>
       <c r="H9">
         <v>75007</v>
@@ -1689,10 +1764,10 @@
         <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K9" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1700,22 +1775,22 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E10">
         <v>7201</v>
       </c>
       <c r="F10" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="G10" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H10">
         <v>18105</v>
@@ -1724,10 +1799,10 @@
         <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K10" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1735,22 +1810,22 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E11">
         <v>7201</v>
       </c>
       <c r="F11" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="G11" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H11">
         <v>17112</v>
@@ -1759,10 +1834,10 @@
         <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K11" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1770,22 +1845,22 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D12" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E12">
         <v>7201</v>
       </c>
       <c r="F12" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="G12" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H12">
         <v>18202</v>
@@ -1794,13 +1869,13 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K12" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="L12" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1808,22 +1883,22 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D13" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E13">
         <v>77020</v>
       </c>
       <c r="F13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" t="s">
         <v>185</v>
-      </c>
-      <c r="G13" t="s">
-        <v>175</v>
       </c>
       <c r="H13">
         <v>75007</v>
@@ -1832,10 +1907,10 @@
         <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K13" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1843,22 +1918,22 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D14" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E14">
         <v>7201</v>
       </c>
       <c r="F14" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="G14" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H14">
         <v>18105</v>
@@ -1867,10 +1942,10 @@
         <v>100</v>
       </c>
       <c r="J14" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K14" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1878,22 +1953,22 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E15">
         <v>7201</v>
       </c>
       <c r="F15" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="G15" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H15">
         <v>17112</v>
@@ -1902,10 +1977,10 @@
         <v>100</v>
       </c>
       <c r="J15" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K15" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1913,22 +1988,22 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D16" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E16">
         <v>29483</v>
       </c>
       <c r="F16" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G16" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="H16">
         <v>29330</v>
@@ -1937,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K16" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1948,22 +2023,22 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D17" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E17">
         <v>29483</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G17" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="H17">
         <v>29330</v>
@@ -1972,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K17" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1983,22 +2058,22 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D18" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E18">
         <v>29483</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G18" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="H18">
         <v>29330</v>
@@ -2007,10 +2082,10 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K18" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2018,22 +2093,22 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E19">
         <v>7201</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G19" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="H19">
         <v>46410</v>
@@ -2042,10 +2117,10 @@
         <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K19" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2053,22 +2128,22 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D20" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E20">
         <v>29483</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="H20">
         <v>29330</v>
@@ -2077,10 +2152,10 @@
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K20" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2088,22 +2163,22 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D21" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E21">
         <v>7201</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G21" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="H21">
         <v>46410</v>
@@ -2112,10 +2187,10 @@
         <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K21" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2123,22 +2198,22 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D22" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E22">
         <v>7201</v>
       </c>
       <c r="F22" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="H22">
         <v>46410</v>
@@ -2147,10 +2222,10 @@
         <v>19</v>
       </c>
       <c r="J22" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K22" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2158,22 +2233,22 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D23" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E23">
         <v>7201</v>
       </c>
       <c r="F23" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="G23" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="H23">
         <v>48917</v>
@@ -2182,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K23" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2193,22 +2268,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D24" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="G24" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H24">
         <v>60433</v>
@@ -2217,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K24" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2228,22 +2303,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D25" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E25">
         <v>7201</v>
       </c>
       <c r="F25" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="G25" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="H25">
         <v>46809</v>
@@ -2252,10 +2327,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K25" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2263,22 +2338,22 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D26" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E26">
         <v>7201</v>
       </c>
       <c r="F26" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="G26" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="H26">
         <v>48917</v>
@@ -2287,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K26" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2298,22 +2373,22 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D27" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="G27" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H27">
         <v>60433</v>
@@ -2322,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K27" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2333,22 +2408,22 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D28" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E28">
         <v>7201</v>
       </c>
       <c r="F28" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="G28" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="H28">
         <v>46809</v>
@@ -2357,10 +2432,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K28" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2368,22 +2443,22 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D29" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="G29" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H29">
         <v>60433</v>
@@ -2392,10 +2467,10 @@
         <v>9</v>
       </c>
       <c r="J29" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K29" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2403,22 +2478,22 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D30" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E30">
         <v>7201</v>
       </c>
       <c r="F30" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="G30" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="H30">
         <v>48917</v>
@@ -2427,13 +2502,13 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K30" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="L30" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2441,22 +2516,22 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D31" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="G31" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H31">
         <v>60433</v>
@@ -2465,10 +2540,10 @@
         <v>9</v>
       </c>
       <c r="J31" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K31" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2476,22 +2551,22 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D32" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E32">
         <v>7201</v>
       </c>
       <c r="F32" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="G32" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="H32">
         <v>46809</v>
@@ -2500,13 +2575,13 @@
         <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K32" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="L32" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2514,22 +2589,22 @@
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D33" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E33">
         <v>7201</v>
       </c>
       <c r="F33" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="G33" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="H33">
         <v>48917</v>
@@ -2538,13 +2613,13 @@
         <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K33" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="L33" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2552,22 +2627,22 @@
         <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D34" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="G34" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H34">
         <v>60433</v>
@@ -2576,10 +2651,10 @@
         <v>9</v>
       </c>
       <c r="J34" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K34" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2587,22 +2662,22 @@
         <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D35" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E35">
         <v>7201</v>
       </c>
       <c r="F35" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="G35" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="H35">
         <v>46809</v>
@@ -2611,13 +2686,13 @@
         <v>10</v>
       </c>
       <c r="J35" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K35" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="L35" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2625,22 +2700,22 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D36" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="G36" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H36">
         <v>60433</v>
@@ -2649,10 +2724,10 @@
         <v>9</v>
       </c>
       <c r="J36" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K36" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2660,22 +2735,22 @@
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D37" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E37">
         <v>90220</v>
       </c>
       <c r="F37" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="G37" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="H37">
         <v>89044</v>
@@ -2684,13 +2759,13 @@
         <v>10</v>
       </c>
       <c r="J37" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K37" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="L37" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2698,22 +2773,22 @@
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D38" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E38">
         <v>90220</v>
       </c>
       <c r="F38" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G38" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="H38">
         <v>85395</v>
@@ -2722,13 +2797,13 @@
         <v>9</v>
       </c>
       <c r="J38" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K38" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="L38" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2736,22 +2811,22 @@
         <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D39" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="G39" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H39">
         <v>60433</v>
@@ -2760,10 +2835,10 @@
         <v>9</v>
       </c>
       <c r="J39" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K39" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2771,22 +2846,22 @@
         <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D40" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="G40" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="H40">
         <v>60433</v>
@@ -2795,10 +2870,10 @@
         <v>9</v>
       </c>
       <c r="J40" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K40" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2806,22 +2881,22 @@
         <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D41" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E41">
         <v>7201</v>
       </c>
       <c r="F41" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="G41" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H41">
         <v>15672</v>
@@ -2830,10 +2905,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K41" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2841,22 +2916,22 @@
         <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D42" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E42">
         <v>7201</v>
       </c>
       <c r="F42" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="G42" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H42">
         <v>15672</v>
@@ -2865,10 +2940,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K42" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2876,22 +2951,22 @@
         <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D43" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E43">
         <v>7201</v>
       </c>
       <c r="F43" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="G43" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H43">
         <v>15672</v>
@@ -2900,10 +2975,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K43" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2911,22 +2986,22 @@
         <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C44" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D44" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E44">
         <v>7201</v>
       </c>
       <c r="F44" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="G44" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H44">
         <v>15672</v>
@@ -2935,13 +3010,13 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K44" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="L44" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2949,22 +3024,22 @@
         <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D45" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E45">
         <v>7201</v>
       </c>
       <c r="F45" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="G45" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H45">
         <v>15672</v>
@@ -2973,13 +3048,13 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K45" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="L45" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2987,22 +3062,22 @@
         <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C46" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D46" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E46">
         <v>29483</v>
       </c>
       <c r="F46" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G46" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="H46">
         <v>29330</v>
@@ -3011,13 +3086,13 @@
         <v>7</v>
       </c>
       <c r="J46" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K46" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="L46" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3025,22 +3100,22 @@
         <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C47" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D47" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E47">
         <v>29483</v>
       </c>
       <c r="F47" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G47" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="H47">
         <v>29330</v>
@@ -3049,13 +3124,13 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K47" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="L47" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3063,22 +3138,22 @@
         <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C48" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D48" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E48">
         <v>29483</v>
       </c>
       <c r="F48" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G48" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="H48">
         <v>29330</v>
@@ -3087,13 +3162,13 @@
         <v>5</v>
       </c>
       <c r="J48" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K48" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="L48" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3101,22 +3176,22 @@
         <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C49" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D49" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E49">
         <v>29483</v>
       </c>
       <c r="F49" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G49" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="H49">
         <v>29330</v>
@@ -3125,13 +3200,13 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K49" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="L49" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3139,22 +3214,22 @@
         <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D50" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E50">
         <v>29483</v>
       </c>
       <c r="F50" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G50" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="H50">
         <v>29330</v>
@@ -3163,13 +3238,13 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K50" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="L50" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3177,22 +3252,22 @@
         <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C51" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D51" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E51">
         <v>7201</v>
       </c>
       <c r="F51" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="G51" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H51">
         <v>15672</v>
@@ -3201,13 +3276,13 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K51" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="L51" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3215,22 +3290,22 @@
         <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C52" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D52" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E52">
         <v>29483</v>
       </c>
       <c r="F52" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G52" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="H52">
         <v>29330</v>
@@ -3239,13 +3314,13 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K52" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="L52" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3253,22 +3328,22 @@
         <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C53" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D53" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E53">
         <v>29483</v>
       </c>
       <c r="F53" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G53" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="H53">
         <v>29330</v>
@@ -3277,13 +3352,13 @@
         <v>9</v>
       </c>
       <c r="J53" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K53" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="L53" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3291,22 +3366,22 @@
         <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C54" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D54" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E54">
         <v>7201</v>
       </c>
       <c r="F54" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="G54" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H54">
         <v>15672</v>
@@ -3315,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K54" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3326,22 +3401,22 @@
         <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D55" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E55">
         <v>7201</v>
       </c>
       <c r="F55" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="G55" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H55">
         <v>18202</v>
@@ -3350,13 +3425,13 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K55" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="L55" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3364,22 +3439,22 @@
         <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D56" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E56">
         <v>7201</v>
       </c>
       <c r="F56" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="G56" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="H56">
         <v>22406</v>
@@ -3388,13 +3463,13 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K56" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="L56" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3402,22 +3477,22 @@
         <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D57" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E57">
         <v>90220</v>
       </c>
       <c r="F57" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G57" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="H57">
         <v>85043</v>
@@ -3426,13 +3501,13 @@
         <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K57" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="L57" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3440,22 +3515,22 @@
         <v>34</v>
       </c>
       <c r="B58" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C58" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D58" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E58">
         <v>90220</v>
       </c>
       <c r="F58" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G58" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="H58">
         <v>85395</v>
@@ -3464,13 +3539,13 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K58" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="L58" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3478,22 +3553,22 @@
         <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D59" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E59">
         <v>7201</v>
       </c>
       <c r="F59" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="G59" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H59">
         <v>18202</v>
@@ -3502,13 +3577,13 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K59" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="L59" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3516,22 +3591,22 @@
         <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C60" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D60" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E60">
         <v>7201</v>
       </c>
       <c r="F60" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="G60" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="H60">
         <v>22406</v>
@@ -3540,13 +3615,13 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K60" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="L60" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3554,22 +3629,22 @@
         <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C61" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D61" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E61">
         <v>7201</v>
       </c>
       <c r="F61" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="G61" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H61">
         <v>18202</v>
@@ -3578,13 +3653,13 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K61" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="L61" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3592,22 +3667,22 @@
         <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D62" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E62">
         <v>7201</v>
       </c>
       <c r="F62" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="G62" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="H62">
         <v>22406</v>
@@ -3616,13 +3691,13 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K62" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="L62" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3630,22 +3705,22 @@
         <v>33</v>
       </c>
       <c r="B63" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C63" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D63" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E63">
         <v>90220</v>
       </c>
       <c r="F63" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G63" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H63">
         <v>75241</v>
@@ -3654,13 +3729,13 @@
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K63" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="L63" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3668,22 +3743,22 @@
         <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C64" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D64" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E64">
         <v>90220</v>
       </c>
       <c r="F64" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G64" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="H64">
         <v>85043</v>
@@ -3692,13 +3767,13 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K64" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="L64" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3706,22 +3781,22 @@
         <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C65" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D65" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E65">
         <v>90220</v>
       </c>
       <c r="F65" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G65" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="H65">
         <v>85395</v>
@@ -3730,13 +3805,13 @@
         <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K65" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="L65" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3744,22 +3819,22 @@
         <v>34</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C66" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D66" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E66">
         <v>90220</v>
       </c>
       <c r="F66" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G66" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H66">
         <v>75241</v>
@@ -3768,13 +3843,13 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K66" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="L66" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3782,22 +3857,22 @@
         <v>33</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C67" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D67" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E67">
         <v>7201</v>
       </c>
       <c r="F67" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="G67" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H67">
         <v>18202</v>
@@ -3806,13 +3881,13 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K67" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="L67" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -3820,22 +3895,22 @@
         <v>33</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C68" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D68" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E68">
         <v>7201</v>
       </c>
       <c r="F68" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="G68" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="H68">
         <v>22406</v>
@@ -3844,13 +3919,13 @@
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K68" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="L68" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -3858,22 +3933,22 @@
         <v>35</v>
       </c>
       <c r="B69" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C69" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D69" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E69">
         <v>29483</v>
       </c>
       <c r="F69" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G69" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="H69">
         <v>30096</v>
@@ -3882,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K69" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -3893,22 +3968,22 @@
         <v>35</v>
       </c>
       <c r="B70" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C70" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D70" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E70">
         <v>29483</v>
       </c>
       <c r="F70" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G70" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="H70">
         <v>30096</v>
@@ -3917,10 +3992,10 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K70" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -3928,22 +4003,22 @@
         <v>36</v>
       </c>
       <c r="B71" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C71" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E71">
         <v>90220</v>
       </c>
       <c r="F71" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="G71" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="H71">
         <v>91752</v>
@@ -3952,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K71" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -3963,22 +4038,22 @@
         <v>37</v>
       </c>
       <c r="B72" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C72" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D72" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E72">
         <v>7201</v>
       </c>
       <c r="F72" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="G72" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="H72">
         <v>21740</v>
@@ -3987,13 +4062,13 @@
         <v>5</v>
       </c>
       <c r="J72" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K72" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="L72" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4001,22 +4076,22 @@
         <v>38</v>
       </c>
       <c r="B73" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C73" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D73" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E73">
         <v>29483</v>
       </c>
       <c r="F73" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G73" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="H73">
         <v>38654</v>
@@ -4025,13 +4100,13 @@
         <v>6</v>
       </c>
       <c r="J73" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K73" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="L73" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4039,22 +4114,22 @@
         <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C74" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D74" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E74">
         <v>7201</v>
       </c>
       <c r="F74" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G74" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H74">
         <v>18447</v>
@@ -4063,10 +4138,10 @@
         <v>18</v>
       </c>
       <c r="J74" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K74" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4074,22 +4149,22 @@
         <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D75" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E75">
         <v>29483</v>
       </c>
       <c r="F75" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G75" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="H75">
         <v>28134</v>
@@ -4098,13 +4173,13 @@
         <v>4</v>
       </c>
       <c r="J75" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K75" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="L75" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4112,22 +4187,22 @@
         <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C76" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D76" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E76">
         <v>29483</v>
       </c>
       <c r="F76" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G76" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="H76">
         <v>30096</v>
@@ -4136,10 +4211,10 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K76" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4147,22 +4222,22 @@
         <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C77" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D77" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E77">
         <v>29483</v>
       </c>
       <c r="F77" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G77" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="H77">
         <v>30096</v>
@@ -4171,10 +4246,10 @@
         <v>16</v>
       </c>
       <c r="J77" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K77" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4182,22 +4257,22 @@
         <v>41</v>
       </c>
       <c r="B78" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C78" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D78" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E78">
         <v>7201</v>
       </c>
       <c r="F78" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="G78" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H78">
         <v>15672</v>
@@ -4206,13 +4281,13 @@
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K78" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="L78" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4220,22 +4295,22 @@
         <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C79" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D79" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E79">
         <v>7201</v>
       </c>
       <c r="F79" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="G79" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H79">
         <v>15672</v>
@@ -4244,13 +4319,13 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K79" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="L79" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4258,22 +4333,22 @@
         <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C80" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D80" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E80">
         <v>29483</v>
       </c>
       <c r="F80" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G80" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="H80">
         <v>30096</v>
@@ -4282,19 +4357,19 @@
         <v>16</v>
       </c>
       <c r="J80" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K80" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="M80" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="N80" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="O80" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4302,22 +4377,22 @@
         <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C81" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D81" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E81">
         <v>7201</v>
       </c>
       <c r="F81" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G81" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H81">
         <v>17057</v>
@@ -4326,22 +4401,22 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K81" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="L81" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="M81" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="N81" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="O81" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4349,22 +4424,22 @@
         <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C82" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D82" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E82">
         <v>29483</v>
       </c>
       <c r="F82" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G82" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="H82">
         <v>29330</v>
@@ -4373,22 +4448,22 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K82" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="L82" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="M82" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="N82" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="O82" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4396,22 +4471,22 @@
         <v>45</v>
       </c>
       <c r="B83" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C83" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D83" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E83">
         <v>7201</v>
       </c>
       <c r="F83" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="G83" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H83">
         <v>15672</v>
@@ -4420,19 +4495,19 @@
         <v>4</v>
       </c>
       <c r="J83" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K83" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="L83" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="M83" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="N83" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="O83" s="2">
         <v>45897</v>
@@ -4443,22 +4518,22 @@
         <v>38</v>
       </c>
       <c r="B84" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C84" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D84" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E84">
         <v>29483</v>
       </c>
       <c r="F84" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G84" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="H84">
         <v>38654</v>
@@ -4467,22 +4542,22 @@
         <v>6</v>
       </c>
       <c r="J84" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K84" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="L84" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="M84" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="N84" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="O84" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4490,22 +4565,22 @@
         <v>39</v>
       </c>
       <c r="B85" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C85" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D85" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E85">
         <v>7201</v>
       </c>
       <c r="F85" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G85" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H85">
         <v>18447</v>
@@ -4514,19 +4589,19 @@
         <v>18</v>
       </c>
       <c r="J85" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="K85" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="M85" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="N85" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="O85" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4534,22 +4609,22 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C86" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D86" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E86">
         <v>29483</v>
       </c>
       <c r="F86" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="G86" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="H86">
         <v>30567</v>
@@ -4558,22 +4633,22 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K86" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="L86" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="M86" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="N86" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="O86" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4581,22 +4656,22 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C87" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D87" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E87">
         <v>7201</v>
       </c>
       <c r="F87" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G87" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="H87">
         <v>8873</v>
@@ -4605,19 +4680,19 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K87" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="L87" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="M87" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="N87" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="O87" s="2">
         <v>45897</v>
@@ -4628,22 +4703,22 @@
         <v>46</v>
       </c>
       <c r="B88" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C88" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D88" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E88">
         <v>90220</v>
       </c>
       <c r="F88" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G88" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="H88">
         <v>75241</v>
@@ -4652,22 +4727,22 @@
         <v>4</v>
       </c>
       <c r="J88" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K88" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="L88" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="M88" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="N88" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="O88" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -4675,22 +4750,22 @@
         <v>46</v>
       </c>
       <c r="B89" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C89" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D89" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E89">
         <v>90220</v>
       </c>
       <c r="F89" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G89" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="H89">
         <v>95206</v>
@@ -4699,22 +4774,22 @@
         <v>5</v>
       </c>
       <c r="J89" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K89" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="L89" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="M89" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="N89" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="O89" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -4722,22 +4797,22 @@
         <v>47</v>
       </c>
       <c r="B90" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C90" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D90" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E90">
         <v>29483</v>
       </c>
       <c r="F90" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G90" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="H90">
         <v>38118</v>
@@ -4746,22 +4821,22 @@
         <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K90" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="L90" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="M90" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="N90" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="O90" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -4769,22 +4844,22 @@
         <v>47</v>
       </c>
       <c r="B91" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C91" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D91" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E91">
         <v>7201</v>
       </c>
       <c r="F91" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="G91" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="H91">
         <v>46809</v>
@@ -4793,19 +4868,19 @@
         <v>5</v>
       </c>
       <c r="J91" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K91" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="L91" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="M91" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="N91" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="O91" s="2">
         <v>45897</v>
@@ -4816,22 +4891,22 @@
         <v>47</v>
       </c>
       <c r="B92" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C92" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D92" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E92">
         <v>7201</v>
       </c>
       <c r="F92" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="G92" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="H92">
         <v>48917</v>
@@ -4840,19 +4915,19 @@
         <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K92" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="L92" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="M92" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="N92" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="O92" s="2">
         <v>45897</v>
@@ -4863,22 +4938,22 @@
         <v>47</v>
       </c>
       <c r="B93" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C93" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D93" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E93">
         <v>29483</v>
       </c>
       <c r="F93" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G93" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="H93">
         <v>38118</v>
@@ -4887,22 +4962,22 @@
         <v>4</v>
       </c>
       <c r="J93" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K93" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="L93" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="M93" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="N93" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="O93" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -4910,22 +4985,22 @@
         <v>47</v>
       </c>
       <c r="B94" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C94" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D94" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E94">
         <v>7201</v>
       </c>
       <c r="F94" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="G94" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="H94">
         <v>46809</v>
@@ -4934,19 +5009,19 @@
         <v>5</v>
       </c>
       <c r="J94" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K94" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="L94" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="M94" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="N94" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="O94" s="2">
         <v>45897</v>
@@ -4957,22 +5032,22 @@
         <v>47</v>
       </c>
       <c r="B95" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C95" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D95" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E95">
         <v>7201</v>
       </c>
       <c r="F95" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="G95" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="H95">
         <v>48917</v>
@@ -4981,19 +5056,19 @@
         <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K95" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="L95" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="M95" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="N95" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="O95" s="2">
         <v>45897</v>
@@ -5004,22 +5079,22 @@
         <v>47</v>
       </c>
       <c r="B96" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C96" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D96" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E96">
         <v>7201</v>
       </c>
       <c r="F96" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="G96" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="H96">
         <v>46809</v>
@@ -5028,19 +5103,19 @@
         <v>5</v>
       </c>
       <c r="J96" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K96" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="L96" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="M96" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="N96" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="O96" s="2">
         <v>45897</v>
@@ -5051,22 +5126,22 @@
         <v>47</v>
       </c>
       <c r="B97" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C97" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D97" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E97">
         <v>7201</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="G97" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="H97">
         <v>48917</v>
@@ -5075,19 +5150,19 @@
         <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K97" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="L97" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="M97" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="N97" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="O97" s="2">
         <v>45897</v>
@@ -5098,22 +5173,22 @@
         <v>48</v>
       </c>
       <c r="B98" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C98" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D98" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E98">
         <v>29483</v>
       </c>
       <c r="F98" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G98" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="H98">
         <v>38118</v>
@@ -5122,22 +5197,22 @@
         <v>4</v>
       </c>
       <c r="J98" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K98" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="L98" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="M98" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="N98" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="O98" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -5145,22 +5220,22 @@
         <v>49</v>
       </c>
       <c r="B99" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C99" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D99" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E99">
         <v>7201</v>
       </c>
       <c r="F99" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G99" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H99">
         <v>18031</v>
@@ -5169,22 +5244,22 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K99" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="L99" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="M99" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="N99" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="O99" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -5192,22 +5267,22 @@
         <v>50</v>
       </c>
       <c r="B100" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C100" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D100" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E100">
         <v>7201</v>
       </c>
       <c r="F100" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G100" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H100">
         <v>18447</v>
@@ -5216,22 +5291,22 @@
         <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K100" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="L100" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="M100" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="N100" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="O100" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -5239,22 +5314,22 @@
         <v>51</v>
       </c>
       <c r="B101" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C101" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D101" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E101">
         <v>7201</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="G101" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H101">
         <v>15672</v>
@@ -5263,19 +5338,19 @@
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K101" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="L101" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="M101" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="N101" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="O101" s="2">
         <v>45897</v>
@@ -5286,22 +5361,22 @@
         <v>52</v>
       </c>
       <c r="B102" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C102" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D102" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E102">
         <v>7201</v>
       </c>
       <c r="F102" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G102" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H102">
         <v>18031</v>
@@ -5310,22 +5385,22 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K102" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="L102" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="M102" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="N102" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="O102" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -5333,22 +5408,22 @@
         <v>53</v>
       </c>
       <c r="B103" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C103" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D103" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E103">
         <v>7201</v>
       </c>
       <c r="F103" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G103" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H103">
         <v>18031</v>
@@ -5357,22 +5432,22 @@
         <v>3</v>
       </c>
       <c r="J103" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K103" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="L103" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="M103" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="N103" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="O103" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -5380,22 +5455,22 @@
         <v>54</v>
       </c>
       <c r="B104" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C104" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D104" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E104">
         <v>29483</v>
       </c>
       <c r="F104" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G104" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="H104">
         <v>28303</v>
@@ -5404,22 +5479,22 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K104" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="L104" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="M104" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="N104" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="O104" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -5427,22 +5502,22 @@
         <v>55</v>
       </c>
       <c r="B105" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C105" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D105" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E105">
         <v>7201</v>
       </c>
       <c r="F105" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G105" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H105">
         <v>18031</v>
@@ -5451,22 +5526,22 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K105" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="L105" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="M105" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="N105" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="O105" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -5474,22 +5549,22 @@
         <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C106" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D106" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E106">
         <v>7201</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="G106" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="H106">
         <v>8518</v>
@@ -5498,19 +5573,19 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K106" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="L106" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="M106" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="N106" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="O106" s="2">
         <v>45897</v>
@@ -5521,22 +5596,22 @@
         <v>57</v>
       </c>
       <c r="B107" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C107" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D107" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E107">
         <v>29483</v>
       </c>
       <c r="F107" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G107" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="H107">
         <v>28303</v>
@@ -5545,22 +5620,22 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K107" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="L107" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="M107" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="N107" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="O107" t="s">
-        <v>321</v>
+        <v>345</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -5568,45 +5643,374 @@
         <v>58</v>
       </c>
       <c r="B108" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C108" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D108" t="s">
-        <v>173</v>
-      </c>
-      <c r="E108" t="s">
-        <v>177</v>
+        <v>183</v>
+      </c>
+      <c r="E108">
+        <v>7201</v>
       </c>
       <c r="F108" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="G108" t="s">
-        <v>216</v>
-      </c>
-      <c r="H108" t="s">
-        <v>223</v>
+        <v>228</v>
+      </c>
+      <c r="H108">
+        <v>15672</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="K108" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="L108" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="M108" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="N108" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="O108" s="2">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" t="s">
+        <v>59</v>
+      </c>
+      <c r="B109" t="s">
+        <v>168</v>
+      </c>
+      <c r="C109" t="s">
+        <v>179</v>
+      </c>
+      <c r="D109" t="s">
+        <v>183</v>
+      </c>
+      <c r="E109">
+        <v>7201</v>
+      </c>
+      <c r="F109" t="s">
+        <v>219</v>
+      </c>
+      <c r="G109" t="s">
+        <v>228</v>
+      </c>
+      <c r="H109">
+        <v>18031</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109" t="s">
+        <v>238</v>
+      </c>
+      <c r="K109" t="s">
+        <v>286</v>
+      </c>
+      <c r="L109" t="s">
+        <v>289</v>
+      </c>
+      <c r="M109" t="s">
+        <v>313</v>
+      </c>
+      <c r="N109" t="s">
+        <v>331</v>
+      </c>
+      <c r="O109" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" t="s">
+        <v>58</v>
+      </c>
+      <c r="B110" t="s">
+        <v>169</v>
+      </c>
+      <c r="C110" t="s">
+        <v>176</v>
+      </c>
+      <c r="D110" t="s">
+        <v>183</v>
+      </c>
+      <c r="E110">
+        <v>7201</v>
+      </c>
+      <c r="F110" t="s">
+        <v>208</v>
+      </c>
+      <c r="G110" t="s">
+        <v>228</v>
+      </c>
+      <c r="H110">
+        <v>15672</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110" t="s">
+        <v>238</v>
+      </c>
+      <c r="K110" t="s">
+        <v>285</v>
+      </c>
+      <c r="L110" t="s">
+        <v>290</v>
+      </c>
+      <c r="M110" t="s">
+        <v>314</v>
+      </c>
+      <c r="N110" t="s">
+        <v>321</v>
+      </c>
+      <c r="O110" s="2">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" t="s">
+        <v>55</v>
+      </c>
+      <c r="B111" t="s">
+        <v>170</v>
+      </c>
+      <c r="C111" t="s">
+        <v>179</v>
+      </c>
+      <c r="D111" t="s">
+        <v>183</v>
+      </c>
+      <c r="E111">
+        <v>7201</v>
+      </c>
+      <c r="F111" t="s">
+        <v>219</v>
+      </c>
+      <c r="G111" t="s">
+        <v>228</v>
+      </c>
+      <c r="H111">
+        <v>18031</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>238</v>
+      </c>
+      <c r="K111" t="s">
+        <v>286</v>
+      </c>
+      <c r="L111" t="s">
+        <v>289</v>
+      </c>
+      <c r="M111" t="s">
+        <v>315</v>
+      </c>
+      <c r="N111" t="s">
+        <v>331</v>
+      </c>
+      <c r="O111" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" t="s">
+        <v>60</v>
+      </c>
+      <c r="B112" t="s">
+        <v>171</v>
+      </c>
+      <c r="C112" t="s">
+        <v>177</v>
+      </c>
+      <c r="D112" t="s">
+        <v>184</v>
+      </c>
+      <c r="E112">
+        <v>90220</v>
+      </c>
+      <c r="F112" t="s">
+        <v>221</v>
+      </c>
+      <c r="G112" t="s">
+        <v>235</v>
+      </c>
+      <c r="H112">
+        <v>98327</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112" t="s">
+        <v>238</v>
+      </c>
+      <c r="K112" t="s">
+        <v>287</v>
+      </c>
+      <c r="L112" t="s">
+        <v>289</v>
+      </c>
+      <c r="M112" t="s">
+        <v>316</v>
+      </c>
+      <c r="N112" t="s">
+        <v>334</v>
+      </c>
+      <c r="O112" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" t="s">
+        <v>60</v>
+      </c>
+      <c r="B113" t="s">
+        <v>172</v>
+      </c>
+      <c r="C113" t="s">
+        <v>181</v>
+      </c>
+      <c r="D113" t="s">
+        <v>184</v>
+      </c>
+      <c r="E113">
+        <v>90220</v>
+      </c>
+      <c r="F113" t="s">
+        <v>222</v>
+      </c>
+      <c r="G113" t="s">
+        <v>236</v>
+      </c>
+      <c r="H113">
+        <v>80018</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113" t="s">
+        <v>238</v>
+      </c>
+      <c r="K113" t="s">
+        <v>288</v>
+      </c>
+      <c r="L113" t="s">
+        <v>290</v>
+      </c>
+      <c r="M113" t="s">
+        <v>316</v>
+      </c>
+      <c r="N113" t="s">
+        <v>335</v>
+      </c>
+      <c r="O113" s="2">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" t="s">
+        <v>60</v>
+      </c>
+      <c r="B114" t="s">
+        <v>173</v>
+      </c>
+      <c r="C114" t="s">
+        <v>177</v>
+      </c>
+      <c r="D114" t="s">
+        <v>184</v>
+      </c>
+      <c r="E114">
+        <v>90220</v>
+      </c>
+      <c r="F114" t="s">
+        <v>221</v>
+      </c>
+      <c r="G114" t="s">
+        <v>235</v>
+      </c>
+      <c r="H114">
+        <v>98327</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114" t="s">
+        <v>238</v>
+      </c>
+      <c r="K114" t="s">
+        <v>287</v>
+      </c>
+      <c r="L114" t="s">
+        <v>289</v>
+      </c>
+      <c r="M114" t="s">
+        <v>317</v>
+      </c>
+      <c r="N114" t="s">
+        <v>334</v>
+      </c>
+      <c r="O114" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" t="s">
+        <v>60</v>
+      </c>
+      <c r="B115" t="s">
+        <v>174</v>
+      </c>
+      <c r="C115" t="s">
+        <v>181</v>
+      </c>
+      <c r="D115" t="s">
+        <v>184</v>
+      </c>
+      <c r="E115" t="s">
+        <v>187</v>
+      </c>
+      <c r="F115" t="s">
+        <v>222</v>
+      </c>
+      <c r="G115" t="s">
+        <v>236</v>
+      </c>
+      <c r="H115" t="s">
+        <v>237</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115" t="s">
+        <v>238</v>
+      </c>
+      <c r="K115" t="s">
+        <v>288</v>
+      </c>
+      <c r="L115" t="s">
+        <v>290</v>
+      </c>
+      <c r="M115" t="s">
+        <v>317</v>
+      </c>
+      <c r="N115" t="s">
+        <v>335</v>
+      </c>
+      <c r="O115" s="2">
         <v>45897</v>
       </c>
     </row>

--- a/Logs/heyprimo_api_tracking.xlsx
+++ b/Logs/heyprimo_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="362">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -199,6 +199,9 @@
     <t>CMM0937LCL0001</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>2025-08-14 15:19:49</t>
   </si>
   <si>
@@ -541,6 +544,15 @@
     <t>2025-09-18 20:03:41</t>
   </si>
   <si>
+    <t>2025-09-19 08:12:17</t>
+  </si>
+  <si>
+    <t>2025-09-19 08:19:50</t>
+  </si>
+  <si>
+    <t>2025-09-19 11:30:34</t>
+  </si>
+  <si>
     <t>CHARLESTON</t>
   </si>
   <si>
@@ -562,6 +574,12 @@
     <t>Los Angeles</t>
   </si>
   <si>
+    <t>ELIZABETH</t>
+  </si>
+  <si>
+    <t>KOPPAL</t>
+  </si>
+  <si>
     <t>SC</t>
   </si>
   <si>
@@ -577,7 +595,13 @@
     <t>IL</t>
   </si>
   <si>
-    <t>90220</t>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>KA</t>
+  </si>
+  <si>
+    <t>07201</t>
   </si>
   <si>
     <t>FAYETTEVILLE</t>
@@ -685,6 +709,12 @@
     <t>Aurora</t>
   </si>
   <si>
+    <t>NORTH EAST</t>
+  </si>
+  <si>
+    <t>HOMESTEAD</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
@@ -697,9 +727,6 @@
     <t>GA</t>
   </si>
   <si>
-    <t>NJ</t>
-  </si>
-  <si>
     <t>PA</t>
   </si>
   <si>
@@ -727,7 +754,10 @@
     <t>CO</t>
   </si>
   <si>
-    <t>80018</t>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>33032</t>
   </si>
   <si>
     <t>Success</t>
@@ -883,6 +913,9 @@
     <t>Rate: 594.06, Carrier: Estes Express Lines</t>
   </si>
   <si>
+    <t>Rate: 1446.86, Carrier: ABF Freight System VL</t>
+  </si>
+  <si>
     <t>API</t>
   </si>
   <si>
@@ -970,6 +1003,15 @@
     <t>CMM0937LCL0001_20250918200259</t>
   </si>
   <si>
+    <t>TRANSPORT_RATES_20250919081213</t>
+  </si>
+  <si>
+    <t>TRANSPORT_RATES_20250919081945</t>
+  </si>
+  <si>
+    <t>TRANSPORT_RATES_20250919113020</t>
+  </si>
+  <si>
     <t>ATL9</t>
   </si>
   <si>
@@ -1055,6 +1097,9 @@
   </si>
   <si>
     <t>18-09-2025</t>
+  </si>
+  <si>
+    <t>19-09-2025</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O115"/>
+  <dimension ref="A1:O118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1474,22 +1519,22 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E2">
         <v>29483</v>
       </c>
       <c r="F2" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="G2" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="H2">
         <v>28303</v>
@@ -1498,13 +1543,13 @@
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="L2" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1512,22 +1557,22 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E3">
         <v>7201</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G3" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="H3">
         <v>46140</v>
@@ -1536,13 +1581,13 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K3" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="L3" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1550,22 +1595,22 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E4">
         <v>90220</v>
       </c>
       <c r="F4" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="G4" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H4">
         <v>75241</v>
@@ -1574,13 +1619,13 @@
         <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K4" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="L4" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1588,22 +1633,22 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E5">
         <v>90220</v>
       </c>
       <c r="F5" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G5" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="H5">
         <v>85395</v>
@@ -1612,13 +1657,13 @@
         <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K5" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="L5" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1626,22 +1671,22 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E6">
         <v>90220</v>
       </c>
       <c r="F6" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G6" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="H6">
         <v>85043</v>
@@ -1650,13 +1695,13 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K6" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="L6" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1664,22 +1709,22 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E7">
         <v>29483</v>
       </c>
       <c r="F7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="G7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="H7">
         <v>30567</v>
@@ -1688,13 +1733,13 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="L7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1702,22 +1747,22 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E8">
         <v>7201</v>
       </c>
       <c r="F8" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G8" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="H8">
         <v>8873</v>
@@ -1726,13 +1771,13 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K8" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="L8" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1740,22 +1785,22 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E9">
         <v>77020</v>
       </c>
       <c r="F9" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="G9" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H9">
         <v>75007</v>
@@ -1764,10 +1809,10 @@
         <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K9" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1775,22 +1820,22 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E10">
         <v>7201</v>
       </c>
       <c r="F10" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="G10" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H10">
         <v>18105</v>
@@ -1799,10 +1844,10 @@
         <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K10" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1810,22 +1855,22 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E11">
         <v>7201</v>
       </c>
       <c r="F11" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="G11" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H11">
         <v>17112</v>
@@ -1834,10 +1879,10 @@
         <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K11" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1845,22 +1890,22 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E12">
         <v>7201</v>
       </c>
       <c r="F12" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G12" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H12">
         <v>18202</v>
@@ -1869,13 +1914,13 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K12" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="L12" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1883,22 +1928,22 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E13">
         <v>77020</v>
       </c>
       <c r="F13" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="G13" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H13">
         <v>75007</v>
@@ -1907,10 +1952,10 @@
         <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K13" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1918,22 +1963,22 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E14">
         <v>7201</v>
       </c>
       <c r="F14" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="G14" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H14">
         <v>18105</v>
@@ -1942,10 +1987,10 @@
         <v>100</v>
       </c>
       <c r="J14" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K14" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1953,22 +1998,22 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E15">
         <v>7201</v>
       </c>
       <c r="F15" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="G15" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H15">
         <v>17112</v>
@@ -1977,10 +2022,10 @@
         <v>100</v>
       </c>
       <c r="J15" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K15" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1988,22 +2033,22 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E16">
         <v>29483</v>
       </c>
       <c r="F16" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G16" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H16">
         <v>29330</v>
@@ -2012,10 +2057,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K16" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2023,22 +2068,22 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E17">
         <v>29483</v>
       </c>
       <c r="F17" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G17" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H17">
         <v>29330</v>
@@ -2047,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K17" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2058,22 +2103,22 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D18" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E18">
         <v>29483</v>
       </c>
       <c r="F18" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G18" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H18">
         <v>29330</v>
@@ -2082,10 +2127,10 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K18" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2093,22 +2138,22 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E19">
         <v>7201</v>
       </c>
       <c r="F19" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G19" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="H19">
         <v>46410</v>
@@ -2117,10 +2162,10 @@
         <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K19" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2128,22 +2173,22 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D20" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E20">
         <v>29483</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G20" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H20">
         <v>29330</v>
@@ -2152,10 +2197,10 @@
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K20" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2163,22 +2208,22 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E21">
         <v>7201</v>
       </c>
       <c r="F21" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G21" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="H21">
         <v>46410</v>
@@ -2187,10 +2232,10 @@
         <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K21" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2198,22 +2243,22 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E22">
         <v>7201</v>
       </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G22" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="H22">
         <v>46410</v>
@@ -2222,10 +2267,10 @@
         <v>19</v>
       </c>
       <c r="J22" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K22" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2233,22 +2278,22 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E23">
         <v>7201</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="G23" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="H23">
         <v>48917</v>
@@ -2257,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K23" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2268,22 +2313,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D24" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="G24" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H24">
         <v>60433</v>
@@ -2292,10 +2337,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K24" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2303,22 +2348,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E25">
         <v>7201</v>
       </c>
       <c r="F25" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="G25" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="H25">
         <v>46809</v>
@@ -2327,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K25" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2338,22 +2383,22 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E26">
         <v>7201</v>
       </c>
       <c r="F26" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="G26" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="H26">
         <v>48917</v>
@@ -2362,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K26" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2373,22 +2418,22 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D27" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="G27" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H27">
         <v>60433</v>
@@ -2397,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K27" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2408,22 +2453,22 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D28" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E28">
         <v>7201</v>
       </c>
       <c r="F28" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="G28" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="H28">
         <v>46809</v>
@@ -2432,10 +2477,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K28" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2443,22 +2488,22 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D29" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="G29" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H29">
         <v>60433</v>
@@ -2467,10 +2512,10 @@
         <v>9</v>
       </c>
       <c r="J29" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K29" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2478,22 +2523,22 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E30">
         <v>7201</v>
       </c>
       <c r="F30" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G30" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="H30">
         <v>48917</v>
@@ -2502,13 +2547,13 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K30" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2516,22 +2561,22 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D31" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="G31" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H31">
         <v>60433</v>
@@ -2540,10 +2585,10 @@
         <v>9</v>
       </c>
       <c r="J31" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K31" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2551,22 +2596,22 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D32" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E32">
         <v>7201</v>
       </c>
       <c r="F32" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="G32" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="H32">
         <v>46809</v>
@@ -2575,13 +2620,13 @@
         <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K32" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="L32" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2589,22 +2634,22 @@
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D33" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E33">
         <v>7201</v>
       </c>
       <c r="F33" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G33" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="H33">
         <v>48917</v>
@@ -2613,13 +2658,13 @@
         <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K33" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2627,22 +2672,22 @@
         <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D34" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="G34" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H34">
         <v>60433</v>
@@ -2651,10 +2696,10 @@
         <v>9</v>
       </c>
       <c r="J34" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K34" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2662,22 +2707,22 @@
         <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D35" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E35">
         <v>7201</v>
       </c>
       <c r="F35" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="G35" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="H35">
         <v>46809</v>
@@ -2686,13 +2731,13 @@
         <v>10</v>
       </c>
       <c r="J35" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K35" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="L35" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2700,22 +2745,22 @@
         <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D36" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="G36" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H36">
         <v>60433</v>
@@ -2724,10 +2769,10 @@
         <v>9</v>
       </c>
       <c r="J36" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K36" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2735,22 +2780,22 @@
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D37" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E37">
         <v>90220</v>
       </c>
       <c r="F37" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="G37" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="H37">
         <v>89044</v>
@@ -2759,13 +2804,13 @@
         <v>10</v>
       </c>
       <c r="J37" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K37" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="L37" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2773,22 +2818,22 @@
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D38" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E38">
         <v>90220</v>
       </c>
       <c r="F38" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G38" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="H38">
         <v>85395</v>
@@ -2797,13 +2842,13 @@
         <v>9</v>
       </c>
       <c r="J38" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K38" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="L38" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2811,22 +2856,22 @@
         <v>24</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D39" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="G39" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H39">
         <v>60433</v>
@@ -2835,10 +2880,10 @@
         <v>9</v>
       </c>
       <c r="J39" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K39" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2846,22 +2891,22 @@
         <v>24</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D40" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="G40" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="H40">
         <v>60433</v>
@@ -2870,10 +2915,10 @@
         <v>9</v>
       </c>
       <c r="J40" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K40" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2881,22 +2926,22 @@
         <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D41" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E41">
         <v>7201</v>
       </c>
       <c r="F41" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="G41" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H41">
         <v>15672</v>
@@ -2905,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K41" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2916,22 +2961,22 @@
         <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C42" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D42" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E42">
         <v>7201</v>
       </c>
       <c r="F42" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="G42" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H42">
         <v>15672</v>
@@ -2940,10 +2985,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K42" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2951,22 +2996,22 @@
         <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C43" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D43" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E43">
         <v>7201</v>
       </c>
       <c r="F43" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="G43" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H43">
         <v>15672</v>
@@ -2975,10 +3020,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K43" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2986,22 +3031,22 @@
         <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D44" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E44">
         <v>7201</v>
       </c>
       <c r="F44" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G44" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H44">
         <v>15672</v>
@@ -3010,13 +3055,13 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K44" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="L44" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3024,22 +3069,22 @@
         <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C45" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D45" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E45">
         <v>7201</v>
       </c>
       <c r="F45" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G45" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H45">
         <v>15672</v>
@@ -3048,13 +3093,13 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K45" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="L45" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3062,22 +3107,22 @@
         <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C46" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D46" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E46">
         <v>29483</v>
       </c>
       <c r="F46" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G46" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H46">
         <v>29330</v>
@@ -3086,13 +3131,13 @@
         <v>7</v>
       </c>
       <c r="J46" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K46" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="L46" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3100,22 +3145,22 @@
         <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C47" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D47" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E47">
         <v>29483</v>
       </c>
       <c r="F47" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G47" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H47">
         <v>29330</v>
@@ -3124,13 +3169,13 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K47" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="L47" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3138,22 +3183,22 @@
         <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D48" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E48">
         <v>29483</v>
       </c>
       <c r="F48" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G48" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H48">
         <v>29330</v>
@@ -3162,13 +3207,13 @@
         <v>5</v>
       </c>
       <c r="J48" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K48" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="L48" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3176,22 +3221,22 @@
         <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C49" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D49" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E49">
         <v>29483</v>
       </c>
       <c r="F49" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G49" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H49">
         <v>29330</v>
@@ -3200,13 +3245,13 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K49" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="L49" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3214,22 +3259,22 @@
         <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D50" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E50">
         <v>29483</v>
       </c>
       <c r="F50" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G50" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H50">
         <v>29330</v>
@@ -3238,13 +3283,13 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K50" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="L50" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3252,22 +3297,22 @@
         <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D51" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E51">
         <v>7201</v>
       </c>
       <c r="F51" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G51" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H51">
         <v>15672</v>
@@ -3276,13 +3321,13 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K51" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="L51" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3290,22 +3335,22 @@
         <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D52" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E52">
         <v>29483</v>
       </c>
       <c r="F52" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G52" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H52">
         <v>29330</v>
@@ -3314,13 +3359,13 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K52" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="L52" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3328,22 +3373,22 @@
         <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D53" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E53">
         <v>29483</v>
       </c>
       <c r="F53" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G53" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H53">
         <v>29330</v>
@@ -3352,13 +3397,13 @@
         <v>9</v>
       </c>
       <c r="J53" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K53" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="L53" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3366,22 +3411,22 @@
         <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D54" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E54">
         <v>7201</v>
       </c>
       <c r="F54" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="G54" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H54">
         <v>15672</v>
@@ -3390,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K54" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3401,22 +3446,22 @@
         <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C55" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D55" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E55">
         <v>7201</v>
       </c>
       <c r="F55" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G55" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H55">
         <v>18202</v>
@@ -3425,13 +3470,13 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K55" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="L55" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3439,22 +3484,22 @@
         <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D56" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E56">
         <v>7201</v>
       </c>
       <c r="F56" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G56" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="H56">
         <v>22406</v>
@@ -3463,13 +3508,13 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K56" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="L56" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3477,22 +3522,22 @@
         <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C57" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D57" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E57">
         <v>90220</v>
       </c>
       <c r="F57" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G57" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="H57">
         <v>85043</v>
@@ -3501,13 +3546,13 @@
         <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K57" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="L57" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3515,22 +3560,22 @@
         <v>34</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D58" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E58">
         <v>90220</v>
       </c>
       <c r="F58" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G58" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="H58">
         <v>85395</v>
@@ -3539,13 +3584,13 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K58" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="L58" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3553,22 +3598,22 @@
         <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D59" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E59">
         <v>7201</v>
       </c>
       <c r="F59" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G59" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H59">
         <v>18202</v>
@@ -3577,13 +3622,13 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K59" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="L59" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3591,22 +3636,22 @@
         <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C60" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D60" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E60">
         <v>7201</v>
       </c>
       <c r="F60" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G60" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="H60">
         <v>22406</v>
@@ -3615,13 +3660,13 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K60" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="L60" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3629,22 +3674,22 @@
         <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D61" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E61">
         <v>7201</v>
       </c>
       <c r="F61" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G61" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H61">
         <v>18202</v>
@@ -3653,13 +3698,13 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K61" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="L61" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3667,22 +3712,22 @@
         <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C62" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D62" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E62">
         <v>7201</v>
       </c>
       <c r="F62" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G62" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="H62">
         <v>22406</v>
@@ -3691,13 +3736,13 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K62" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="L62" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3705,22 +3750,22 @@
         <v>33</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C63" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D63" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E63">
         <v>90220</v>
       </c>
       <c r="F63" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="G63" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H63">
         <v>75241</v>
@@ -3729,13 +3774,13 @@
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K63" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="L63" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3743,22 +3788,22 @@
         <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D64" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E64">
         <v>90220</v>
       </c>
       <c r="F64" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="G64" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="H64">
         <v>85043</v>
@@ -3767,13 +3812,13 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K64" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="L64" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3781,22 +3826,22 @@
         <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C65" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D65" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E65">
         <v>90220</v>
       </c>
       <c r="F65" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G65" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="H65">
         <v>85395</v>
@@ -3805,13 +3850,13 @@
         <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K65" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="L65" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3819,22 +3864,22 @@
         <v>34</v>
       </c>
       <c r="B66" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C66" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D66" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E66">
         <v>90220</v>
       </c>
       <c r="F66" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="G66" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H66">
         <v>75241</v>
@@ -3843,13 +3888,13 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K66" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="L66" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3857,22 +3902,22 @@
         <v>33</v>
       </c>
       <c r="B67" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C67" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D67" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E67">
         <v>7201</v>
       </c>
       <c r="F67" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G67" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H67">
         <v>18202</v>
@@ -3881,13 +3926,13 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K67" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="L67" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -3895,22 +3940,22 @@
         <v>33</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C68" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D68" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E68">
         <v>7201</v>
       </c>
       <c r="F68" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="G68" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="H68">
         <v>22406</v>
@@ -3919,13 +3964,13 @@
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K68" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="L68" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -3933,22 +3978,22 @@
         <v>35</v>
       </c>
       <c r="B69" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C69" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D69" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E69">
         <v>29483</v>
       </c>
       <c r="F69" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G69" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="H69">
         <v>30096</v>
@@ -3957,10 +4002,10 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K69" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -3968,22 +4013,22 @@
         <v>35</v>
       </c>
       <c r="B70" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D70" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E70">
         <v>29483</v>
       </c>
       <c r="F70" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G70" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="H70">
         <v>30096</v>
@@ -3992,10 +4037,10 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K70" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4003,22 +4048,22 @@
         <v>36</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C71" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D71" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E71">
         <v>90220</v>
       </c>
       <c r="F71" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="G71" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H71">
         <v>91752</v>
@@ -4027,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K71" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4038,22 +4083,22 @@
         <v>37</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C72" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D72" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E72">
         <v>7201</v>
       </c>
       <c r="F72" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="G72" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="H72">
         <v>21740</v>
@@ -4062,13 +4107,13 @@
         <v>5</v>
       </c>
       <c r="J72" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K72" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="L72" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4076,22 +4121,22 @@
         <v>38</v>
       </c>
       <c r="B73" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C73" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D73" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E73">
         <v>29483</v>
       </c>
       <c r="F73" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G73" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="H73">
         <v>38654</v>
@@ -4100,13 +4145,13 @@
         <v>6</v>
       </c>
       <c r="J73" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K73" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="L73" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4114,22 +4159,22 @@
         <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C74" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D74" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E74">
         <v>7201</v>
       </c>
       <c r="F74" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G74" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H74">
         <v>18447</v>
@@ -4138,10 +4183,10 @@
         <v>18</v>
       </c>
       <c r="J74" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K74" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4149,22 +4194,22 @@
         <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D75" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E75">
         <v>29483</v>
       </c>
       <c r="F75" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="G75" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="H75">
         <v>28134</v>
@@ -4173,13 +4218,13 @@
         <v>4</v>
       </c>
       <c r="J75" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K75" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="L75" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4187,22 +4232,22 @@
         <v>35</v>
       </c>
       <c r="B76" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C76" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D76" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E76">
         <v>29483</v>
       </c>
       <c r="F76" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G76" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="H76">
         <v>30096</v>
@@ -4211,10 +4256,10 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K76" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4222,22 +4267,22 @@
         <v>35</v>
       </c>
       <c r="B77" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C77" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D77" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E77">
         <v>29483</v>
       </c>
       <c r="F77" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G77" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="H77">
         <v>30096</v>
@@ -4246,10 +4291,10 @@
         <v>16</v>
       </c>
       <c r="J77" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K77" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4257,22 +4302,22 @@
         <v>41</v>
       </c>
       <c r="B78" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C78" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D78" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E78">
         <v>7201</v>
       </c>
       <c r="F78" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G78" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H78">
         <v>15672</v>
@@ -4281,13 +4326,13 @@
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K78" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="L78" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4295,22 +4340,22 @@
         <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C79" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D79" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E79">
         <v>7201</v>
       </c>
       <c r="F79" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G79" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H79">
         <v>15672</v>
@@ -4319,13 +4364,13 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K79" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="L79" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4333,22 +4378,22 @@
         <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C80" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D80" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E80">
         <v>29483</v>
       </c>
       <c r="F80" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="G80" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="H80">
         <v>30096</v>
@@ -4357,19 +4402,19 @@
         <v>16</v>
       </c>
       <c r="J80" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K80" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="M80" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="N80" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="O80" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4377,22 +4422,22 @@
         <v>43</v>
       </c>
       <c r="B81" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C81" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D81" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E81">
         <v>7201</v>
       </c>
       <c r="F81" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="G81" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H81">
         <v>17057</v>
@@ -4401,22 +4446,22 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K81" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="L81" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M81" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="N81" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="O81" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4424,22 +4469,22 @@
         <v>44</v>
       </c>
       <c r="B82" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C82" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D82" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E82">
         <v>29483</v>
       </c>
       <c r="F82" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G82" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H82">
         <v>29330</v>
@@ -4448,22 +4493,22 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K82" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="L82" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M82" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="N82" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="O82" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4471,22 +4516,22 @@
         <v>45</v>
       </c>
       <c r="B83" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C83" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D83" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E83">
         <v>7201</v>
       </c>
       <c r="F83" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G83" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H83">
         <v>15672</v>
@@ -4495,19 +4540,19 @@
         <v>4</v>
       </c>
       <c r="J83" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K83" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="L83" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="M83" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="N83" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="O83" s="2">
         <v>45897</v>
@@ -4518,22 +4563,22 @@
         <v>38</v>
       </c>
       <c r="B84" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C84" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D84" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E84">
         <v>29483</v>
       </c>
       <c r="F84" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G84" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="H84">
         <v>38654</v>
@@ -4542,22 +4587,22 @@
         <v>6</v>
       </c>
       <c r="J84" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K84" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="L84" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M84" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="N84" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="O84" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4565,22 +4610,22 @@
         <v>39</v>
       </c>
       <c r="B85" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C85" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D85" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E85">
         <v>7201</v>
       </c>
       <c r="F85" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G85" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H85">
         <v>18447</v>
@@ -4589,19 +4634,19 @@
         <v>18</v>
       </c>
       <c r="J85" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K85" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="M85" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="N85" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="O85" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4609,22 +4654,22 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C86" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D86" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E86">
         <v>29483</v>
       </c>
       <c r="F86" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="G86" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="H86">
         <v>30567</v>
@@ -4633,22 +4678,22 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K86" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="L86" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M86" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="N86" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="O86" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4656,22 +4701,22 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C87" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D87" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E87">
         <v>7201</v>
       </c>
       <c r="F87" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G87" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="H87">
         <v>8873</v>
@@ -4680,19 +4725,19 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K87" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="L87" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="M87" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="N87" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="O87" s="2">
         <v>45897</v>
@@ -4703,22 +4748,22 @@
         <v>46</v>
       </c>
       <c r="B88" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C88" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D88" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E88">
         <v>90220</v>
       </c>
       <c r="F88" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="G88" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H88">
         <v>75241</v>
@@ -4727,22 +4772,22 @@
         <v>4</v>
       </c>
       <c r="J88" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K88" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="L88" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M88" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="N88" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="O88" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -4750,22 +4795,22 @@
         <v>46</v>
       </c>
       <c r="B89" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C89" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D89" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E89">
         <v>90220</v>
       </c>
       <c r="F89" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="G89" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H89">
         <v>95206</v>
@@ -4774,22 +4819,22 @@
         <v>5</v>
       </c>
       <c r="J89" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K89" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="L89" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M89" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="N89" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="O89" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -4797,22 +4842,22 @@
         <v>47</v>
       </c>
       <c r="B90" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C90" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D90" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E90">
         <v>29483</v>
       </c>
       <c r="F90" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="G90" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="H90">
         <v>38118</v>
@@ -4821,22 +4866,22 @@
         <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K90" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="L90" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M90" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="N90" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="O90" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -4844,22 +4889,22 @@
         <v>47</v>
       </c>
       <c r="B91" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C91" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D91" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E91">
         <v>7201</v>
       </c>
       <c r="F91" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="G91" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="H91">
         <v>46809</v>
@@ -4868,19 +4913,19 @@
         <v>5</v>
       </c>
       <c r="J91" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K91" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="L91" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="M91" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="N91" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="O91" s="2">
         <v>45897</v>
@@ -4891,22 +4936,22 @@
         <v>47</v>
       </c>
       <c r="B92" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C92" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D92" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E92">
         <v>7201</v>
       </c>
       <c r="F92" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G92" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="H92">
         <v>48917</v>
@@ -4915,19 +4960,19 @@
         <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K92" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="L92" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="M92" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="N92" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="O92" s="2">
         <v>45897</v>
@@ -4938,22 +4983,22 @@
         <v>47</v>
       </c>
       <c r="B93" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C93" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D93" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E93">
         <v>29483</v>
       </c>
       <c r="F93" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="G93" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="H93">
         <v>38118</v>
@@ -4962,22 +5007,22 @@
         <v>4</v>
       </c>
       <c r="J93" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K93" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="L93" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M93" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="N93" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="O93" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -4985,22 +5030,22 @@
         <v>47</v>
       </c>
       <c r="B94" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C94" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D94" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E94">
         <v>7201</v>
       </c>
       <c r="F94" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="G94" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="H94">
         <v>46809</v>
@@ -5009,19 +5054,19 @@
         <v>5</v>
       </c>
       <c r="J94" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K94" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="L94" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="M94" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="N94" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="O94" s="2">
         <v>45897</v>
@@ -5032,22 +5077,22 @@
         <v>47</v>
       </c>
       <c r="B95" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C95" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D95" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E95">
         <v>7201</v>
       </c>
       <c r="F95" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G95" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="H95">
         <v>48917</v>
@@ -5056,19 +5101,19 @@
         <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K95" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="L95" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="M95" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="N95" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="O95" s="2">
         <v>45897</v>
@@ -5079,22 +5124,22 @@
         <v>47</v>
       </c>
       <c r="B96" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C96" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D96" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E96">
         <v>7201</v>
       </c>
       <c r="F96" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="G96" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="H96">
         <v>46809</v>
@@ -5103,19 +5148,19 @@
         <v>5</v>
       </c>
       <c r="J96" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K96" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="L96" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="M96" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="N96" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="O96" s="2">
         <v>45897</v>
@@ -5126,22 +5171,22 @@
         <v>47</v>
       </c>
       <c r="B97" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C97" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D97" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E97">
         <v>7201</v>
       </c>
       <c r="F97" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G97" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="H97">
         <v>48917</v>
@@ -5150,19 +5195,19 @@
         <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K97" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="L97" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="M97" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="N97" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="O97" s="2">
         <v>45897</v>
@@ -5173,22 +5218,22 @@
         <v>48</v>
       </c>
       <c r="B98" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C98" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D98" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E98">
         <v>29483</v>
       </c>
       <c r="F98" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="G98" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="H98">
         <v>38118</v>
@@ -5197,22 +5242,22 @@
         <v>4</v>
       </c>
       <c r="J98" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K98" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="L98" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M98" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="N98" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="O98" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -5220,22 +5265,22 @@
         <v>49</v>
       </c>
       <c r="B99" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C99" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D99" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E99">
         <v>7201</v>
       </c>
       <c r="F99" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G99" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H99">
         <v>18031</v>
@@ -5244,22 +5289,22 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K99" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="L99" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M99" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="N99" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="O99" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -5267,22 +5312,22 @@
         <v>50</v>
       </c>
       <c r="B100" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C100" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D100" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E100">
         <v>7201</v>
       </c>
       <c r="F100" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="G100" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H100">
         <v>18447</v>
@@ -5291,22 +5336,22 @@
         <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K100" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="L100" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M100" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="N100" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="O100" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -5314,22 +5359,22 @@
         <v>51</v>
       </c>
       <c r="B101" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C101" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D101" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E101">
         <v>7201</v>
       </c>
       <c r="F101" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G101" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H101">
         <v>15672</v>
@@ -5338,19 +5383,19 @@
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K101" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="L101" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="M101" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="N101" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="O101" s="2">
         <v>45897</v>
@@ -5361,22 +5406,22 @@
         <v>52</v>
       </c>
       <c r="B102" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C102" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D102" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E102">
         <v>7201</v>
       </c>
       <c r="F102" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G102" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H102">
         <v>18031</v>
@@ -5385,22 +5430,22 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K102" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="L102" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M102" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="N102" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="O102" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -5408,22 +5453,22 @@
         <v>53</v>
       </c>
       <c r="B103" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C103" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D103" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E103">
         <v>7201</v>
       </c>
       <c r="F103" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G103" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H103">
         <v>18031</v>
@@ -5432,22 +5477,22 @@
         <v>3</v>
       </c>
       <c r="J103" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K103" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="L103" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M103" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="N103" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="O103" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -5455,22 +5500,22 @@
         <v>54</v>
       </c>
       <c r="B104" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C104" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D104" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E104">
         <v>29483</v>
       </c>
       <c r="F104" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="G104" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="H104">
         <v>28303</v>
@@ -5479,22 +5524,22 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K104" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="L104" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M104" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="N104" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="O104" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -5502,22 +5547,22 @@
         <v>55</v>
       </c>
       <c r="B105" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C105" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D105" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E105">
         <v>7201</v>
       </c>
       <c r="F105" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G105" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H105">
         <v>18031</v>
@@ -5526,22 +5571,22 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K105" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="L105" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M105" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="N105" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="O105" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -5549,22 +5594,22 @@
         <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C106" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D106" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E106">
         <v>7201</v>
       </c>
       <c r="F106" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="G106" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="H106">
         <v>8518</v>
@@ -5573,19 +5618,19 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K106" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="L106" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="M106" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="N106" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="O106" s="2">
         <v>45897</v>
@@ -5596,22 +5641,22 @@
         <v>57</v>
       </c>
       <c r="B107" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C107" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D107" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E107">
         <v>29483</v>
       </c>
       <c r="F107" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="G107" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="H107">
         <v>28303</v>
@@ -5620,22 +5665,22 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K107" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="L107" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M107" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="N107" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="O107" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -5643,22 +5688,22 @@
         <v>58</v>
       </c>
       <c r="B108" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C108" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D108" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E108">
         <v>7201</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G108" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H108">
         <v>15672</v>
@@ -5667,19 +5712,19 @@
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K108" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="L108" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="M108" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="N108" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="O108" s="2">
         <v>45897</v>
@@ -5690,22 +5735,22 @@
         <v>59</v>
       </c>
       <c r="B109" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C109" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D109" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E109">
         <v>7201</v>
       </c>
       <c r="F109" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G109" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H109">
         <v>18031</v>
@@ -5714,22 +5759,22 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K109" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="L109" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M109" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="N109" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="O109" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -5737,22 +5782,22 @@
         <v>58</v>
       </c>
       <c r="B110" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C110" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D110" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E110">
         <v>7201</v>
       </c>
       <c r="F110" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="G110" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H110">
         <v>15672</v>
@@ -5761,19 +5806,19 @@
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K110" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="L110" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="M110" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="N110" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="O110" s="2">
         <v>45897</v>
@@ -5784,22 +5829,22 @@
         <v>55</v>
       </c>
       <c r="B111" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C111" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D111" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E111">
         <v>7201</v>
       </c>
       <c r="F111" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="G111" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="H111">
         <v>18031</v>
@@ -5808,22 +5853,22 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K111" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="L111" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M111" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="N111" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="O111" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
     </row>
     <row r="112" spans="1:15">
@@ -5831,22 +5876,22 @@
         <v>60</v>
       </c>
       <c r="B112" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C112" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D112" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E112">
         <v>90220</v>
       </c>
       <c r="F112" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G112" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H112">
         <v>98327</v>
@@ -5855,22 +5900,22 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K112" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="L112" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M112" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="N112" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="O112" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
     </row>
     <row r="113" spans="1:15">
@@ -5878,22 +5923,22 @@
         <v>60</v>
       </c>
       <c r="B113" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C113" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D113" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E113">
         <v>90220</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="G113" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="H113">
         <v>80018</v>
@@ -5902,19 +5947,19 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K113" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="L113" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="M113" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="N113" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="O113" s="2">
         <v>45897</v>
@@ -5925,22 +5970,22 @@
         <v>60</v>
       </c>
       <c r="B114" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C114" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D114" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E114">
         <v>90220</v>
       </c>
       <c r="F114" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="G114" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="H114">
         <v>98327</v>
@@ -5949,22 +5994,22 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K114" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="L114" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M114" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="N114" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="O114" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -5972,46 +6017,181 @@
         <v>60</v>
       </c>
       <c r="B115" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C115" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D115" t="s">
-        <v>184</v>
-      </c>
-      <c r="E115" t="s">
-        <v>187</v>
+        <v>190</v>
+      </c>
+      <c r="E115">
+        <v>90220</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="G115" t="s">
-        <v>236</v>
-      </c>
-      <c r="H115" t="s">
-        <v>237</v>
+        <v>245</v>
+      </c>
+      <c r="H115">
+        <v>80018</v>
       </c>
       <c r="I115">
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="K115" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="L115" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="M115" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="N115" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="O115" s="2">
         <v>45897</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" t="s">
+        <v>61</v>
+      </c>
+      <c r="B116" t="s">
+        <v>176</v>
+      </c>
+      <c r="C116" t="s">
+        <v>186</v>
+      </c>
+      <c r="D116" t="s">
+        <v>193</v>
+      </c>
+      <c r="E116">
+        <v>7201</v>
+      </c>
+      <c r="F116" t="s">
+        <v>231</v>
+      </c>
+      <c r="G116" t="s">
+        <v>241</v>
+      </c>
+      <c r="H116">
+        <v>21901</v>
+      </c>
+      <c r="I116">
+        <v>20</v>
+      </c>
+      <c r="J116" t="s">
+        <v>249</v>
+      </c>
+      <c r="K116" t="s">
+        <v>257</v>
+      </c>
+      <c r="M116" t="s">
+        <v>329</v>
+      </c>
+      <c r="N116" t="s">
+        <v>61</v>
+      </c>
+      <c r="O116" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" t="s">
+        <v>61</v>
+      </c>
+      <c r="B117" t="s">
+        <v>177</v>
+      </c>
+      <c r="C117" t="s">
+        <v>187</v>
+      </c>
+      <c r="D117" t="s">
+        <v>194</v>
+      </c>
+      <c r="E117">
+        <v>583229</v>
+      </c>
+      <c r="F117" t="s">
+        <v>231</v>
+      </c>
+      <c r="G117" t="s">
+        <v>241</v>
+      </c>
+      <c r="H117">
+        <v>21901</v>
+      </c>
+      <c r="I117">
+        <v>20</v>
+      </c>
+      <c r="J117" t="s">
+        <v>249</v>
+      </c>
+      <c r="K117" t="s">
+        <v>257</v>
+      </c>
+      <c r="M117" t="s">
+        <v>330</v>
+      </c>
+      <c r="N117" t="s">
+        <v>61</v>
+      </c>
+      <c r="O117" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" t="s">
+        <v>61</v>
+      </c>
+      <c r="B118" t="s">
+        <v>178</v>
+      </c>
+      <c r="C118" t="s">
+        <v>186</v>
+      </c>
+      <c r="D118" t="s">
+        <v>193</v>
+      </c>
+      <c r="E118" t="s">
+        <v>195</v>
+      </c>
+      <c r="F118" t="s">
+        <v>232</v>
+      </c>
+      <c r="G118" t="s">
+        <v>246</v>
+      </c>
+      <c r="H118" t="s">
+        <v>247</v>
+      </c>
+      <c r="I118">
+        <v>6</v>
+      </c>
+      <c r="J118" t="s">
+        <v>248</v>
+      </c>
+      <c r="K118" t="s">
+        <v>299</v>
+      </c>
+      <c r="L118" t="s">
+        <v>300</v>
+      </c>
+      <c r="M118" t="s">
+        <v>331</v>
+      </c>
+      <c r="N118" t="s">
+        <v>61</v>
+      </c>
+      <c r="O118" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/heyprimo_api_tracking.xlsx
+++ b/Logs/heyprimo_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="370">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -553,6 +553,12 @@
     <t>2025-09-19 11:30:34</t>
   </si>
   <si>
+    <t>2025-09-23 10:58:14</t>
+  </si>
+  <si>
+    <t>2025-09-23 12:04:01</t>
+  </si>
+  <si>
     <t>CHARLESTON</t>
   </si>
   <si>
@@ -715,6 +721,9 @@
     <t>HOMESTEAD</t>
   </si>
   <si>
+    <t>ELK GROVE VILLAGE</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
@@ -757,7 +766,7 @@
     <t>FL</t>
   </si>
   <si>
-    <t>33032</t>
+    <t>60007</t>
   </si>
   <si>
     <t>Success</t>
@@ -916,6 +925,12 @@
     <t>Rate: 1446.86, Carrier: ABF Freight System VL</t>
   </si>
   <si>
+    <t>Rate: 570.42, Carrier: Estes Express Lines VL</t>
+  </si>
+  <si>
+    <t>Rate: 809.8, Carrier: ABF Freight System VL</t>
+  </si>
+  <si>
     <t>API</t>
   </si>
   <si>
@@ -1012,6 +1027,12 @@
     <t>TRANSPORT_RATES_20250919113020</t>
   </si>
   <si>
+    <t>TRANSPORT_RATES_20250923105802</t>
+  </si>
+  <si>
+    <t>TRANSPORT_RATES_20250923120352</t>
+  </si>
+  <si>
     <t>ATL9</t>
   </si>
   <si>
@@ -1100,6 +1121,9 @@
   </si>
   <si>
     <t>19-09-2025</t>
+  </si>
+  <si>
+    <t>23-09-2025</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O118"/>
+  <dimension ref="A1:O120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1522,19 +1546,19 @@
         <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E2">
         <v>29483</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H2">
         <v>28303</v>
@@ -1543,13 +1567,13 @@
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1560,19 +1584,19 @@
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E3">
         <v>7201</v>
       </c>
       <c r="F3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H3">
         <v>46140</v>
@@ -1581,13 +1605,13 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L3" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1598,19 +1622,19 @@
         <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E4">
         <v>90220</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H4">
         <v>75241</v>
@@ -1619,13 +1643,13 @@
         <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L4" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1636,19 +1660,19 @@
         <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E5">
         <v>90220</v>
       </c>
       <c r="F5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G5" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H5">
         <v>85395</v>
@@ -1657,13 +1681,13 @@
         <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L5" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1674,19 +1698,19 @@
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E6">
         <v>90220</v>
       </c>
       <c r="F6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G6" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H6">
         <v>85043</v>
@@ -1695,13 +1719,13 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K6" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L6" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1712,19 +1736,19 @@
         <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E7">
         <v>29483</v>
       </c>
       <c r="F7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H7">
         <v>30567</v>
@@ -1733,13 +1757,13 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1750,19 +1774,19 @@
         <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E8">
         <v>7201</v>
       </c>
       <c r="F8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H8">
         <v>8873</v>
@@ -1771,13 +1795,13 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L8" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1788,19 +1812,19 @@
         <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E9">
         <v>77020</v>
       </c>
       <c r="F9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H9">
         <v>75007</v>
@@ -1809,10 +1833,10 @@
         <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K9" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1823,19 +1847,19 @@
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E10">
         <v>7201</v>
       </c>
       <c r="F10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H10">
         <v>18105</v>
@@ -1844,10 +1868,10 @@
         <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K10" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1858,19 +1882,19 @@
         <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E11">
         <v>7201</v>
       </c>
       <c r="F11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G11" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H11">
         <v>17112</v>
@@ -1879,10 +1903,10 @@
         <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K11" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1893,19 +1917,19 @@
         <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E12">
         <v>7201</v>
       </c>
       <c r="F12" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G12" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H12">
         <v>18202</v>
@@ -1914,13 +1938,13 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K12" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L12" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1931,19 +1955,19 @@
         <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E13">
         <v>77020</v>
       </c>
       <c r="F13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H13">
         <v>75007</v>
@@ -1952,10 +1976,10 @@
         <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K13" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1966,19 +1990,19 @@
         <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E14">
         <v>7201</v>
       </c>
       <c r="F14" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G14" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H14">
         <v>18105</v>
@@ -1987,10 +2011,10 @@
         <v>100</v>
       </c>
       <c r="J14" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K14" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2001,19 +2025,19 @@
         <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E15">
         <v>7201</v>
       </c>
       <c r="F15" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G15" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H15">
         <v>17112</v>
@@ -2022,10 +2046,10 @@
         <v>100</v>
       </c>
       <c r="J15" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K15" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2036,19 +2060,19 @@
         <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E16">
         <v>29483</v>
       </c>
       <c r="F16" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H16">
         <v>29330</v>
@@ -2057,10 +2081,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K16" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -2071,19 +2095,19 @@
         <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E17">
         <v>29483</v>
       </c>
       <c r="F17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H17">
         <v>29330</v>
@@ -2092,10 +2116,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K17" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2106,19 +2130,19 @@
         <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E18">
         <v>29483</v>
       </c>
       <c r="F18" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H18">
         <v>29330</v>
@@ -2127,10 +2151,10 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K18" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2141,19 +2165,19 @@
         <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E19">
         <v>7201</v>
       </c>
       <c r="F19" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G19" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H19">
         <v>46410</v>
@@ -2162,10 +2186,10 @@
         <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K19" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2176,19 +2200,19 @@
         <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E20">
         <v>29483</v>
       </c>
       <c r="F20" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H20">
         <v>29330</v>
@@ -2197,10 +2221,10 @@
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K20" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2211,19 +2235,19 @@
         <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D21" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E21">
         <v>7201</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G21" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H21">
         <v>46410</v>
@@ -2232,10 +2256,10 @@
         <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K21" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2246,19 +2270,19 @@
         <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D22" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E22">
         <v>7201</v>
       </c>
       <c r="F22" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G22" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H22">
         <v>46410</v>
@@ -2267,10 +2291,10 @@
         <v>19</v>
       </c>
       <c r="J22" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K22" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2281,19 +2305,19 @@
         <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E23">
         <v>7201</v>
       </c>
       <c r="F23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H23">
         <v>48917</v>
@@ -2302,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K23" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2316,19 +2340,19 @@
         <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H24">
         <v>60433</v>
@@ -2337,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K24" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2351,19 +2375,19 @@
         <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E25">
         <v>7201</v>
       </c>
       <c r="F25" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H25">
         <v>46809</v>
@@ -2372,10 +2396,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K25" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2386,19 +2410,19 @@
         <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E26">
         <v>7201</v>
       </c>
       <c r="F26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G26" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H26">
         <v>48917</v>
@@ -2407,10 +2431,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K26" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -2421,19 +2445,19 @@
         <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H27">
         <v>60433</v>
@@ -2442,10 +2466,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K27" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2456,19 +2480,19 @@
         <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E28">
         <v>7201</v>
       </c>
       <c r="F28" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G28" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H28">
         <v>46809</v>
@@ -2477,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K28" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -2491,19 +2515,19 @@
         <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D29" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G29" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H29">
         <v>60433</v>
@@ -2512,10 +2536,10 @@
         <v>9</v>
       </c>
       <c r="J29" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K29" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -2526,19 +2550,19 @@
         <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E30">
         <v>7201</v>
       </c>
       <c r="F30" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G30" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H30">
         <v>48917</v>
@@ -2547,13 +2571,13 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K30" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -2564,19 +2588,19 @@
         <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D31" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G31" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H31">
         <v>60433</v>
@@ -2585,10 +2609,10 @@
         <v>9</v>
       </c>
       <c r="J31" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K31" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2599,19 +2623,19 @@
         <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D32" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E32">
         <v>7201</v>
       </c>
       <c r="F32" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G32" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H32">
         <v>46809</v>
@@ -2620,13 +2644,13 @@
         <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K32" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L32" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2637,19 +2661,19 @@
         <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E33">
         <v>7201</v>
       </c>
       <c r="F33" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G33" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H33">
         <v>48917</v>
@@ -2658,13 +2682,13 @@
         <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K33" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L33" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2675,19 +2699,19 @@
         <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H34">
         <v>60433</v>
@@ -2696,10 +2720,10 @@
         <v>9</v>
       </c>
       <c r="J34" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K34" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2710,19 +2734,19 @@
         <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D35" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E35">
         <v>7201</v>
       </c>
       <c r="F35" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G35" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H35">
         <v>46809</v>
@@ -2731,13 +2755,13 @@
         <v>10</v>
       </c>
       <c r="J35" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K35" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L35" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2748,19 +2772,19 @@
         <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D36" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G36" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H36">
         <v>60433</v>
@@ -2769,10 +2793,10 @@
         <v>9</v>
       </c>
       <c r="J36" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K36" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2783,19 +2807,19 @@
         <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D37" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E37">
         <v>90220</v>
       </c>
       <c r="F37" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G37" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H37">
         <v>89044</v>
@@ -2804,13 +2828,13 @@
         <v>10</v>
       </c>
       <c r="J37" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K37" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L37" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2821,19 +2845,19 @@
         <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D38" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E38">
         <v>90220</v>
       </c>
       <c r="F38" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G38" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H38">
         <v>85395</v>
@@ -2842,13 +2866,13 @@
         <v>9</v>
       </c>
       <c r="J38" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K38" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L38" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2859,19 +2883,19 @@
         <v>99</v>
       </c>
       <c r="C39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D39" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G39" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H39">
         <v>60433</v>
@@ -2880,10 +2904,10 @@
         <v>9</v>
       </c>
       <c r="J39" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K39" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2894,19 +2918,19 @@
         <v>100</v>
       </c>
       <c r="C40" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D40" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G40" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H40">
         <v>60433</v>
@@ -2915,10 +2939,10 @@
         <v>9</v>
       </c>
       <c r="J40" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K40" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2929,19 +2953,19 @@
         <v>101</v>
       </c>
       <c r="C41" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D41" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E41">
         <v>7201</v>
       </c>
       <c r="F41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G41" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H41">
         <v>15672</v>
@@ -2950,10 +2974,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K41" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2964,19 +2988,19 @@
         <v>102</v>
       </c>
       <c r="C42" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D42" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E42">
         <v>7201</v>
       </c>
       <c r="F42" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G42" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H42">
         <v>15672</v>
@@ -2985,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K42" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2999,19 +3023,19 @@
         <v>103</v>
       </c>
       <c r="C43" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D43" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E43">
         <v>7201</v>
       </c>
       <c r="F43" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G43" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H43">
         <v>15672</v>
@@ -3020,10 +3044,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K43" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3034,19 +3058,19 @@
         <v>104</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D44" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E44">
         <v>7201</v>
       </c>
       <c r="F44" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G44" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H44">
         <v>15672</v>
@@ -3055,13 +3079,13 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K44" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L44" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3072,19 +3096,19 @@
         <v>105</v>
       </c>
       <c r="C45" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D45" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E45">
         <v>7201</v>
       </c>
       <c r="F45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G45" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H45">
         <v>15672</v>
@@ -3093,13 +3117,13 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K45" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L45" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -3110,19 +3134,19 @@
         <v>106</v>
       </c>
       <c r="C46" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D46" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E46">
         <v>29483</v>
       </c>
       <c r="F46" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G46" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H46">
         <v>29330</v>
@@ -3131,13 +3155,13 @@
         <v>7</v>
       </c>
       <c r="J46" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K46" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L46" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -3148,19 +3172,19 @@
         <v>107</v>
       </c>
       <c r="C47" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D47" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E47">
         <v>29483</v>
       </c>
       <c r="F47" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G47" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H47">
         <v>29330</v>
@@ -3169,13 +3193,13 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K47" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L47" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -3186,19 +3210,19 @@
         <v>108</v>
       </c>
       <c r="C48" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D48" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E48">
         <v>29483</v>
       </c>
       <c r="F48" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G48" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H48">
         <v>29330</v>
@@ -3207,13 +3231,13 @@
         <v>5</v>
       </c>
       <c r="J48" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K48" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L48" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -3224,19 +3248,19 @@
         <v>109</v>
       </c>
       <c r="C49" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D49" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E49">
         <v>29483</v>
       </c>
       <c r="F49" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G49" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H49">
         <v>29330</v>
@@ -3245,13 +3269,13 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K49" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L49" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -3262,19 +3286,19 @@
         <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D50" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E50">
         <v>29483</v>
       </c>
       <c r="F50" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G50" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H50">
         <v>29330</v>
@@ -3283,13 +3307,13 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K50" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L50" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -3300,19 +3324,19 @@
         <v>111</v>
       </c>
       <c r="C51" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D51" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E51">
         <v>7201</v>
       </c>
       <c r="F51" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G51" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H51">
         <v>15672</v>
@@ -3321,13 +3345,13 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K51" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L51" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -3338,19 +3362,19 @@
         <v>112</v>
       </c>
       <c r="C52" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D52" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E52">
         <v>29483</v>
       </c>
       <c r="F52" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G52" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H52">
         <v>29330</v>
@@ -3359,13 +3383,13 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K52" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L52" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -3376,19 +3400,19 @@
         <v>113</v>
       </c>
       <c r="C53" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D53" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E53">
         <v>29483</v>
       </c>
       <c r="F53" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G53" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H53">
         <v>29330</v>
@@ -3397,13 +3421,13 @@
         <v>9</v>
       </c>
       <c r="J53" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K53" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L53" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -3414,19 +3438,19 @@
         <v>114</v>
       </c>
       <c r="C54" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D54" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E54">
         <v>7201</v>
       </c>
       <c r="F54" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G54" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H54">
         <v>15672</v>
@@ -3435,10 +3459,10 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K54" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -3449,19 +3473,19 @@
         <v>115</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D55" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E55">
         <v>7201</v>
       </c>
       <c r="F55" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G55" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H55">
         <v>18202</v>
@@ -3470,13 +3494,13 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K55" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L55" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -3487,19 +3511,19 @@
         <v>116</v>
       </c>
       <c r="C56" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D56" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E56">
         <v>7201</v>
       </c>
       <c r="F56" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G56" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H56">
         <v>22406</v>
@@ -3508,13 +3532,13 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K56" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L56" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -3525,19 +3549,19 @@
         <v>117</v>
       </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D57" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E57">
         <v>90220</v>
       </c>
       <c r="F57" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G57" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H57">
         <v>85043</v>
@@ -3546,13 +3570,13 @@
         <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K57" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L57" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -3563,19 +3587,19 @@
         <v>118</v>
       </c>
       <c r="C58" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D58" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E58">
         <v>90220</v>
       </c>
       <c r="F58" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G58" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H58">
         <v>85395</v>
@@ -3584,13 +3608,13 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K58" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L58" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3601,19 +3625,19 @@
         <v>119</v>
       </c>
       <c r="C59" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D59" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E59">
         <v>7201</v>
       </c>
       <c r="F59" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G59" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H59">
         <v>18202</v>
@@ -3622,13 +3646,13 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K59" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L59" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3639,19 +3663,19 @@
         <v>120</v>
       </c>
       <c r="C60" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D60" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E60">
         <v>7201</v>
       </c>
       <c r="F60" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G60" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H60">
         <v>22406</v>
@@ -3660,13 +3684,13 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K60" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L60" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3677,19 +3701,19 @@
         <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E61">
         <v>7201</v>
       </c>
       <c r="F61" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G61" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H61">
         <v>18202</v>
@@ -3698,13 +3722,13 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K61" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L61" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3715,19 +3739,19 @@
         <v>122</v>
       </c>
       <c r="C62" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D62" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E62">
         <v>7201</v>
       </c>
       <c r="F62" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G62" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H62">
         <v>22406</v>
@@ -3736,13 +3760,13 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K62" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L62" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3753,19 +3777,19 @@
         <v>123</v>
       </c>
       <c r="C63" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D63" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E63">
         <v>90220</v>
       </c>
       <c r="F63" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G63" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H63">
         <v>75241</v>
@@ -3774,13 +3798,13 @@
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K63" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L63" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3791,19 +3815,19 @@
         <v>124</v>
       </c>
       <c r="C64" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D64" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E64">
         <v>90220</v>
       </c>
       <c r="F64" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G64" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H64">
         <v>85043</v>
@@ -3812,13 +3836,13 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K64" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L64" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65" spans="1:15">
@@ -3829,19 +3853,19 @@
         <v>125</v>
       </c>
       <c r="C65" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D65" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E65">
         <v>90220</v>
       </c>
       <c r="F65" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G65" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H65">
         <v>85395</v>
@@ -3850,13 +3874,13 @@
         <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K65" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="L65" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -3867,19 +3891,19 @@
         <v>126</v>
       </c>
       <c r="C66" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D66" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E66">
         <v>90220</v>
       </c>
       <c r="F66" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G66" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H66">
         <v>75241</v>
@@ -3888,13 +3912,13 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K66" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L66" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -3905,19 +3929,19 @@
         <v>127</v>
       </c>
       <c r="C67" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D67" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E67">
         <v>7201</v>
       </c>
       <c r="F67" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G67" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H67">
         <v>18202</v>
@@ -3926,13 +3950,13 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K67" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L67" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="68" spans="1:15">
@@ -3943,19 +3967,19 @@
         <v>128</v>
       </c>
       <c r="C68" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D68" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E68">
         <v>7201</v>
       </c>
       <c r="F68" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G68" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H68">
         <v>22406</v>
@@ -3964,13 +3988,13 @@
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K68" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L68" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="1:15">
@@ -3981,19 +4005,19 @@
         <v>129</v>
       </c>
       <c r="C69" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D69" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E69">
         <v>29483</v>
       </c>
       <c r="F69" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G69" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H69">
         <v>30096</v>
@@ -4002,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K69" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4016,19 +4040,19 @@
         <v>130</v>
       </c>
       <c r="C70" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D70" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E70">
         <v>29483</v>
       </c>
       <c r="F70" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G70" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H70">
         <v>30096</v>
@@ -4037,10 +4061,10 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K70" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="71" spans="1:15">
@@ -4051,19 +4075,19 @@
         <v>131</v>
       </c>
       <c r="C71" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D71" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E71">
         <v>90220</v>
       </c>
       <c r="F71" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G71" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H71">
         <v>91752</v>
@@ -4072,10 +4096,10 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K71" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4086,19 +4110,19 @@
         <v>132</v>
       </c>
       <c r="C72" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D72" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E72">
         <v>7201</v>
       </c>
       <c r="F72" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G72" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H72">
         <v>21740</v>
@@ -4107,13 +4131,13 @@
         <v>5</v>
       </c>
       <c r="J72" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K72" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L72" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4124,19 +4148,19 @@
         <v>133</v>
       </c>
       <c r="C73" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D73" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E73">
         <v>29483</v>
       </c>
       <c r="F73" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G73" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H73">
         <v>38654</v>
@@ -4145,13 +4169,13 @@
         <v>6</v>
       </c>
       <c r="J73" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K73" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L73" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="74" spans="1:15">
@@ -4162,19 +4186,19 @@
         <v>134</v>
       </c>
       <c r="C74" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D74" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E74">
         <v>7201</v>
       </c>
       <c r="F74" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G74" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H74">
         <v>18447</v>
@@ -4183,10 +4207,10 @@
         <v>18</v>
       </c>
       <c r="J74" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K74" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="1:15">
@@ -4197,19 +4221,19 @@
         <v>135</v>
       </c>
       <c r="C75" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D75" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E75">
         <v>29483</v>
       </c>
       <c r="F75" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G75" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H75">
         <v>28134</v>
@@ -4218,13 +4242,13 @@
         <v>4</v>
       </c>
       <c r="J75" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K75" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L75" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="76" spans="1:15">
@@ -4235,19 +4259,19 @@
         <v>136</v>
       </c>
       <c r="C76" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D76" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E76">
         <v>29483</v>
       </c>
       <c r="F76" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G76" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H76">
         <v>30096</v>
@@ -4256,10 +4280,10 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K76" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="1:15">
@@ -4270,19 +4294,19 @@
         <v>137</v>
       </c>
       <c r="C77" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D77" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E77">
         <v>29483</v>
       </c>
       <c r="F77" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G77" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H77">
         <v>30096</v>
@@ -4291,10 +4315,10 @@
         <v>16</v>
       </c>
       <c r="J77" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K77" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:15">
@@ -4305,19 +4329,19 @@
         <v>138</v>
       </c>
       <c r="C78" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D78" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E78">
         <v>7201</v>
       </c>
       <c r="F78" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G78" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H78">
         <v>15672</v>
@@ -4326,13 +4350,13 @@
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K78" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L78" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="79" spans="1:15">
@@ -4343,19 +4367,19 @@
         <v>139</v>
       </c>
       <c r="C79" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D79" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E79">
         <v>7201</v>
       </c>
       <c r="F79" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G79" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H79">
         <v>15672</v>
@@ -4364,13 +4388,13 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K79" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L79" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="80" spans="1:15">
@@ -4381,19 +4405,19 @@
         <v>140</v>
       </c>
       <c r="C80" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D80" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E80">
         <v>29483</v>
       </c>
       <c r="F80" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G80" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H80">
         <v>30096</v>
@@ -4402,19 +4426,19 @@
         <v>16</v>
       </c>
       <c r="J80" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K80" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M80" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="N80" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="O80" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -4425,19 +4449,19 @@
         <v>141</v>
       </c>
       <c r="C81" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D81" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E81">
         <v>7201</v>
       </c>
       <c r="F81" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G81" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H81">
         <v>17057</v>
@@ -4446,22 +4470,22 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K81" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L81" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M81" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="N81" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="O81" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -4472,19 +4496,19 @@
         <v>142</v>
       </c>
       <c r="C82" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E82">
         <v>29483</v>
       </c>
       <c r="F82" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G82" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H82">
         <v>29330</v>
@@ -4493,22 +4517,22 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K82" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L82" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M82" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="N82" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="O82" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -4519,19 +4543,19 @@
         <v>143</v>
       </c>
       <c r="C83" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D83" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E83">
         <v>7201</v>
       </c>
       <c r="F83" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G83" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H83">
         <v>15672</v>
@@ -4540,19 +4564,19 @@
         <v>4</v>
       </c>
       <c r="J83" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K83" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L83" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M83" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="N83" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="O83" s="2">
         <v>45897</v>
@@ -4566,19 +4590,19 @@
         <v>144</v>
       </c>
       <c r="C84" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D84" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E84">
         <v>29483</v>
       </c>
       <c r="F84" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G84" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H84">
         <v>38654</v>
@@ -4587,22 +4611,22 @@
         <v>6</v>
       </c>
       <c r="J84" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K84" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L84" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M84" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="N84" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="O84" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -4613,19 +4637,19 @@
         <v>145</v>
       </c>
       <c r="C85" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D85" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E85">
         <v>7201</v>
       </c>
       <c r="F85" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G85" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H85">
         <v>18447</v>
@@ -4634,19 +4658,19 @@
         <v>18</v>
       </c>
       <c r="J85" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K85" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M85" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="N85" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="O85" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -4657,19 +4681,19 @@
         <v>146</v>
       </c>
       <c r="C86" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D86" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E86">
         <v>29483</v>
       </c>
       <c r="F86" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G86" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H86">
         <v>30567</v>
@@ -4678,22 +4702,22 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K86" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L86" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M86" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="N86" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="O86" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -4704,19 +4728,19 @@
         <v>147</v>
       </c>
       <c r="C87" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D87" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E87">
         <v>7201</v>
       </c>
       <c r="F87" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G87" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H87">
         <v>8873</v>
@@ -4725,19 +4749,19 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K87" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L87" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M87" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="N87" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="O87" s="2">
         <v>45897</v>
@@ -4751,19 +4775,19 @@
         <v>148</v>
       </c>
       <c r="C88" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D88" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E88">
         <v>90220</v>
       </c>
       <c r="F88" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G88" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H88">
         <v>75241</v>
@@ -4772,22 +4796,22 @@
         <v>4</v>
       </c>
       <c r="J88" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K88" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L88" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M88" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="N88" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="O88" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -4798,19 +4822,19 @@
         <v>149</v>
       </c>
       <c r="C89" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D89" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E89">
         <v>90220</v>
       </c>
       <c r="F89" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G89" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H89">
         <v>95206</v>
@@ -4819,22 +4843,22 @@
         <v>5</v>
       </c>
       <c r="J89" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K89" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L89" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M89" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="N89" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="O89" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -4845,19 +4869,19 @@
         <v>150</v>
       </c>
       <c r="C90" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D90" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E90">
         <v>29483</v>
       </c>
       <c r="F90" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G90" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H90">
         <v>38118</v>
@@ -4866,22 +4890,22 @@
         <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K90" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L90" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M90" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="N90" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="O90" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -4892,19 +4916,19 @@
         <v>151</v>
       </c>
       <c r="C91" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E91">
         <v>7201</v>
       </c>
       <c r="F91" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G91" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H91">
         <v>46809</v>
@@ -4913,19 +4937,19 @@
         <v>5</v>
       </c>
       <c r="J91" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K91" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L91" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M91" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="N91" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="O91" s="2">
         <v>45897</v>
@@ -4939,19 +4963,19 @@
         <v>152</v>
       </c>
       <c r="C92" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D92" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E92">
         <v>7201</v>
       </c>
       <c r="F92" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G92" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H92">
         <v>48917</v>
@@ -4960,19 +4984,19 @@
         <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K92" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L92" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M92" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="N92" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="O92" s="2">
         <v>45897</v>
@@ -4986,19 +5010,19 @@
         <v>153</v>
       </c>
       <c r="C93" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D93" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E93">
         <v>29483</v>
       </c>
       <c r="F93" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G93" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H93">
         <v>38118</v>
@@ -5007,22 +5031,22 @@
         <v>4</v>
       </c>
       <c r="J93" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K93" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L93" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M93" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="N93" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="O93" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -5033,19 +5057,19 @@
         <v>154</v>
       </c>
       <c r="C94" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D94" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E94">
         <v>7201</v>
       </c>
       <c r="F94" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G94" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H94">
         <v>46809</v>
@@ -5054,19 +5078,19 @@
         <v>5</v>
       </c>
       <c r="J94" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K94" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L94" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M94" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="N94" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="O94" s="2">
         <v>45897</v>
@@ -5080,19 +5104,19 @@
         <v>155</v>
       </c>
       <c r="C95" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D95" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E95">
         <v>7201</v>
       </c>
       <c r="F95" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G95" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H95">
         <v>48917</v>
@@ -5101,19 +5125,19 @@
         <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K95" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L95" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M95" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="N95" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="O95" s="2">
         <v>45897</v>
@@ -5127,19 +5151,19 @@
         <v>156</v>
       </c>
       <c r="C96" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D96" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E96">
         <v>7201</v>
       </c>
       <c r="F96" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G96" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H96">
         <v>46809</v>
@@ -5148,19 +5172,19 @@
         <v>5</v>
       </c>
       <c r="J96" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K96" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L96" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M96" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="N96" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="O96" s="2">
         <v>45897</v>
@@ -5174,19 +5198,19 @@
         <v>157</v>
       </c>
       <c r="C97" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D97" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E97">
         <v>7201</v>
       </c>
       <c r="F97" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G97" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H97">
         <v>48917</v>
@@ -5195,19 +5219,19 @@
         <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K97" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L97" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M97" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="N97" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="O97" s="2">
         <v>45897</v>
@@ -5221,19 +5245,19 @@
         <v>158</v>
       </c>
       <c r="C98" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D98" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E98">
         <v>29483</v>
       </c>
       <c r="F98" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G98" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H98">
         <v>38118</v>
@@ -5242,22 +5266,22 @@
         <v>4</v>
       </c>
       <c r="J98" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K98" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L98" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M98" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="N98" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="O98" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="99" spans="1:15">
@@ -5268,19 +5292,19 @@
         <v>159</v>
       </c>
       <c r="C99" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D99" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E99">
         <v>7201</v>
       </c>
       <c r="F99" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G99" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H99">
         <v>18031</v>
@@ -5289,22 +5313,22 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K99" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L99" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M99" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="N99" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="O99" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="100" spans="1:15">
@@ -5315,19 +5339,19 @@
         <v>160</v>
       </c>
       <c r="C100" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D100" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E100">
         <v>7201</v>
       </c>
       <c r="F100" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G100" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H100">
         <v>18447</v>
@@ -5336,22 +5360,22 @@
         <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K100" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L100" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M100" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="N100" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="O100" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="101" spans="1:15">
@@ -5362,19 +5386,19 @@
         <v>161</v>
       </c>
       <c r="C101" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D101" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E101">
         <v>7201</v>
       </c>
       <c r="F101" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G101" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H101">
         <v>15672</v>
@@ -5383,19 +5407,19 @@
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K101" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="L101" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M101" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="N101" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="O101" s="2">
         <v>45897</v>
@@ -5409,19 +5433,19 @@
         <v>162</v>
       </c>
       <c r="C102" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D102" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E102">
         <v>7201</v>
       </c>
       <c r="F102" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G102" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H102">
         <v>18031</v>
@@ -5430,22 +5454,22 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K102" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L102" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M102" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="N102" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="O102" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="103" spans="1:15">
@@ -5456,19 +5480,19 @@
         <v>163</v>
       </c>
       <c r="C103" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D103" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E103">
         <v>7201</v>
       </c>
       <c r="F103" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G103" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H103">
         <v>18031</v>
@@ -5477,22 +5501,22 @@
         <v>3</v>
       </c>
       <c r="J103" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K103" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L103" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M103" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="N103" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="O103" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="104" spans="1:15">
@@ -5503,19 +5527,19 @@
         <v>164</v>
       </c>
       <c r="C104" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D104" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E104">
         <v>29483</v>
       </c>
       <c r="F104" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G104" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H104">
         <v>28303</v>
@@ -5524,22 +5548,22 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K104" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L104" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M104" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="N104" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="O104" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="105" spans="1:15">
@@ -5550,19 +5574,19 @@
         <v>165</v>
       </c>
       <c r="C105" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D105" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E105">
         <v>7201</v>
       </c>
       <c r="F105" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G105" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H105">
         <v>18031</v>
@@ -5571,22 +5595,22 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K105" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L105" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M105" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="N105" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="O105" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="106" spans="1:15">
@@ -5597,19 +5621,19 @@
         <v>166</v>
       </c>
       <c r="C106" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D106" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E106">
         <v>7201</v>
       </c>
       <c r="F106" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G106" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H106">
         <v>8518</v>
@@ -5618,19 +5642,19 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K106" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L106" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M106" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N106" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="O106" s="2">
         <v>45897</v>
@@ -5644,19 +5668,19 @@
         <v>167</v>
       </c>
       <c r="C107" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D107" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E107">
         <v>29483</v>
       </c>
       <c r="F107" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G107" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H107">
         <v>28303</v>
@@ -5665,22 +5689,22 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K107" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L107" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M107" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="N107" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="O107" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="108" spans="1:15">
@@ -5691,19 +5715,19 @@
         <v>168</v>
       </c>
       <c r="C108" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D108" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E108">
         <v>7201</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G108" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H108">
         <v>15672</v>
@@ -5712,19 +5736,19 @@
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K108" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L108" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M108" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="N108" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="O108" s="2">
         <v>45897</v>
@@ -5738,19 +5762,19 @@
         <v>169</v>
       </c>
       <c r="C109" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D109" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E109">
         <v>7201</v>
       </c>
       <c r="F109" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G109" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H109">
         <v>18031</v>
@@ -5759,22 +5783,22 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K109" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L109" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M109" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="N109" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="O109" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="110" spans="1:15">
@@ -5785,19 +5809,19 @@
         <v>170</v>
       </c>
       <c r="C110" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D110" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E110">
         <v>7201</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G110" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H110">
         <v>15672</v>
@@ -5806,19 +5830,19 @@
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K110" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L110" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M110" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="N110" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="O110" s="2">
         <v>45897</v>
@@ -5832,19 +5856,19 @@
         <v>171</v>
       </c>
       <c r="C111" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D111" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E111">
         <v>7201</v>
       </c>
       <c r="F111" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G111" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H111">
         <v>18031</v>
@@ -5853,22 +5877,22 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K111" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L111" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M111" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="N111" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="O111" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="112" spans="1:15">
@@ -5879,19 +5903,19 @@
         <v>172</v>
       </c>
       <c r="C112" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D112" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E112">
         <v>90220</v>
       </c>
       <c r="F112" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G112" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H112">
         <v>98327</v>
@@ -5900,22 +5924,22 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K112" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L112" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M112" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="N112" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="O112" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="113" spans="1:15">
@@ -5926,19 +5950,19 @@
         <v>173</v>
       </c>
       <c r="C113" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D113" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E113">
         <v>90220</v>
       </c>
       <c r="F113" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G113" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H113">
         <v>80018</v>
@@ -5947,19 +5971,19 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K113" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L113" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M113" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="N113" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="O113" s="2">
         <v>45897</v>
@@ -5973,19 +5997,19 @@
         <v>174</v>
       </c>
       <c r="C114" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D114" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E114">
         <v>90220</v>
       </c>
       <c r="F114" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G114" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H114">
         <v>98327</v>
@@ -5994,22 +6018,22 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K114" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L114" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M114" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="N114" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="O114" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -6020,19 +6044,19 @@
         <v>175</v>
       </c>
       <c r="C115" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D115" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E115">
         <v>90220</v>
       </c>
       <c r="F115" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G115" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H115">
         <v>80018</v>
@@ -6041,19 +6065,19 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K115" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L115" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M115" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="N115" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="O115" s="2">
         <v>45897</v>
@@ -6067,19 +6091,19 @@
         <v>176</v>
       </c>
       <c r="C116" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D116" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E116">
         <v>7201</v>
       </c>
       <c r="F116" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G116" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H116">
         <v>21901</v>
@@ -6088,19 +6112,19 @@
         <v>20</v>
       </c>
       <c r="J116" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K116" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M116" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="N116" t="s">
         <v>61</v>
       </c>
       <c r="O116" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="117" spans="1:15">
@@ -6111,19 +6135,19 @@
         <v>177</v>
       </c>
       <c r="C117" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D117" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E117">
         <v>583229</v>
       </c>
       <c r="F117" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G117" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H117">
         <v>21901</v>
@@ -6132,19 +6156,19 @@
         <v>20</v>
       </c>
       <c r="J117" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K117" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M117" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="N117" t="s">
         <v>61</v>
       </c>
       <c r="O117" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="118" spans="1:15">
@@ -6155,43 +6179,137 @@
         <v>178</v>
       </c>
       <c r="C118" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D118" t="s">
-        <v>193</v>
-      </c>
-      <c r="E118" t="s">
         <v>195</v>
       </c>
+      <c r="E118">
+        <v>7201</v>
+      </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G118" t="s">
-        <v>246</v>
-      </c>
-      <c r="H118" t="s">
-        <v>247</v>
+        <v>249</v>
+      </c>
+      <c r="H118">
+        <v>33032</v>
       </c>
       <c r="I118">
         <v>6</v>
       </c>
       <c r="J118" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K118" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L118" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M118" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="N118" t="s">
         <v>61</v>
       </c>
       <c r="O118" t="s">
-        <v>361</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" t="s">
+        <v>61</v>
+      </c>
+      <c r="B119" t="s">
+        <v>179</v>
+      </c>
+      <c r="C119" t="s">
+        <v>188</v>
+      </c>
+      <c r="D119" t="s">
+        <v>195</v>
+      </c>
+      <c r="E119">
+        <v>7201</v>
+      </c>
+      <c r="F119" t="s">
+        <v>206</v>
+      </c>
+      <c r="G119" t="s">
+        <v>240</v>
+      </c>
+      <c r="H119">
+        <v>18101</v>
+      </c>
+      <c r="I119">
+        <v>8</v>
+      </c>
+      <c r="J119" t="s">
+        <v>251</v>
+      </c>
+      <c r="K119" t="s">
+        <v>303</v>
+      </c>
+      <c r="L119" t="s">
+        <v>305</v>
+      </c>
+      <c r="M119" t="s">
+        <v>337</v>
+      </c>
+      <c r="N119" t="s">
+        <v>61</v>
+      </c>
+      <c r="O119" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" t="s">
+        <v>61</v>
+      </c>
+      <c r="B120" t="s">
+        <v>180</v>
+      </c>
+      <c r="C120" t="s">
+        <v>188</v>
+      </c>
+      <c r="D120" t="s">
+        <v>195</v>
+      </c>
+      <c r="E120" t="s">
+        <v>197</v>
+      </c>
+      <c r="F120" t="s">
+        <v>235</v>
+      </c>
+      <c r="G120" t="s">
+        <v>194</v>
+      </c>
+      <c r="H120" t="s">
+        <v>250</v>
+      </c>
+      <c r="I120">
+        <v>5</v>
+      </c>
+      <c r="J120" t="s">
+        <v>251</v>
+      </c>
+      <c r="K120" t="s">
+        <v>304</v>
+      </c>
+      <c r="L120" t="s">
+        <v>305</v>
+      </c>
+      <c r="M120" t="s">
+        <v>338</v>
+      </c>
+      <c r="N120" t="s">
+        <v>61</v>
+      </c>
+      <c r="O120" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/Logs/heyprimo_api_tracking.xlsx
+++ b/Logs/heyprimo_api_tracking.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="376">
   <si>
     <t>Quotation Number</t>
   </si>
@@ -61,6 +61,9 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Quote Type</t>
+  </si>
+  <si>
     <t>CMM0246LCL0044</t>
   </si>
   <si>
@@ -559,6 +562,9 @@
     <t>2025-09-23 12:04:01</t>
   </si>
   <si>
+    <t>2025-09-24 07:50:32</t>
+  </si>
+  <si>
     <t>CHARLESTON</t>
   </si>
   <si>
@@ -931,6 +937,9 @@
     <t>Rate: 809.8, Carrier: ABF Freight System VL</t>
   </si>
   <si>
+    <t>Rate: 525.18, Carrier: Estes Express Lines</t>
+  </si>
+  <si>
     <t>API</t>
   </si>
   <si>
@@ -1033,6 +1042,9 @@
     <t>TRANSPORT_RATES_20250923120352</t>
   </si>
   <si>
+    <t>TRANSPORT_RATES_20250924075011</t>
+  </si>
+  <si>
     <t>ATL9</t>
   </si>
   <si>
@@ -1124,6 +1136,12 @@
   </si>
   <si>
     <t>23-09-2025</t>
+  </si>
+  <si>
+    <t>24-09-2025</t>
+  </si>
+  <si>
+    <t>LTL</t>
   </si>
 </sst>
 </file>
@@ -1485,13 +1503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O120"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1537,28 +1555,31 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E2">
         <v>29483</v>
       </c>
       <c r="F2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H2">
         <v>28303</v>
@@ -1567,36 +1588,36 @@
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E3">
         <v>7201</v>
       </c>
       <c r="F3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H3">
         <v>46140</v>
@@ -1605,36 +1626,36 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E4">
         <v>90220</v>
       </c>
       <c r="F4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H4">
         <v>75241</v>
@@ -1643,36 +1664,36 @@
         <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E5">
         <v>90220</v>
       </c>
       <c r="F5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H5">
         <v>85395</v>
@@ -1681,36 +1702,36 @@
         <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L5" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E6">
         <v>90220</v>
       </c>
       <c r="F6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H6">
         <v>85043</v>
@@ -1719,36 +1740,36 @@
         <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E7">
         <v>29483</v>
       </c>
       <c r="F7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H7">
         <v>30567</v>
@@ -1757,36 +1778,36 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E8">
         <v>7201</v>
       </c>
       <c r="F8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H8">
         <v>8873</v>
@@ -1795,36 +1816,36 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K8" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E9">
         <v>77020</v>
       </c>
       <c r="F9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H9">
         <v>75007</v>
@@ -1833,33 +1854,33 @@
         <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E10">
         <v>7201</v>
       </c>
       <c r="F10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H10">
         <v>18105</v>
@@ -1868,33 +1889,33 @@
         <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E11">
         <v>7201</v>
       </c>
       <c r="F11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H11">
         <v>17112</v>
@@ -1903,33 +1924,33 @@
         <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E12">
         <v>7201</v>
       </c>
       <c r="F12" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G12" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H12">
         <v>18202</v>
@@ -1938,36 +1959,36 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K12" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L12" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E13">
         <v>77020</v>
       </c>
       <c r="F13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G13" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H13">
         <v>75007</v>
@@ -1976,33 +1997,33 @@
         <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K13" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E14">
         <v>7201</v>
       </c>
       <c r="F14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G14" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H14">
         <v>18105</v>
@@ -2011,33 +2032,33 @@
         <v>100</v>
       </c>
       <c r="J14" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K14" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E15">
         <v>7201</v>
       </c>
       <c r="F15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H15">
         <v>17112</v>
@@ -2046,33 +2067,33 @@
         <v>100</v>
       </c>
       <c r="J15" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K15" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E16">
         <v>29483</v>
       </c>
       <c r="F16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H16">
         <v>29330</v>
@@ -2081,33 +2102,33 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K16" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E17">
         <v>29483</v>
       </c>
       <c r="F17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H17">
         <v>29330</v>
@@ -2116,33 +2137,33 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K17" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E18">
         <v>29483</v>
       </c>
       <c r="F18" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H18">
         <v>29330</v>
@@ -2151,33 +2172,33 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K18" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E19">
         <v>7201</v>
       </c>
       <c r="F19" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G19" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H19">
         <v>46410</v>
@@ -2186,33 +2207,33 @@
         <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K19" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E20">
         <v>29483</v>
       </c>
       <c r="F20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H20">
         <v>29330</v>
@@ -2221,33 +2242,33 @@
         <v>19</v>
       </c>
       <c r="J20" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K20" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E21">
         <v>7201</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G21" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H21">
         <v>46410</v>
@@ -2256,33 +2277,33 @@
         <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D22" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E22">
         <v>7201</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G22" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H22">
         <v>46410</v>
@@ -2291,33 +2312,33 @@
         <v>19</v>
       </c>
       <c r="J22" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K22" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E23">
         <v>7201</v>
       </c>
       <c r="F23" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G23" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H23">
         <v>48917</v>
@@ -2326,33 +2347,33 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K23" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D24" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G24" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H24">
         <v>60433</v>
@@ -2361,33 +2382,33 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K24" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D25" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E25">
         <v>7201</v>
       </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G25" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H25">
         <v>46809</v>
@@ -2396,33 +2417,33 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K25" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E26">
         <v>7201</v>
       </c>
       <c r="F26" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G26" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H26">
         <v>48917</v>
@@ -2431,33 +2452,33 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K26" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D27" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G27" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H27">
         <v>60433</v>
@@ -2466,33 +2487,33 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K27" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E28">
         <v>7201</v>
       </c>
       <c r="F28" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G28" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H28">
         <v>46809</v>
@@ -2501,33 +2522,33 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K28" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D29" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G29" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H29">
         <v>60433</v>
@@ -2536,33 +2557,33 @@
         <v>9</v>
       </c>
       <c r="J29" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K29" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D30" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E30">
         <v>7201</v>
       </c>
       <c r="F30" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G30" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H30">
         <v>48917</v>
@@ -2571,36 +2592,36 @@
         <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K30" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L30" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D31" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G31" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H31">
         <v>60433</v>
@@ -2609,33 +2630,33 @@
         <v>9</v>
       </c>
       <c r="J31" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K31" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D32" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E32">
         <v>7201</v>
       </c>
       <c r="F32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G32" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H32">
         <v>46809</v>
@@ -2644,36 +2665,36 @@
         <v>10</v>
       </c>
       <c r="J32" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K32" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D33" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E33">
         <v>7201</v>
       </c>
       <c r="F33" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G33" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H33">
         <v>48917</v>
@@ -2682,36 +2703,36 @@
         <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K33" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L33" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D34" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G34" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H34">
         <v>60433</v>
@@ -2720,33 +2741,33 @@
         <v>9</v>
       </c>
       <c r="J34" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K34" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D35" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E35">
         <v>7201</v>
       </c>
       <c r="F35" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G35" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H35">
         <v>46809</v>
@@ -2755,36 +2776,36 @@
         <v>10</v>
       </c>
       <c r="J35" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K35" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L35" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D36" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G36" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H36">
         <v>60433</v>
@@ -2793,33 +2814,33 @@
         <v>9</v>
       </c>
       <c r="J36" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K36" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D37" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E37">
         <v>90220</v>
       </c>
       <c r="F37" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G37" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H37">
         <v>89044</v>
@@ -2828,36 +2849,36 @@
         <v>10</v>
       </c>
       <c r="J37" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K37" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L37" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D38" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E38">
         <v>90220</v>
       </c>
       <c r="F38" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G38" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H38">
         <v>85395</v>
@@ -2866,36 +2887,36 @@
         <v>9</v>
       </c>
       <c r="J38" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K38" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L38" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D39" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G39" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H39">
         <v>60433</v>
@@ -2904,33 +2925,33 @@
         <v>9</v>
       </c>
       <c r="J39" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K39" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D40" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G40" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H40">
         <v>60433</v>
@@ -2939,33 +2960,33 @@
         <v>9</v>
       </c>
       <c r="J40" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K40" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D41" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E41">
         <v>7201</v>
       </c>
       <c r="F41" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G41" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H41">
         <v>15672</v>
@@ -2974,33 +2995,33 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K41" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D42" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E42">
         <v>7201</v>
       </c>
       <c r="F42" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G42" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H42">
         <v>15672</v>
@@ -3009,33 +3030,33 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K42" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C43" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D43" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E43">
         <v>7201</v>
       </c>
       <c r="F43" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G43" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H43">
         <v>15672</v>
@@ -3044,33 +3065,33 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K43" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C44" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D44" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E44">
         <v>7201</v>
       </c>
       <c r="F44" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G44" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H44">
         <v>15672</v>
@@ -3079,36 +3100,36 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K44" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L44" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D45" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E45">
         <v>7201</v>
       </c>
       <c r="F45" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G45" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H45">
         <v>15672</v>
@@ -3117,36 +3138,36 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K45" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L45" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D46" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E46">
         <v>29483</v>
       </c>
       <c r="F46" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G46" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H46">
         <v>29330</v>
@@ -3155,36 +3176,36 @@
         <v>7</v>
       </c>
       <c r="J46" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K46" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L46" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C47" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D47" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E47">
         <v>29483</v>
       </c>
       <c r="F47" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G47" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H47">
         <v>29330</v>
@@ -3193,36 +3214,36 @@
         <v>3</v>
       </c>
       <c r="J47" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K47" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L47" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D48" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E48">
         <v>29483</v>
       </c>
       <c r="F48" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G48" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H48">
         <v>29330</v>
@@ -3231,36 +3252,36 @@
         <v>5</v>
       </c>
       <c r="J48" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K48" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L48" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D49" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E49">
         <v>29483</v>
       </c>
       <c r="F49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G49" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H49">
         <v>29330</v>
@@ -3269,36 +3290,36 @@
         <v>3</v>
       </c>
       <c r="J49" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K49" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L49" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C50" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D50" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E50">
         <v>29483</v>
       </c>
       <c r="F50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G50" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H50">
         <v>29330</v>
@@ -3307,36 +3328,36 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K50" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L50" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C51" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D51" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E51">
         <v>7201</v>
       </c>
       <c r="F51" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G51" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H51">
         <v>15672</v>
@@ -3345,36 +3366,36 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K51" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L51" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D52" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E52">
         <v>29483</v>
       </c>
       <c r="F52" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G52" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H52">
         <v>29330</v>
@@ -3383,36 +3404,36 @@
         <v>3</v>
       </c>
       <c r="J52" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K52" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L52" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D53" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E53">
         <v>29483</v>
       </c>
       <c r="F53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G53" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H53">
         <v>29330</v>
@@ -3421,36 +3442,36 @@
         <v>9</v>
       </c>
       <c r="J53" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K53" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L53" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C54" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D54" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E54">
         <v>7201</v>
       </c>
       <c r="F54" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G54" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H54">
         <v>15672</v>
@@ -3459,33 +3480,33 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K54" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C55" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D55" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E55">
         <v>7201</v>
       </c>
       <c r="F55" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G55" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H55">
         <v>18202</v>
@@ -3494,36 +3515,36 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K55" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L55" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C56" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D56" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E56">
         <v>7201</v>
       </c>
       <c r="F56" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G56" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H56">
         <v>22406</v>
@@ -3532,36 +3553,36 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K56" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L56" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C57" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D57" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E57">
         <v>90220</v>
       </c>
       <c r="F57" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G57" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H57">
         <v>85043</v>
@@ -3570,36 +3591,36 @@
         <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K57" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L57" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D58" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E58">
         <v>90220</v>
       </c>
       <c r="F58" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G58" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H58">
         <v>85395</v>
@@ -3608,36 +3629,36 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K58" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L58" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D59" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E59">
         <v>7201</v>
       </c>
       <c r="F59" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G59" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H59">
         <v>18202</v>
@@ -3646,36 +3667,36 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K59" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L59" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D60" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E60">
         <v>7201</v>
       </c>
       <c r="F60" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G60" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H60">
         <v>22406</v>
@@ -3684,36 +3705,36 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K60" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L60" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C61" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D61" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E61">
         <v>7201</v>
       </c>
       <c r="F61" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G61" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H61">
         <v>18202</v>
@@ -3722,36 +3743,36 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K61" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L61" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C62" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D62" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E62">
         <v>7201</v>
       </c>
       <c r="F62" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G62" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H62">
         <v>22406</v>
@@ -3760,36 +3781,36 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K62" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L62" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C63" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D63" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E63">
         <v>90220</v>
       </c>
       <c r="F63" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G63" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H63">
         <v>75241</v>
@@ -3798,36 +3819,36 @@
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K63" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L63" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C64" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D64" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E64">
         <v>90220</v>
       </c>
       <c r="F64" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G64" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H64">
         <v>85043</v>
@@ -3836,36 +3857,36 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K64" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L64" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C65" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D65" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E65">
         <v>90220</v>
       </c>
       <c r="F65" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G65" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H65">
         <v>85395</v>
@@ -3874,36 +3895,36 @@
         <v>3</v>
       </c>
       <c r="J65" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K65" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L65" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B66" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C66" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D66" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E66">
         <v>90220</v>
       </c>
       <c r="F66" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G66" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H66">
         <v>75241</v>
@@ -3912,36 +3933,36 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K66" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L66" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B67" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C67" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D67" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E67">
         <v>7201</v>
       </c>
       <c r="F67" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G67" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H67">
         <v>18202</v>
@@ -3950,36 +3971,36 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K67" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L67" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B68" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C68" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D68" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E68">
         <v>7201</v>
       </c>
       <c r="F68" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G68" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H68">
         <v>22406</v>
@@ -3988,36 +4009,36 @@
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K68" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L68" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B69" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C69" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D69" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E69">
         <v>29483</v>
       </c>
       <c r="F69" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G69" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H69">
         <v>30096</v>
@@ -4026,33 +4047,33 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K69" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B70" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C70" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D70" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E70">
         <v>29483</v>
       </c>
       <c r="F70" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G70" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H70">
         <v>30096</v>
@@ -4061,33 +4082,33 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K70" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B71" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C71" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D71" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E71">
         <v>90220</v>
       </c>
       <c r="F71" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G71" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H71">
         <v>91752</v>
@@ -4096,33 +4117,33 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K71" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B72" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C72" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D72" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E72">
         <v>7201</v>
       </c>
       <c r="F72" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G72" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H72">
         <v>21740</v>
@@ -4131,36 +4152,36 @@
         <v>5</v>
       </c>
       <c r="J72" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K72" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L72" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C73" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D73" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E73">
         <v>29483</v>
       </c>
       <c r="F73" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G73" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H73">
         <v>38654</v>
@@ -4169,36 +4190,36 @@
         <v>6</v>
       </c>
       <c r="J73" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K73" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L73" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C74" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D74" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E74">
         <v>7201</v>
       </c>
       <c r="F74" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G74" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H74">
         <v>18447</v>
@@ -4207,33 +4228,33 @@
         <v>18</v>
       </c>
       <c r="J74" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K74" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C75" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D75" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E75">
         <v>29483</v>
       </c>
       <c r="F75" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G75" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H75">
         <v>28134</v>
@@ -4242,36 +4263,36 @@
         <v>4</v>
       </c>
       <c r="J75" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K75" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L75" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B76" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C76" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D76" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E76">
         <v>29483</v>
       </c>
       <c r="F76" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G76" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H76">
         <v>30096</v>
@@ -4280,33 +4301,33 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K76" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B77" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C77" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D77" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E77">
         <v>29483</v>
       </c>
       <c r="F77" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G77" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H77">
         <v>30096</v>
@@ -4315,33 +4336,33 @@
         <v>16</v>
       </c>
       <c r="J77" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K77" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B78" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C78" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D78" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E78">
         <v>7201</v>
       </c>
       <c r="F78" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G78" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H78">
         <v>15672</v>
@@ -4350,36 +4371,36 @@
         <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K78" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L78" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B79" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C79" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D79" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E79">
         <v>7201</v>
       </c>
       <c r="F79" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G79" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H79">
         <v>15672</v>
@@ -4388,36 +4409,36 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K79" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L79" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B80" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C80" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D80" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E80">
         <v>29483</v>
       </c>
       <c r="F80" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G80" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H80">
         <v>30096</v>
@@ -4426,42 +4447,42 @@
         <v>16</v>
       </c>
       <c r="J80" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K80" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M80" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N80" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="O80" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B81" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C81" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D81" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E81">
         <v>7201</v>
       </c>
       <c r="F81" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G81" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H81">
         <v>17057</v>
@@ -4470,45 +4491,45 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K81" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L81" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M81" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="N81" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="O81" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B82" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C82" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D82" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E82">
         <v>29483</v>
       </c>
       <c r="F82" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G82" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H82">
         <v>29330</v>
@@ -4517,45 +4538,45 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K82" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L82" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M82" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="N82" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="O82" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B83" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C83" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D83" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E83">
         <v>7201</v>
       </c>
       <c r="F83" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G83" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H83">
         <v>15672</v>
@@ -4564,19 +4585,19 @@
         <v>4</v>
       </c>
       <c r="J83" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K83" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L83" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M83" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N83" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="O83" s="2">
         <v>45897</v>
@@ -4584,25 +4605,25 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C84" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D84" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E84">
         <v>29483</v>
       </c>
       <c r="F84" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G84" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H84">
         <v>38654</v>
@@ -4611,45 +4632,45 @@
         <v>6</v>
       </c>
       <c r="J84" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K84" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L84" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M84" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="N84" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="O84" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B85" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C85" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D85" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E85">
         <v>7201</v>
       </c>
       <c r="F85" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G85" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H85">
         <v>18447</v>
@@ -4658,42 +4679,42 @@
         <v>18</v>
       </c>
       <c r="J85" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K85" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M85" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="N85" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="O85" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B86" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C86" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D86" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E86">
         <v>29483</v>
       </c>
       <c r="F86" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G86" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H86">
         <v>30567</v>
@@ -4702,45 +4723,45 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K86" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L86" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M86" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="N86" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="O86" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C87" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D87" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E87">
         <v>7201</v>
       </c>
       <c r="F87" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G87" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H87">
         <v>8873</v>
@@ -4749,19 +4770,19 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K87" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L87" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M87" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="N87" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="O87" s="2">
         <v>45897</v>
@@ -4769,25 +4790,25 @@
     </row>
     <row r="88" spans="1:15">
       <c r="A88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C88" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D88" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E88">
         <v>90220</v>
       </c>
       <c r="F88" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G88" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H88">
         <v>75241</v>
@@ -4796,45 +4817,45 @@
         <v>4</v>
       </c>
       <c r="J88" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K88" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="L88" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M88" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N88" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="O88" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B89" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D89" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E89">
         <v>90220</v>
       </c>
       <c r="F89" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G89" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H89">
         <v>95206</v>
@@ -4843,45 +4864,45 @@
         <v>5</v>
       </c>
       <c r="J89" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K89" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L89" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M89" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N89" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="O89" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B90" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D90" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E90">
         <v>29483</v>
       </c>
       <c r="F90" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G90" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H90">
         <v>38118</v>
@@ -4890,45 +4911,45 @@
         <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K90" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L90" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M90" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="N90" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="O90" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B91" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D91" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E91">
         <v>7201</v>
       </c>
       <c r="F91" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G91" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H91">
         <v>46809</v>
@@ -4937,19 +4958,19 @@
         <v>5</v>
       </c>
       <c r="J91" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K91" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L91" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M91" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="N91" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="O91" s="2">
         <v>45897</v>
@@ -4957,25 +4978,25 @@
     </row>
     <row r="92" spans="1:15">
       <c r="A92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B92" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C92" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D92" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E92">
         <v>7201</v>
       </c>
       <c r="F92" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G92" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H92">
         <v>48917</v>
@@ -4984,19 +5005,19 @@
         <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K92" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L92" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M92" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="N92" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="O92" s="2">
         <v>45897</v>
@@ -5004,25 +5025,25 @@
     </row>
     <row r="93" spans="1:15">
       <c r="A93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B93" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C93" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D93" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E93">
         <v>29483</v>
       </c>
       <c r="F93" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G93" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H93">
         <v>38118</v>
@@ -5031,45 +5052,45 @@
         <v>4</v>
       </c>
       <c r="J93" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K93" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L93" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M93" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="N93" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="O93" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B94" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C94" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D94" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E94">
         <v>7201</v>
       </c>
       <c r="F94" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G94" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H94">
         <v>46809</v>
@@ -5078,19 +5099,19 @@
         <v>5</v>
       </c>
       <c r="J94" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K94" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L94" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M94" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="N94" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="O94" s="2">
         <v>45897</v>
@@ -5098,25 +5119,25 @@
     </row>
     <row r="95" spans="1:15">
       <c r="A95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B95" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C95" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D95" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E95">
         <v>7201</v>
       </c>
       <c r="F95" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G95" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H95">
         <v>48917</v>
@@ -5125,19 +5146,19 @@
         <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K95" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L95" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M95" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="N95" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="O95" s="2">
         <v>45897</v>
@@ -5145,25 +5166,25 @@
     </row>
     <row r="96" spans="1:15">
       <c r="A96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B96" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C96" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D96" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E96">
         <v>7201</v>
       </c>
       <c r="F96" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G96" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H96">
         <v>46809</v>
@@ -5172,19 +5193,19 @@
         <v>5</v>
       </c>
       <c r="J96" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K96" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L96" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M96" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="N96" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="O96" s="2">
         <v>45897</v>
@@ -5192,25 +5213,25 @@
     </row>
     <row r="97" spans="1:15">
       <c r="A97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B97" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C97" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D97" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E97">
         <v>7201</v>
       </c>
       <c r="F97" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G97" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H97">
         <v>48917</v>
@@ -5219,19 +5240,19 @@
         <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K97" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L97" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M97" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="N97" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="O97" s="2">
         <v>45897</v>
@@ -5239,25 +5260,25 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B98" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C98" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D98" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E98">
         <v>29483</v>
       </c>
       <c r="F98" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G98" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H98">
         <v>38118</v>
@@ -5266,45 +5287,45 @@
         <v>4</v>
       </c>
       <c r="J98" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K98" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L98" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M98" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="N98" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="O98" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B99" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C99" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D99" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E99">
         <v>7201</v>
       </c>
       <c r="F99" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G99" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H99">
         <v>18031</v>
@@ -5313,45 +5334,45 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K99" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L99" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M99" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="N99" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="O99" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B100" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C100" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D100" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E100">
         <v>7201</v>
       </c>
       <c r="F100" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G100" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H100">
         <v>18447</v>
@@ -5360,45 +5381,45 @@
         <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K100" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L100" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M100" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="N100" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="O100" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B101" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C101" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D101" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E101">
         <v>7201</v>
       </c>
       <c r="F101" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G101" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H101">
         <v>15672</v>
@@ -5407,19 +5428,19 @@
         <v>3</v>
       </c>
       <c r="J101" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K101" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L101" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M101" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="N101" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="O101" s="2">
         <v>45897</v>
@@ -5427,25 +5448,25 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B102" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C102" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D102" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E102">
         <v>7201</v>
       </c>
       <c r="F102" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G102" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H102">
         <v>18031</v>
@@ -5454,45 +5475,45 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K102" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L102" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M102" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="N102" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="O102" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B103" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C103" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D103" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E103">
         <v>7201</v>
       </c>
       <c r="F103" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G103" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H103">
         <v>18031</v>
@@ -5501,45 +5522,45 @@
         <v>3</v>
       </c>
       <c r="J103" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K103" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L103" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M103" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N103" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="O103" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B104" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C104" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D104" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E104">
         <v>29483</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G104" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H104">
         <v>28303</v>
@@ -5548,45 +5569,45 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K104" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L104" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M104" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N104" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="O104" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B105" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C105" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D105" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E105">
         <v>7201</v>
       </c>
       <c r="F105" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G105" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H105">
         <v>18031</v>
@@ -5595,45 +5616,45 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K105" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L105" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M105" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N105" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="O105" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B106" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C106" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D106" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E106">
         <v>7201</v>
       </c>
       <c r="F106" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G106" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H106">
         <v>8518</v>
@@ -5642,19 +5663,19 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K106" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L106" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M106" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="N106" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="O106" s="2">
         <v>45897</v>
@@ -5662,25 +5683,25 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B107" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C107" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D107" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E107">
         <v>29483</v>
       </c>
       <c r="F107" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G107" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H107">
         <v>28303</v>
@@ -5689,45 +5710,45 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K107" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L107" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M107" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="N107" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="O107" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B108" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C108" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D108" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E108">
         <v>7201</v>
       </c>
       <c r="F108" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G108" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H108">
         <v>15672</v>
@@ -5736,19 +5757,19 @@
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K108" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L108" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M108" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="N108" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="O108" s="2">
         <v>45897</v>
@@ -5756,25 +5777,25 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B109" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C109" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D109" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E109">
         <v>7201</v>
       </c>
       <c r="F109" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G109" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H109">
         <v>18031</v>
@@ -5783,45 +5804,45 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K109" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L109" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M109" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="N109" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="O109" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="110" spans="1:15">
       <c r="A110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B110" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C110" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D110" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E110">
         <v>7201</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G110" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H110">
         <v>15672</v>
@@ -5830,19 +5851,19 @@
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K110" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L110" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M110" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="N110" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="O110" s="2">
         <v>45897</v>
@@ -5850,25 +5871,25 @@
     </row>
     <row r="111" spans="1:15">
       <c r="A111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B111" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C111" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D111" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E111">
         <v>7201</v>
       </c>
       <c r="F111" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G111" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H111">
         <v>18031</v>
@@ -5877,45 +5898,45 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K111" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L111" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M111" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="N111" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="O111" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="112" spans="1:15">
       <c r="A112" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B112" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C112" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D112" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E112">
         <v>90220</v>
       </c>
       <c r="F112" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G112" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H112">
         <v>98327</v>
@@ -5924,45 +5945,45 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K112" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L112" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M112" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="N112" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="O112" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
       <c r="A113" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B113" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C113" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D113" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E113">
         <v>90220</v>
       </c>
       <c r="F113" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G113" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H113">
         <v>80018</v>
@@ -5971,45 +5992,45 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K113" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L113" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M113" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="N113" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="O113" s="2">
         <v>45897</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:16">
       <c r="A114" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B114" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C114" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D114" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E114">
         <v>90220</v>
       </c>
       <c r="F114" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G114" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H114">
         <v>98327</v>
@@ -6018,45 +6039,45 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K114" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L114" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M114" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N114" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="O114" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
       <c r="A115" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B115" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C115" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D115" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E115">
         <v>90220</v>
       </c>
       <c r="F115" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G115" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H115">
         <v>80018</v>
@@ -6065,45 +6086,45 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K115" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L115" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M115" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N115" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="O115" s="2">
         <v>45897</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:16">
       <c r="A116" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B116" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C116" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D116" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E116">
         <v>7201</v>
       </c>
       <c r="F116" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G116" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H116">
         <v>21901</v>
@@ -6112,42 +6133,42 @@
         <v>20</v>
       </c>
       <c r="J116" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K116" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M116" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N116" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O116" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
       <c r="A117" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B117" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C117" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D117" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E117">
         <v>583229</v>
       </c>
       <c r="F117" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G117" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H117">
         <v>21901</v>
@@ -6156,42 +6177,42 @@
         <v>20</v>
       </c>
       <c r="J117" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K117" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M117" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="N117" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O117" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
       <c r="A118" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B118" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C118" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D118" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E118">
         <v>7201</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G118" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H118">
         <v>33032</v>
@@ -6200,45 +6221,45 @@
         <v>6</v>
       </c>
       <c r="J118" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K118" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L118" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M118" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="N118" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O118" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B119" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C119" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D119" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E119">
         <v>7201</v>
       </c>
       <c r="F119" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G119" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H119">
         <v>18101</v>
@@ -6247,69 +6268,119 @@
         <v>8</v>
       </c>
       <c r="J119" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K119" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L119" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M119" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="N119" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O119" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
       <c r="A120" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B120" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C120" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D120" t="s">
-        <v>195</v>
-      </c>
-      <c r="E120" t="s">
         <v>197</v>
       </c>
+      <c r="E120">
+        <v>7201</v>
+      </c>
       <c r="F120" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G120" t="s">
-        <v>194</v>
-      </c>
-      <c r="H120" t="s">
-        <v>250</v>
+        <v>196</v>
+      </c>
+      <c r="H120">
+        <v>60007</v>
       </c>
       <c r="I120">
         <v>5</v>
       </c>
       <c r="J120" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K120" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L120" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M120" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N120" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O120" t="s">
-        <v>369</v>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
+      <c r="A121" t="s">
+        <v>62</v>
+      </c>
+      <c r="B121" t="s">
+        <v>182</v>
+      </c>
+      <c r="C121" t="s">
+        <v>190</v>
+      </c>
+      <c r="D121" t="s">
+        <v>197</v>
+      </c>
+      <c r="E121" t="s">
+        <v>199</v>
+      </c>
+      <c r="F121" t="s">
+        <v>237</v>
+      </c>
+      <c r="G121" t="s">
+        <v>196</v>
+      </c>
+      <c r="H121" t="s">
+        <v>252</v>
+      </c>
+      <c r="I121">
+        <v>3</v>
+      </c>
+      <c r="J121" t="s">
+        <v>253</v>
+      </c>
+      <c r="K121" t="s">
+        <v>307</v>
+      </c>
+      <c r="L121" t="s">
+        <v>308</v>
+      </c>
+      <c r="M121" t="s">
+        <v>342</v>
+      </c>
+      <c r="N121" t="s">
+        <v>62</v>
+      </c>
+      <c r="O121" t="s">
+        <v>374</v>
+      </c>
+      <c r="P121" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
